--- a/data/450_P_features_case.xlsx
+++ b/data/450_P_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R141"/>
+  <dimension ref="A1:R119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7842 +528,6610 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9928336347636983</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.314277599044431</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.001176059479671978</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.02542919980580591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.608771576920457e-07</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04130790998565151</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.359418485795444e-05</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0004769974998085068</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2867026105032932</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>-2.103617742541775e-05</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.0001527938215795295</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.001443861638482847</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>-1.527469084038538e-05</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.563378485767096e-06</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001235449143022294</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.002770148399990516</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>2869.433558105368</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.004737600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.9931090994081248</v>
+        <v>0.9928336347636983</v>
       </c>
       <c r="B3" t="n">
-        <v>10.41557718415887</v>
+        <v>5.314277599044431</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.002334885773539499</v>
+        <v>-0.001176059479671978</v>
       </c>
       <c r="D3" t="n">
-        <v>0.05020635358060563</v>
+        <v>0.02542919980580591</v>
       </c>
       <c r="E3" t="n">
-        <v>1.129733675846336e-06</v>
+        <v>-4.608771576920457e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07250408065420143</v>
+        <v>0.04130790998565151</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.090135246704333e-06</v>
+        <v>-1.359418485795444e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.002351549462660542</v>
+        <v>0.0004769974998085068</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9488326103040085</v>
+        <v>0.2867026105032932</v>
       </c>
       <c r="J3" t="n">
-        <v>3.121606966639756e-05</v>
+        <v>-2.103617742541775e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.0004643745971960224</v>
+        <v>-0.0001527938215795295</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.008008960004473938</v>
+        <v>-0.001443861638482847</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.308777002062906e-05</v>
+        <v>-1.527469084038538e-05</v>
       </c>
       <c r="N3" t="n">
-        <v>3.859029847031655e-05</v>
+        <v>5.563378485767096e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>0.004702741243815434</v>
+        <v>0.001235449143022294</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.00932321687623856</v>
+        <v>-0.002770148399990516</v>
       </c>
       <c r="Q3" t="n">
-        <v>2917.309127730321</v>
+        <v>2869.433558105368</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0094751</v>
+        <v>0.004737600000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.9934976818222581</v>
+        <v>0.9931090994081248</v>
       </c>
       <c r="B4" t="n">
-        <v>14.97574298891978</v>
+        <v>10.41557718415887</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.004006605306619847</v>
+        <v>-0.002334885773539499</v>
       </c>
       <c r="D4" t="n">
-        <v>0.072550439362744</v>
+        <v>0.05020635358060563</v>
       </c>
       <c r="E4" t="n">
-        <v>2.333602921723499e-06</v>
+        <v>1.129733675846336e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08917900368801006</v>
+        <v>0.07250408065420143</v>
       </c>
       <c r="G4" t="n">
-        <v>-5.953510214991925e-06</v>
+        <v>-9.090135246704333e-06</v>
       </c>
       <c r="H4" t="n">
-        <v>0.004062095641834964</v>
+        <v>0.002351549462660542</v>
       </c>
       <c r="I4" t="n">
-        <v>1.604767006446856</v>
+        <v>0.9488326103040085</v>
       </c>
       <c r="J4" t="n">
-        <v>3.816149500007471e-05</v>
+        <v>3.121606966639756e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.0007184566870395282</v>
+        <v>-0.0004643745971960224</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.01297451136696136</v>
+        <v>-0.008008960004473938</v>
       </c>
       <c r="M4" t="n">
-        <v>-7.443459006380843e-05</v>
+        <v>-4.308777002062906e-05</v>
       </c>
       <c r="N4" t="n">
-        <v>8.498636911918712e-05</v>
+        <v>3.859029847031655e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>0.008363942099960688</v>
+        <v>0.004702741243815434</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.01715199940222327</v>
+        <v>-0.00932321687623856</v>
       </c>
       <c r="Q4" t="n">
-        <v>2983.103060569365</v>
+        <v>2917.309127730321</v>
       </c>
       <c r="R4" t="n">
-        <v>0.014213</v>
+        <v>0.0094751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.993932444735898</v>
+        <v>0.9934976818222581</v>
       </c>
       <c r="B5" t="n">
-        <v>18.82162291747626</v>
+        <v>14.97574298891978</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.005677849712771899</v>
+        <v>-0.004006605306619847</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09140219917419277</v>
+        <v>0.072550439362744</v>
       </c>
       <c r="E5" t="n">
-        <v>2.938253747928437e-06</v>
+        <v>2.333602921723499e-06</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09214797124697335</v>
+        <v>0.08917900368801006</v>
       </c>
       <c r="G5" t="n">
-        <v>-4.92700813586226e-06</v>
+        <v>-5.953510214991925e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.005129063683673611</v>
+        <v>0.004062095641834964</v>
       </c>
       <c r="I5" t="n">
-        <v>1.9967161926185</v>
+        <v>1.604767006446856</v>
       </c>
       <c r="J5" t="n">
-        <v>-3.66540428860397e-06</v>
+        <v>3.816149500007471e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.001007592488323195</v>
+        <v>-0.0007184566870395282</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.01327228179121142</v>
+        <v>-0.01297451136696136</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.000117462294210097</v>
+        <v>-7.443459006380843e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.0001331983953415364</v>
+        <v>8.498636911918712e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0106544151559895</v>
+        <v>0.008363942099960688</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.02372280728025949</v>
+        <v>-0.01715199940222327</v>
       </c>
       <c r="Q5" t="n">
-        <v>3054.856166625943</v>
+        <v>2983.103060569365</v>
       </c>
       <c r="R5" t="n">
-        <v>0.01895</v>
+        <v>0.014213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9943520432024036</v>
+        <v>0.993932444735898</v>
       </c>
       <c r="B6" t="n">
-        <v>21.93543619344055</v>
+        <v>18.82162291747626</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.005404067764044765</v>
+        <v>-0.005677849712771899</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1064262102445421</v>
+        <v>0.09140219917419277</v>
       </c>
       <c r="E6" t="n">
-        <v>3.572779909970519e-06</v>
+        <v>2.938253747928437e-06</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08438377749753384</v>
+        <v>0.09214797124697335</v>
       </c>
       <c r="G6" t="n">
-        <v>-3.288075453479513e-06</v>
+        <v>-4.92700813586226e-06</v>
       </c>
       <c r="H6" t="n">
-        <v>0.006264084109633037</v>
+        <v>0.005129063683673611</v>
       </c>
       <c r="I6" t="n">
-        <v>2.059859955260614</v>
+        <v>1.9967161926185</v>
       </c>
       <c r="J6" t="n">
-        <v>3.314435430348804e-05</v>
+        <v>-3.66540428860397e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.001598625557333411</v>
+        <v>-0.001007592488323195</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.007579070384090552</v>
+        <v>-0.01327228179121142</v>
       </c>
       <c r="M6" t="n">
-        <v>-0.0001896811591430202</v>
+        <v>-0.000117462294210097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.0001754807064102605</v>
+        <v>0.0001331983953415364</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01094857830968361</v>
+        <v>0.0106544151559895</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.02738343329556486</v>
+        <v>-0.02372280728025949</v>
       </c>
       <c r="Q6" t="n">
-        <v>3122.348263033889</v>
+        <v>3054.856166625943</v>
       </c>
       <c r="R6" t="n">
-        <v>0.023688</v>
+        <v>0.01895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9947556394045378</v>
+        <v>0.9943520432024036</v>
       </c>
       <c r="B7" t="n">
-        <v>24.52532886313136</v>
+        <v>21.93543619344055</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.00560451569944711</v>
+        <v>-0.005404067764044765</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1184765354693276</v>
+        <v>0.1064262102445421</v>
       </c>
       <c r="E7" t="n">
-        <v>3.291935177420186e-06</v>
+        <v>3.572779909970519e-06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07611628501928078</v>
+        <v>0.08438377749753384</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.682689251716316e-06</v>
+        <v>-3.288075453479513e-06</v>
       </c>
       <c r="H7" t="n">
-        <v>0.006613062311664511</v>
+        <v>0.006264084109633037</v>
       </c>
       <c r="I7" t="n">
-        <v>2.01186879602228</v>
+        <v>2.059859955260614</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.34994307000246e-07</v>
+        <v>3.314435430348804e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001970813754053884</v>
+        <v>-0.001598625557333411</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.006295160538011102</v>
+        <v>-0.007579070384090552</v>
       </c>
       <c r="M7" t="n">
-        <v>-0.0002186623746977102</v>
+        <v>-0.0001896811591430202</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0002163634493715063</v>
+        <v>0.0001754807064102605</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01030695576735332</v>
+        <v>0.01094857830968361</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.02823565150363887</v>
+        <v>-0.02738343329556486</v>
       </c>
       <c r="Q7" t="n">
-        <v>3185.146053365323</v>
+        <v>3122.348263033889</v>
       </c>
       <c r="R7" t="n">
-        <v>0.02863</v>
+        <v>0.023688</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9951070631557708</v>
+        <v>0.9947556394045378</v>
       </c>
       <c r="B8" t="n">
-        <v>26.58162375198039</v>
+        <v>24.52532886313136</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.005097856112990675</v>
+        <v>-0.00560451569944711</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1272407225100141</v>
+        <v>0.1184765354693276</v>
       </c>
       <c r="E8" t="n">
-        <v>3.595650685803964e-06</v>
+        <v>3.291935177420186e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.06620562093085822</v>
+        <v>0.07611628501928078</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.051069147161692e-06</v>
+        <v>-3.682689251716316e-06</v>
       </c>
       <c r="H8" t="n">
-        <v>0.007228803190810865</v>
+        <v>0.006613062311664511</v>
       </c>
       <c r="I8" t="n">
-        <v>1.855280304955211</v>
+        <v>2.01186879602228</v>
       </c>
       <c r="J8" t="n">
-        <v>-6.611452099276091e-05</v>
+        <v>-6.34994307000246e-07</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.002207524887598521</v>
+        <v>-0.001970813754053884</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.002510386373386293</v>
+        <v>-0.006295160538011102</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.0001904536279048217</v>
+        <v>-0.0002186623746977102</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0002573470193647306</v>
+        <v>0.0002163634493715063</v>
       </c>
       <c r="O8" t="n">
-        <v>0.008920308378468175</v>
+        <v>0.01030695576735332</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.02695470246920057</v>
+        <v>-0.02823565150363887</v>
       </c>
       <c r="Q8" t="n">
-        <v>3238.763076719312</v>
+        <v>3185.146053365323</v>
       </c>
       <c r="R8" t="n">
-        <v>0.033573</v>
+        <v>0.02863</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.995411530356022</v>
+        <v>0.9951070631557708</v>
       </c>
       <c r="B9" t="n">
-        <v>28.23293326333463</v>
+        <v>26.58162375198039</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.004337743910311356</v>
+        <v>-0.005097856112990675</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1330275484356526</v>
+        <v>0.1272407225100141</v>
       </c>
       <c r="E9" t="n">
-        <v>3.446735044983634e-06</v>
+        <v>3.595650685803964e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05716739273383552</v>
+        <v>0.06620562093085822</v>
       </c>
       <c r="G9" t="n">
-        <v>-6.209111186542679e-06</v>
+        <v>-5.051069147161692e-06</v>
       </c>
       <c r="H9" t="n">
-        <v>0.007407467061401816</v>
+        <v>0.007228803190810865</v>
       </c>
       <c r="I9" t="n">
-        <v>1.671376017596827</v>
+        <v>1.855280304955211</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.288005941295777e-05</v>
+        <v>-6.611452099276091e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.002437212771772213</v>
+        <v>-0.002207524887598521</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003903732317477095</v>
+        <v>-0.002510386373386293</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.0001146301075994554</v>
+        <v>-0.0001904536279048217</v>
       </c>
       <c r="N9" t="n">
-        <v>0.000289436537430842</v>
+        <v>0.0002573470193647306</v>
       </c>
       <c r="O9" t="n">
-        <v>0.007426543938427046</v>
+        <v>0.008920308378468175</v>
       </c>
       <c r="P9" t="n">
-        <v>-0.02487547077055869</v>
+        <v>-0.02695470246920057</v>
       </c>
       <c r="Q9" t="n">
-        <v>3284.323124163047</v>
+        <v>3238.763076719312</v>
       </c>
       <c r="R9" t="n">
-        <v>0.038515</v>
+        <v>0.033573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9956742098242312</v>
+        <v>0.995411530356022</v>
       </c>
       <c r="B10" t="n">
-        <v>29.58053050797636</v>
+        <v>28.23293326333463</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.003475603082608436</v>
+        <v>-0.004337743910311356</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1361885095978375</v>
+        <v>0.1330275484356526</v>
       </c>
       <c r="E10" t="n">
-        <v>2.821859058365841e-06</v>
+        <v>3.446735044983634e-06</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04935968387364362</v>
+        <v>0.05716739273383552</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.947091165124211e-06</v>
+        <v>-6.209111186542679e-06</v>
       </c>
       <c r="H10" t="n">
-        <v>0.007172413426123304</v>
+        <v>0.007407467061401816</v>
       </c>
       <c r="I10" t="n">
-        <v>1.48715366210305</v>
+        <v>1.671376017596827</v>
       </c>
       <c r="J10" t="n">
-        <v>-7.37956249266383e-05</v>
+        <v>-9.288005941295777e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.002688735914718971</v>
+        <v>-0.002437212771772213</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001596593635624421</v>
+        <v>0.0003903732317477095</v>
       </c>
       <c r="M10" t="n">
-        <v>-6.710966813763579e-06</v>
+        <v>-0.0001146301075994554</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0003077536603574044</v>
+        <v>0.000289436537430842</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006062863427846843</v>
+        <v>0.007426543938427046</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.02260642696655942</v>
+        <v>-0.02487547077055869</v>
       </c>
       <c r="Q10" t="n">
-        <v>3323.044052638083</v>
+        <v>3284.323124163047</v>
       </c>
       <c r="R10" t="n">
-        <v>0.043458</v>
+        <v>0.038515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9959018005111652</v>
+        <v>0.9956742098242312</v>
       </c>
       <c r="B11" t="n">
-        <v>30.69836861292958</v>
+        <v>29.58053050797636</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.002781442494061943</v>
+        <v>-0.003475603082608436</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1371187752268076</v>
+        <v>0.1361885095978375</v>
       </c>
       <c r="E11" t="n">
-        <v>2.952248436023675e-06</v>
+        <v>2.821859058365841e-06</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04311808584992377</v>
+        <v>0.04935968387364362</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.063286651864181e-06</v>
+        <v>-6.947091165124211e-06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007156204015641877</v>
+        <v>0.007172413426123304</v>
       </c>
       <c r="I11" t="n">
-        <v>1.340029389803107</v>
+        <v>1.48715366210305</v>
       </c>
       <c r="J11" t="n">
-        <v>-6.280531304404681e-05</v>
+        <v>-7.37956249266383e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.002735232263086669</v>
+        <v>-0.002688735914718971</v>
       </c>
       <c r="L11" t="n">
-        <v>0.006184707122618349</v>
+        <v>0.001596593635624421</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0001170739926624356</v>
+        <v>-6.710966813763579e-06</v>
       </c>
       <c r="N11" t="n">
-        <v>0.0003118441260826165</v>
+        <v>0.0003077536603574044</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005079235930964886</v>
+        <v>0.006062863427846843</v>
       </c>
       <c r="P11" t="n">
-        <v>-0.01988717354308625</v>
+        <v>-0.02260642696655942</v>
       </c>
       <c r="Q11" t="n">
-        <v>3356.292037663454</v>
+        <v>3323.044052638083</v>
       </c>
       <c r="R11" t="n">
-        <v>0.048401</v>
+        <v>0.043458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.9961086704107255</v>
+        <v>0.9959018005111652</v>
       </c>
       <c r="B12" t="n">
-        <v>31.67476198572126</v>
+        <v>30.69836861292958</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.001998245380222501</v>
+        <v>-0.002781442494061943</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1364022319302417</v>
+        <v>0.1371187752268076</v>
       </c>
       <c r="E12" t="n">
-        <v>3.041608622308537e-06</v>
+        <v>2.952248436023675e-06</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03749433824320688</v>
+        <v>0.04311808584992377</v>
       </c>
       <c r="G12" t="n">
-        <v>-9.225175938525688e-06</v>
+        <v>-8.063286651864181e-06</v>
       </c>
       <c r="H12" t="n">
-        <v>0.006939413030467745</v>
+        <v>0.007156204015641877</v>
       </c>
       <c r="I12" t="n">
-        <v>1.182093265178011</v>
+        <v>1.340029389803107</v>
       </c>
       <c r="J12" t="n">
-        <v>-6.917213098351912e-05</v>
+        <v>-6.280531304404681e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.002823698181763456</v>
+        <v>-0.002735232263086669</v>
       </c>
       <c r="L12" t="n">
-        <v>0.002559893148878457</v>
+        <v>0.006184707122618349</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0002414502785996398</v>
+        <v>0.0001170739926624356</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0003011727173483943</v>
+        <v>0.0003118441260826165</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003928851760838216</v>
+        <v>0.005079235930964886</v>
       </c>
       <c r="P12" t="n">
-        <v>-0.01755170721310906</v>
+        <v>-0.01988717354308625</v>
       </c>
       <c r="Q12" t="n">
-        <v>3386.064153855463</v>
+        <v>3356.292037663454</v>
       </c>
       <c r="R12" t="n">
-        <v>0.053552</v>
+        <v>0.048401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9962899880055601</v>
+        <v>0.9961086704107255</v>
       </c>
       <c r="B13" t="n">
-        <v>32.50149031227892</v>
+        <v>31.67476198572126</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.001354153996510651</v>
+        <v>-0.001998245380222501</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1348658292580137</v>
+        <v>0.1364022319302417</v>
       </c>
       <c r="E13" t="n">
-        <v>3.626851660837591e-06</v>
+        <v>3.041608622308537e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03308617539906735</v>
+        <v>0.03749433824320688</v>
       </c>
       <c r="G13" t="n">
-        <v>-9.449920543931039e-06</v>
+        <v>-9.225175938525688e-06</v>
       </c>
       <c r="H13" t="n">
-        <v>0.007002411289681824</v>
+        <v>0.006939413030467745</v>
       </c>
       <c r="I13" t="n">
-        <v>1.061964356086649</v>
+        <v>1.182093265178011</v>
       </c>
       <c r="J13" t="n">
-        <v>-3.681088341541335e-05</v>
+        <v>-6.917213098351912e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.002787826516533145</v>
+        <v>-0.002823698181763456</v>
       </c>
       <c r="L13" t="n">
-        <v>0.002690763493198355</v>
+        <v>0.002559893148878457</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0003387214666370792</v>
+        <v>0.0002414502785996398</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0002830012224702941</v>
+        <v>0.0003011727173483943</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003144535869172857</v>
+        <v>0.003928851760838216</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.01512009728896954</v>
+        <v>-0.01755170721310906</v>
       </c>
       <c r="Q13" t="n">
-        <v>3411.867635828987</v>
+        <v>3386.064153855463</v>
       </c>
       <c r="R13" t="n">
-        <v>0.058703</v>
+        <v>0.053552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9964510337637881</v>
+        <v>0.9962899880055601</v>
       </c>
       <c r="B14" t="n">
-        <v>33.21182266289023</v>
+        <v>32.50149031227892</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0008233558122135289</v>
+        <v>-0.001354153996510651</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1333864083019703</v>
+        <v>0.1348658292580137</v>
       </c>
       <c r="E14" t="n">
-        <v>3.939065406130617e-06</v>
+        <v>3.626851660837591e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02957864454981616</v>
+        <v>0.03308617539906735</v>
       </c>
       <c r="G14" t="n">
-        <v>-8.868119527351813e-06</v>
+        <v>-9.449920543931039e-06</v>
       </c>
       <c r="H14" t="n">
-        <v>0.00680032660537663</v>
+        <v>0.007002411289681824</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9647932964407776</v>
+        <v>1.061964356086649</v>
       </c>
       <c r="J14" t="n">
-        <v>6.220297745468652e-06</v>
+        <v>-3.681088341541335e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.002814311510688815</v>
+        <v>-0.002787826516533145</v>
       </c>
       <c r="L14" t="n">
-        <v>0.002867175892632948</v>
+        <v>0.002690763493198355</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003871626111594377</v>
+        <v>0.0003387214666370792</v>
       </c>
       <c r="N14" t="n">
-        <v>0.0002614398084113782</v>
+        <v>0.0002830012224702941</v>
       </c>
       <c r="O14" t="n">
-        <v>0.002577057857667848</v>
+        <v>0.003144535869172857</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.01305391643893099</v>
+        <v>-0.01512009728896954</v>
       </c>
       <c r="Q14" t="n">
-        <v>3434.468916298456</v>
+        <v>3411.867635828987</v>
       </c>
       <c r="R14" t="n">
-        <v>0.06385299999999999</v>
+        <v>0.058703</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9965957676441575</v>
+        <v>0.9964510337637881</v>
       </c>
       <c r="B15" t="n">
-        <v>33.83126421148079</v>
+        <v>33.21182266289023</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0004220954199361796</v>
+        <v>-0.0008233558122135289</v>
       </c>
       <c r="D15" t="n">
-        <v>0.132568282718064</v>
+        <v>0.1333864083019703</v>
       </c>
       <c r="E15" t="n">
-        <v>4.010312312447314e-06</v>
+        <v>3.939065406130617e-06</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02667927329387499</v>
+        <v>0.02957864454981616</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.798490891388674e-06</v>
+        <v>-8.868119527351813e-06</v>
       </c>
       <c r="H15" t="n">
-        <v>0.00635252745012829</v>
+        <v>0.00680032660537663</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8818664527471377</v>
+        <v>0.9647932964407776</v>
       </c>
       <c r="J15" t="n">
-        <v>4.128787312610263e-05</v>
+        <v>6.220297745468652e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.002912843739075407</v>
+        <v>-0.002814311510688815</v>
       </c>
       <c r="L15" t="n">
-        <v>0.002376015131085042</v>
+        <v>0.002867175892632948</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0003858645641769173</v>
+        <v>0.0003871626111594377</v>
       </c>
       <c r="N15" t="n">
-        <v>0.000242234164201392</v>
+        <v>0.0002614398084113782</v>
       </c>
       <c r="O15" t="n">
-        <v>0.002158992075052748</v>
+        <v>0.002577057857667848</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.01135835703709825</v>
+        <v>-0.01305391643893099</v>
       </c>
       <c r="Q15" t="n">
-        <v>3454.501229223343</v>
+        <v>3434.468916298456</v>
       </c>
       <c r="R15" t="n">
-        <v>0.069004</v>
+        <v>0.06385299999999999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.996726369271814</v>
+        <v>0.9965957676441575</v>
       </c>
       <c r="B16" t="n">
-        <v>34.37753658117358</v>
+        <v>33.83126421148079</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0001662613852793473</v>
+        <v>-0.0004220954199361796</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1327431444336861</v>
+        <v>0.132568282718064</v>
       </c>
       <c r="E16" t="n">
-        <v>4.586672116624631e-06</v>
+        <v>4.010312312447314e-06</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02421967095439871</v>
+        <v>0.02667927329387499</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.787549850663621e-06</v>
+        <v>-7.798490891388674e-06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.006165666828969125</v>
+        <v>0.00635252745012829</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8147319171050926</v>
+        <v>0.8818664527471377</v>
       </c>
       <c r="J16" t="n">
-        <v>6.234622837946146e-05</v>
+        <v>4.128787312610263e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.002920330819209515</v>
+        <v>-0.002912843739075407</v>
       </c>
       <c r="L16" t="n">
-        <v>0.004333727887378343</v>
+        <v>0.002376015131085042</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0003540536463288856</v>
+        <v>0.0003858645641769173</v>
       </c>
       <c r="N16" t="n">
-        <v>0.0002308097699919446</v>
+        <v>0.000242234164201392</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001945583137597192</v>
+        <v>0.002158992075052748</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.009701054263040536</v>
+        <v>-0.01135835703709825</v>
       </c>
       <c r="Q16" t="n">
-        <v>3472.424306950517</v>
+        <v>3454.501229223343</v>
       </c>
       <c r="R16" t="n">
-        <v>0.074155</v>
+        <v>0.069004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9968508090081607</v>
+        <v>0.996726369271814</v>
       </c>
       <c r="B17" t="n">
-        <v>34.8831178506661</v>
+        <v>34.37753658117358</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.908050605824897e-06</v>
+        <v>-0.0001662613852793473</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1341109783145551</v>
+        <v>0.1327431444336861</v>
       </c>
       <c r="E17" t="n">
-        <v>5.247930034197605e-06</v>
+        <v>4.586672116624631e-06</v>
       </c>
       <c r="F17" t="n">
-        <v>0.02214856587974173</v>
+        <v>0.02421967095439871</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.421480238067213e-06</v>
+        <v>-6.787549850663621e-06</v>
       </c>
       <c r="H17" t="n">
-        <v>0.005806257464608605</v>
+        <v>0.006165666828969125</v>
       </c>
       <c r="I17" t="n">
-        <v>0.7506051780981275</v>
+        <v>0.8147319171050926</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.702161015392229e-05</v>
+        <v>6.234622837946146e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.00300543852723989</v>
+        <v>-0.002920330819209515</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001795322410696431</v>
+        <v>0.004333727887378343</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003003773602155137</v>
+        <v>0.0003540536463288856</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0002260179608892451</v>
+        <v>0.0002308097699919446</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001903387598108354</v>
+        <v>0.001945583137597192</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.008385669992277037</v>
+        <v>-0.009701054263040536</v>
       </c>
       <c r="Q17" t="n">
-        <v>3489.223605854998</v>
+        <v>3472.424306950517</v>
       </c>
       <c r="R17" t="n">
-        <v>0.07951699999999999</v>
+        <v>0.074155</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9969651630347053</v>
+        <v>0.9968508090081607</v>
       </c>
       <c r="B18" t="n">
-        <v>35.33632840104026</v>
+        <v>34.8831178506661</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0006198919775804854</v>
+        <v>-7.908050605824897e-06</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1367429080736705</v>
+        <v>0.1341109783145551</v>
       </c>
       <c r="E18" t="n">
-        <v>3.751651585883777e-06</v>
+        <v>5.247930034197605e-06</v>
       </c>
       <c r="F18" t="n">
-        <v>0.02042162832929782</v>
+        <v>0.02214856587974173</v>
       </c>
       <c r="G18" t="n">
-        <v>2.969514782130749e-05</v>
+        <v>-7.421480238067213e-06</v>
       </c>
       <c r="H18" t="n">
-        <v>0.002500218211867859</v>
+        <v>0.005806257464608605</v>
       </c>
       <c r="I18" t="n">
-        <v>0.700513482198906</v>
+        <v>0.7506051780981275</v>
       </c>
       <c r="J18" t="n">
-        <v>1.329307003856195e-05</v>
+        <v>-1.702161015392229e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.002449588144651601</v>
+        <v>-0.00300543852723989</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001650003951367142</v>
+        <v>0.001795322410696431</v>
       </c>
       <c r="M18" t="n">
-        <v>9.443208890234057e-05</v>
+        <v>0.0003003773602155137</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0001673776951300332</v>
+        <v>0.0002260179608892451</v>
       </c>
       <c r="O18" t="n">
-        <v>0.002040229484978926</v>
+        <v>0.001903387598108354</v>
       </c>
       <c r="P18" t="n">
-        <v>-0.01007789948702358</v>
+        <v>-0.008385669992277037</v>
       </c>
       <c r="Q18" t="n">
-        <v>3504.372913193074</v>
+        <v>3489.223605854998</v>
       </c>
       <c r="R18" t="n">
-        <v>0.084879</v>
+        <v>0.07951699999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9969647629461845</v>
+        <v>0.9969651630347053</v>
       </c>
       <c r="B19" t="n">
-        <v>35.33619848212658</v>
+        <v>35.33632840104026</v>
       </c>
       <c r="C19" t="n">
-        <v>-5.53797244496955e-06</v>
+        <v>0.0006198919775804854</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1367302733829673</v>
+        <v>0.1367429080736705</v>
       </c>
       <c r="E19" t="n">
-        <v>6.373456531621495e-06</v>
+        <v>3.751651585883777e-06</v>
       </c>
       <c r="F19" t="n">
-        <v>0.02043269410815174</v>
+        <v>0.02042162832929782</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.687590212258065e-05</v>
+        <v>2.969514782130749e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.006182442899665552</v>
+        <v>0.002500218211867859</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7006076919182714</v>
+        <v>0.700513482198906</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0002281296247255416</v>
+        <v>1.329307003856195e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.003131415752328165</v>
+        <v>-0.002449588144651601</v>
       </c>
       <c r="L19" t="n">
-        <v>0.001625446039079816</v>
+        <v>0.001650003951367142</v>
       </c>
       <c r="M19" t="n">
-        <v>0.000270944323305808</v>
+        <v>9.443208890234057e-05</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0002287944986420862</v>
+        <v>0.0001673776951300332</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001922062325338534</v>
+        <v>0.002040229484978926</v>
       </c>
       <c r="P19" t="n">
-        <v>-0.006584230617269535</v>
+        <v>-0.01007789948702358</v>
       </c>
       <c r="Q19" t="n">
-        <v>3504.496976942589</v>
+        <v>3504.372913193074</v>
       </c>
       <c r="R19" t="n">
-        <v>0.08488</v>
+        <v>0.084879</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9970705386288224</v>
+        <v>0.9969647629461845</v>
       </c>
       <c r="B20" t="n">
-        <v>35.74707449630826</v>
+        <v>35.33619848212658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0001442494102235481</v>
+        <v>-5.53797244496955e-06</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1405477663262263</v>
+        <v>0.1367302733829673</v>
       </c>
       <c r="E20" t="n">
-        <v>6.545879794669761e-06</v>
+        <v>6.373456531621495e-06</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01904889614160165</v>
+        <v>0.02043269410815174</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.423861485701283e-05</v>
+        <v>-1.687590212258065e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.005404142917816974</v>
+        <v>0.006182442899665552</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6607787821720025</v>
+        <v>0.7006076919182714</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.0004064325273754719</v>
+        <v>-0.0002281296247255416</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.003118613353172984</v>
+        <v>-0.003131415752328165</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001664392688792784</v>
+        <v>0.001625446039079816</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0001848972502862037</v>
+        <v>0.000270944323305808</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0002209763559285291</v>
+        <v>0.0002287944986420862</v>
       </c>
       <c r="O20" t="n">
-        <v>0.002015674389113271</v>
+        <v>0.001922062325338534</v>
       </c>
       <c r="P20" t="n">
-        <v>-0.006009583436712951</v>
+        <v>-0.006584230617269535</v>
       </c>
       <c r="Q20" t="n">
-        <v>3518.489715966927</v>
+        <v>3504.496976942589</v>
       </c>
       <c r="R20" t="n">
-        <v>0.090242</v>
+        <v>0.08488</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9971694368218098</v>
+        <v>0.9970705386288224</v>
       </c>
       <c r="B21" t="n">
-        <v>36.1238142256798</v>
+        <v>35.74707449630826</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0002031596497206281</v>
+        <v>0.0001442494102235481</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1454814412660748</v>
+        <v>0.1405477663262263</v>
       </c>
       <c r="E21" t="n">
-        <v>6.862530189007711e-06</v>
+        <v>6.545879794669761e-06</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0178591623845395</v>
+        <v>0.01904889614160165</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.794299577185231e-05</v>
+        <v>-1.423861485701283e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.00502065108824875</v>
+        <v>0.005404142917816974</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6257726225973754</v>
+        <v>0.6607787821720025</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.000609013141551829</v>
+        <v>-0.0004064325273754719</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.003247504293952392</v>
+        <v>-0.003118613353172984</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001377358659704993</v>
+        <v>0.001664392688792784</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0001118225682521</v>
+        <v>0.0001848972502862037</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0002304009876815046</v>
+        <v>0.0002209763559285291</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002103042539531582</v>
+        <v>0.002015674389113271</v>
       </c>
       <c r="P21" t="n">
-        <v>-0.005194855866835124</v>
+        <v>-0.006009583436712951</v>
       </c>
       <c r="Q21" t="n">
-        <v>3531.485684897606</v>
+        <v>3518.489715966927</v>
       </c>
       <c r="R21" t="n">
-        <v>0.09560399999999999</v>
+        <v>0.090242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9972620762711863</v>
+        <v>0.9971694368218098</v>
       </c>
       <c r="B22" t="n">
-        <v>36.47244086853196</v>
+        <v>36.1238142256798</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0002631573808156839</v>
+        <v>0.0002031596497206281</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1514375744108463</v>
+        <v>0.1454814412660748</v>
       </c>
       <c r="E22" t="n">
-        <v>7.238304631179937e-06</v>
+        <v>6.862530189007711e-06</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01681842217289929</v>
+        <v>0.0178591623845395</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.122893112747175e-05</v>
+        <v>-1.794299577185231e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.004829738262525209</v>
+        <v>0.00502065108824875</v>
       </c>
       <c r="I22" t="n">
-        <v>0.5970796356704432</v>
+        <v>0.6257726225973754</v>
       </c>
       <c r="J22" t="n">
-        <v>-0.0007851994977567407</v>
+        <v>-0.000609013141551829</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.003325464999975964</v>
+        <v>-0.003247504293952392</v>
       </c>
       <c r="L22" t="n">
-        <v>0.002647735124456464</v>
+        <v>0.001377358659704993</v>
       </c>
       <c r="M22" t="n">
-        <v>2.732310188006305e-05</v>
+        <v>0.0001118225682521</v>
       </c>
       <c r="N22" t="n">
-        <v>0.0002436726283296684</v>
+        <v>0.0002304009876815046</v>
       </c>
       <c r="O22" t="n">
-        <v>0.002194805387093186</v>
+        <v>0.002103042539531582</v>
       </c>
       <c r="P22" t="n">
-        <v>-0.004393641699882204</v>
+        <v>-0.005194855866835124</v>
       </c>
       <c r="Q22" t="n">
-        <v>3543.635402333842</v>
+        <v>3531.485684897606</v>
       </c>
       <c r="R22" t="n">
-        <v>0.10097</v>
+        <v>0.09560399999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9973535802842795</v>
+        <v>0.9972620762711863</v>
       </c>
       <c r="B23" t="n">
-        <v>36.80974330279297</v>
+        <v>36.47244086853196</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0003220994776110011</v>
+        <v>0.0002631573808156839</v>
       </c>
       <c r="D23" t="n">
-        <v>0.158624417350379</v>
+        <v>0.1514375744108463</v>
       </c>
       <c r="E23" t="n">
-        <v>7.798753366634158e-06</v>
+        <v>7.238304631179937e-06</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0159121476661286</v>
+        <v>0.01681842217289929</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.354480981339118e-05</v>
+        <v>-2.122893112747175e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.004523091611868642</v>
+        <v>0.004829738262525209</v>
       </c>
       <c r="I23" t="n">
-        <v>0.5687571678299903</v>
+        <v>0.5970796356704432</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.0009165329799781282</v>
+        <v>-0.0007851994977567407</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.003456483258820397</v>
+        <v>-0.003325464999975964</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001109309257403135</v>
+        <v>0.002647735124456464</v>
       </c>
       <c r="M23" t="n">
-        <v>-6.122426379960936e-05</v>
+        <v>2.732310188006305e-05</v>
       </c>
       <c r="N23" t="n">
-        <v>0.0002594734887499925</v>
+        <v>0.0002436726283296684</v>
       </c>
       <c r="O23" t="n">
-        <v>0.002282994762441716</v>
+        <v>0.002194805387093186</v>
       </c>
       <c r="P23" t="n">
-        <v>-0.003815417558876571</v>
+        <v>-0.004393641699882204</v>
       </c>
       <c r="Q23" t="n">
-        <v>3555.499793998482</v>
+        <v>3543.635402333842</v>
       </c>
       <c r="R23" t="n">
-        <v>0.10654</v>
+        <v>0.10097</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.9974399506770694</v>
+        <v>0.9973535802842795</v>
       </c>
       <c r="B24" t="n">
-        <v>37.12523837548203</v>
+        <v>36.80974330279297</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000364992994930699</v>
+        <v>0.0003220994776110011</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1667178933402167</v>
+        <v>0.158624417350379</v>
       </c>
       <c r="E24" t="n">
-        <v>8.370886183778248e-06</v>
+        <v>7.798753366634158e-06</v>
       </c>
       <c r="F24" t="n">
-        <v>0.01510322745829971</v>
+        <v>0.0159121476661286</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.458467617443502e-05</v>
+        <v>-2.354480981339118e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.00438755359553858</v>
+        <v>0.004523091611868642</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5450704069889099</v>
+        <v>0.5687571678299903</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.0009868575510461194</v>
+        <v>-0.0009165329799781282</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.003555779114554313</v>
+        <v>-0.003456483258820397</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001050368634865645</v>
+        <v>0.001109309257403135</v>
       </c>
       <c r="M24" t="n">
-        <v>-0.0001338835998933827</v>
+        <v>-6.122426379960936e-05</v>
       </c>
       <c r="N24" t="n">
-        <v>0.0002687781725011583</v>
+        <v>0.0002594734887499925</v>
       </c>
       <c r="O24" t="n">
-        <v>0.002335390267632263</v>
+        <v>0.002282994762441716</v>
       </c>
       <c r="P24" t="n">
-        <v>-0.003201892285179546</v>
+        <v>-0.003815417558876571</v>
       </c>
       <c r="Q24" t="n">
-        <v>3566.699941148267</v>
+        <v>3555.499793998482</v>
       </c>
       <c r="R24" t="n">
-        <v>0.11212</v>
+        <v>0.10654</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9975221957671958</v>
+        <v>0.9974399506770694</v>
       </c>
       <c r="B25" t="n">
-        <v>37.42239564961788</v>
+        <v>37.12523837548203</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0003804542668756662</v>
+        <v>0.000364992994930699</v>
       </c>
       <c r="D25" t="n">
-        <v>0.175538637863713</v>
+        <v>0.1667178933402167</v>
       </c>
       <c r="E25" t="n">
-        <v>8.744168096069856e-06</v>
+        <v>8.370886183778248e-06</v>
       </c>
       <c r="F25" t="n">
-        <v>0.01441974725809344</v>
+        <v>0.01510322745829971</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.441916986421621e-05</v>
+        <v>-2.458467617443502e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.004190873795022569</v>
+        <v>0.00438755359553858</v>
       </c>
       <c r="I25" t="n">
-        <v>0.525373651590789</v>
+        <v>0.5450704069889099</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.001015284086238142</v>
+        <v>-0.0009868575510461194</v>
       </c>
       <c r="K25" t="n">
-        <v>-0.003692455274376233</v>
+        <v>-0.003555779114554313</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001130190153133892</v>
+        <v>0.001050368634865645</v>
       </c>
       <c r="M25" t="n">
-        <v>-0.0001919689169569433</v>
+        <v>-0.0001338835998933827</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0002713366614616028</v>
+        <v>0.0002687781725011583</v>
       </c>
       <c r="O25" t="n">
-        <v>0.00236955758682455</v>
+        <v>0.002335390267632263</v>
       </c>
       <c r="P25" t="n">
-        <v>-0.002702897612490534</v>
+        <v>-0.003201892285179546</v>
       </c>
       <c r="Q25" t="n">
-        <v>3577.341659599528</v>
+        <v>3566.699941148267</v>
       </c>
       <c r="R25" t="n">
-        <v>0.11769</v>
+        <v>0.11212</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9976008259348937</v>
+        <v>0.9975221957671958</v>
       </c>
       <c r="B26" t="n">
-        <v>37.70405386537331</v>
+        <v>37.42239564961788</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0003642142698979417</v>
+        <v>0.0003804542668756662</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1848464479127787</v>
+        <v>0.175538637863713</v>
       </c>
       <c r="E26" t="n">
-        <v>8.901473116949938e-06</v>
+        <v>8.744168096069856e-06</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01379068965003138</v>
+        <v>0.01441974725809344</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.329197309969957e-05</v>
+        <v>-2.441916986421621e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00393459394710508</v>
+        <v>0.004190873795022569</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5067714575922438</v>
+        <v>0.525373651590789</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.001015877281720499</v>
+        <v>-0.001015284086238142</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.003859020882594026</v>
+        <v>-0.003692455274376233</v>
       </c>
       <c r="L26" t="n">
-        <v>0.00100876181699779</v>
+        <v>0.001130190153133892</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.0002327663109982786</v>
+        <v>-0.0001919689169569433</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0002688679700882145</v>
+        <v>0.0002713366614616028</v>
       </c>
       <c r="O26" t="n">
-        <v>0.00238913576569336</v>
+        <v>0.00236955758682455</v>
       </c>
       <c r="P26" t="n">
-        <v>-0.00231145171639458</v>
+        <v>-0.002702897612490534</v>
       </c>
       <c r="Q26" t="n">
-        <v>3587.510747569702</v>
+        <v>3577.341659599528</v>
       </c>
       <c r="R26" t="n">
-        <v>0.12327</v>
+        <v>0.11769</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9976758776118735</v>
+        <v>0.9976008259348937</v>
       </c>
       <c r="B27" t="n">
-        <v>37.9724130714485</v>
+        <v>37.70405386537331</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0003194160272176022</v>
+        <v>0.0003642142698979417</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1943405970747747</v>
+        <v>0.1848464479127787</v>
       </c>
       <c r="E27" t="n">
-        <v>8.990558902640233e-06</v>
+        <v>8.901473116949938e-06</v>
       </c>
       <c r="F27" t="n">
-        <v>0.01322979877645502</v>
+        <v>0.01379068965003138</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.154250687223117e-05</v>
+        <v>-2.329197309969957e-05</v>
       </c>
       <c r="H27" t="n">
-        <v>0.003806386772569616</v>
+        <v>0.00393459394710508</v>
       </c>
       <c r="I27" t="n">
-        <v>0.4913099749399655</v>
+        <v>0.5067714575922438</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0009944863874390938</v>
+        <v>-0.001015877281720499</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.003981979394825613</v>
+        <v>-0.003859020882594026</v>
       </c>
       <c r="L27" t="n">
-        <v>0.001952391696442765</v>
+        <v>0.00100876181699779</v>
       </c>
       <c r="M27" t="n">
-        <v>-0.0002481766594786124</v>
+        <v>-0.0002327663109982786</v>
       </c>
       <c r="N27" t="n">
-        <v>0.0002653863202091802</v>
+        <v>0.0002688679700882145</v>
       </c>
       <c r="O27" t="n">
-        <v>0.002422941928467853</v>
+        <v>0.00238913576569336</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.001887369759487346</v>
+        <v>-0.00231145171639458</v>
       </c>
       <c r="Q27" t="n">
-        <v>3597.272559578154</v>
+        <v>3587.510747569702</v>
       </c>
       <c r="R27" t="n">
-        <v>0.12884</v>
+        <v>0.12327</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9977512646847817</v>
+        <v>0.9976758776118735</v>
       </c>
       <c r="B28" t="n">
-        <v>38.23839643803745</v>
+        <v>37.9724130714485</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0002568454135715271</v>
+        <v>0.0003194160272176022</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2040415924598975</v>
+        <v>0.1943405970747747</v>
       </c>
       <c r="E28" t="n">
-        <v>9.198637841627879e-06</v>
+        <v>8.990558902640233e-06</v>
       </c>
       <c r="F28" t="n">
-        <v>0.01272024024190656</v>
+        <v>0.01322979877645502</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.872999310404897e-05</v>
+        <v>-2.154250687223117e-05</v>
       </c>
       <c r="H28" t="n">
-        <v>0.003603851226938416</v>
+        <v>0.003806386772569616</v>
       </c>
       <c r="I28" t="n">
-        <v>0.475610260290557</v>
+        <v>0.4913099749399655</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.0009184749159181037</v>
+        <v>-0.0009944863874390938</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.004119046958798493</v>
+        <v>-0.003981979394825613</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0008757416656596008</v>
+        <v>0.001952391696442765</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0002418999227500149</v>
+        <v>-0.0002481766594786124</v>
       </c>
       <c r="N28" t="n">
-        <v>0.0002621344994711486</v>
+        <v>0.0002653863202091802</v>
       </c>
       <c r="O28" t="n">
-        <v>0.002391834705400237</v>
+        <v>0.002422941928467853</v>
       </c>
       <c r="P28" t="n">
-        <v>-0.001604383483175458</v>
+        <v>-0.001887369759487346</v>
       </c>
       <c r="Q28" t="n">
-        <v>3607.015087487256</v>
+        <v>3597.272559578154</v>
       </c>
       <c r="R28" t="n">
-        <v>0.13463</v>
+        <v>0.12884</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9978235254685679</v>
+        <v>0.9977512646847817</v>
       </c>
       <c r="B29" t="n">
-        <v>38.49251981013163</v>
+        <v>38.23839643803745</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0001849365869715219</v>
+        <v>0.0002568454135715271</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2132892470719866</v>
+        <v>0.2040415924598975</v>
       </c>
       <c r="E29" t="n">
-        <v>9.404649922123579e-06</v>
+        <v>9.198637841627879e-06</v>
       </c>
       <c r="F29" t="n">
-        <v>0.01226071745807551</v>
+        <v>0.01272024024190656</v>
       </c>
       <c r="G29" t="n">
-        <v>-1.470675339878709e-05</v>
+        <v>-1.872999310404897e-05</v>
       </c>
       <c r="H29" t="n">
-        <v>0.003517899181078365</v>
+        <v>0.003603851226938416</v>
       </c>
       <c r="I29" t="n">
-        <v>0.46228298508355</v>
+        <v>0.475610260290557</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.0007900965756390807</v>
+        <v>-0.0009184749159181037</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.004213873489371158</v>
+        <v>-0.004119046958798493</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0008591538473204321</v>
+        <v>0.0008757416656596008</v>
       </c>
       <c r="M29" t="n">
-        <v>-0.0002201304843348815</v>
+        <v>-0.0002418999227500149</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0002581904150356781</v>
+        <v>0.0002621344994711486</v>
       </c>
       <c r="O29" t="n">
-        <v>0.002387701426423576</v>
+        <v>0.002391834705400237</v>
       </c>
       <c r="P29" t="n">
-        <v>-0.001270662718102593</v>
+        <v>-0.001604383483175458</v>
       </c>
       <c r="Q29" t="n">
-        <v>3616.391777028618</v>
+        <v>3607.015087487256</v>
       </c>
       <c r="R29" t="n">
-        <v>0.14042</v>
+        <v>0.13463</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9978933742489464</v>
+        <v>0.9978235254685679</v>
       </c>
       <c r="B30" t="n">
-        <v>38.73583460377245</v>
+        <v>38.49251981013163</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0001049644090652049</v>
+        <v>0.0001849365869715219</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2218724147566132</v>
+        <v>0.2132892470719866</v>
       </c>
       <c r="E30" t="n">
-        <v>9.54514891883239e-06</v>
+        <v>9.404649922123579e-06</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0118709257151825</v>
+        <v>0.01226071745807551</v>
       </c>
       <c r="G30" t="n">
-        <v>-1.008470390332705e-05</v>
+        <v>-1.470675339878709e-05</v>
       </c>
       <c r="H30" t="n">
-        <v>0.003387848245737241</v>
+        <v>0.003517899181078365</v>
       </c>
       <c r="I30" t="n">
-        <v>0.451272108318636</v>
+        <v>0.46228298508355</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.0006268034770698195</v>
+        <v>-0.0007900965756390807</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.004308060887574856</v>
+        <v>-0.004213873489371158</v>
       </c>
       <c r="L30" t="n">
-        <v>0.0009402174347120088</v>
+        <v>0.0008591538473204321</v>
       </c>
       <c r="M30" t="n">
-        <v>-0.000202196488728527</v>
+        <v>-0.0002201304843348815</v>
       </c>
       <c r="N30" t="n">
-        <v>0.0002551278076286071</v>
+        <v>0.0002581904150356781</v>
       </c>
       <c r="O30" t="n">
-        <v>0.002416743622194384</v>
+        <v>0.002387701426423576</v>
       </c>
       <c r="P30" t="n">
-        <v>-0.001016782509521287</v>
+        <v>-0.001270662718102593</v>
       </c>
       <c r="Q30" t="n">
-        <v>3625.43306947626</v>
+        <v>3616.391777028618</v>
       </c>
       <c r="R30" t="n">
-        <v>0.14621</v>
+        <v>0.14042</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9979610156039818</v>
+        <v>0.9978933742489464</v>
       </c>
       <c r="B31" t="n">
-        <v>38.96921453232894</v>
+        <v>38.73583460377245</v>
       </c>
       <c r="C31" t="n">
-        <v>1.937982276128718e-05</v>
+        <v>0.0001049644090652049</v>
       </c>
       <c r="D31" t="n">
-        <v>0.2295898699015534</v>
+        <v>0.2218724147566132</v>
       </c>
       <c r="E31" t="n">
-        <v>9.628451741190477e-06</v>
+        <v>9.54514891883239e-06</v>
       </c>
       <c r="F31" t="n">
-        <v>0.01148579001322751</v>
+        <v>0.0118709257151825</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.499891131490453e-06</v>
+        <v>-1.008470390332705e-05</v>
       </c>
       <c r="H31" t="n">
-        <v>0.003212605860584439</v>
+        <v>0.003387848245737241</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4398801733651193</v>
+        <v>0.451272108318636</v>
       </c>
       <c r="J31" t="n">
-        <v>-0.0004490905549091264</v>
+        <v>-0.0006268034770698195</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.004401688953100058</v>
+        <v>-0.004308060887574856</v>
       </c>
       <c r="L31" t="n">
-        <v>0.000881028353218016</v>
+        <v>0.0009402174347120088</v>
       </c>
       <c r="M31" t="n">
-        <v>-0.0001947204947363029</v>
+        <v>-0.000202196488728527</v>
       </c>
       <c r="N31" t="n">
-        <v>0.0002526532088694089</v>
+        <v>0.0002551278076286071</v>
       </c>
       <c r="O31" t="n">
-        <v>0.002449029161232643</v>
+        <v>0.002416743622194384</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.0008421169136043478</v>
+        <v>-0.001016782509521287</v>
       </c>
       <c r="Q31" t="n">
-        <v>3634.162078582735</v>
+        <v>3625.43306947626</v>
       </c>
       <c r="R31" t="n">
-        <v>0.152</v>
+        <v>0.14621</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.998026207739216</v>
+        <v>0.9979610156039818</v>
       </c>
       <c r="B32" t="n">
-        <v>39.19337438906825</v>
+        <v>38.96921453232894</v>
       </c>
       <c r="C32" t="n">
-        <v>-6.792343953955328e-05</v>
+        <v>1.937982276128718e-05</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2362499558982653</v>
+        <v>0.2295898699015534</v>
       </c>
       <c r="E32" t="n">
-        <v>9.732263975654818e-06</v>
+        <v>9.628451741190477e-06</v>
       </c>
       <c r="F32" t="n">
-        <v>0.01111745827448211</v>
+        <v>0.01148579001322751</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.543218096667333e-06</v>
+        <v>-5.499891131490453e-06</v>
       </c>
       <c r="H32" t="n">
-        <v>0.003123596410850531</v>
+        <v>0.003212605860584439</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4293070892371386</v>
+        <v>0.4398801733651193</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.0002771378886846221</v>
+        <v>-0.0004490905549091264</v>
       </c>
       <c r="K32" t="n">
-        <v>-0.004460010060379176</v>
+        <v>-0.004401688953100058</v>
       </c>
       <c r="L32" t="n">
-        <v>0.00163245333519202</v>
+        <v>0.000881028353218016</v>
       </c>
       <c r="M32" t="n">
-        <v>-0.0001914045164289603</v>
+        <v>-0.0001947204947363029</v>
       </c>
       <c r="N32" t="n">
-        <v>0.0002482648085775507</v>
+        <v>0.0002526532088694089</v>
       </c>
       <c r="O32" t="n">
-        <v>0.002489050551399009</v>
+        <v>0.002449029161232643</v>
       </c>
       <c r="P32" t="n">
-        <v>-0.0006271912144806175</v>
+        <v>-0.0008421169136043478</v>
       </c>
       <c r="Q32" t="n">
-        <v>3642.595750663266</v>
+        <v>3634.162078582735</v>
       </c>
       <c r="R32" t="n">
-        <v>0.15779</v>
+        <v>0.152</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.9980920875930409</v>
+        <v>0.998026207739216</v>
       </c>
       <c r="B33" t="n">
-        <v>39.41663691721719</v>
+        <v>39.19337438906825</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.0001444798344180624</v>
+        <v>-6.792343953955328e-05</v>
       </c>
       <c r="D33" t="n">
-        <v>0.2419624747547716</v>
+        <v>0.2362499558982653</v>
       </c>
       <c r="E33" t="n">
-        <v>9.812605211331942e-06</v>
+        <v>9.732263975654818e-06</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01075685700049323</v>
+        <v>0.01111745827448211</v>
       </c>
       <c r="G33" t="n">
-        <v>1.041211648002422e-06</v>
+        <v>-1.543218096667333e-06</v>
       </c>
       <c r="H33" t="n">
-        <v>0.002969243003869476</v>
+        <v>0.003123596410850531</v>
       </c>
       <c r="I33" t="n">
-        <v>0.4177329872009485</v>
+        <v>0.4293070892371386</v>
       </c>
       <c r="J33" t="n">
-        <v>-0.0001369140195275837</v>
+        <v>-0.0002771378886846221</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.004531021750387172</v>
+        <v>-0.004460010060379176</v>
       </c>
       <c r="L33" t="n">
-        <v>0.0008790179561655406</v>
+        <v>0.00163245333519202</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0001916191194095074</v>
+        <v>-0.0001914045164289603</v>
       </c>
       <c r="N33" t="n">
-        <v>0.0002351027345102644</v>
+        <v>0.0002482648085775507</v>
       </c>
       <c r="O33" t="n">
-        <v>0.002427884099859068</v>
+        <v>0.002489050551399009</v>
       </c>
       <c r="P33" t="n">
-        <v>-0.0005055460488144436</v>
+        <v>-0.0006271912144806175</v>
       </c>
       <c r="Q33" t="n">
-        <v>3651.03957331981</v>
+        <v>3642.595750663266</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1638</v>
+        <v>0.15779</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.9981556535288315</v>
+        <v>0.9980920875930409</v>
       </c>
       <c r="B34" t="n">
-        <v>39.63116891609124</v>
+        <v>39.41663691721719</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.0001918353766148282</v>
+        <v>-0.0001444798344180624</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2465486674751752</v>
+        <v>0.2419624747547716</v>
       </c>
       <c r="E34" t="n">
-        <v>9.853633839474037e-06</v>
+        <v>9.812605211331942e-06</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0104157751244283</v>
+        <v>0.01075685700049323</v>
       </c>
       <c r="G34" t="n">
-        <v>3.504797682203397e-06</v>
+        <v>1.041211648002422e-06</v>
       </c>
       <c r="H34" t="n">
-        <v>0.002895781282277523</v>
+        <v>0.002969243003869476</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4071195490065664</v>
+        <v>0.4177329872009485</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.717572623033233e-06</v>
+        <v>-0.0001369140195275837</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.004583608816221951</v>
+        <v>-0.004531021750387172</v>
       </c>
       <c r="L34" t="n">
-        <v>0.0009037355029459863</v>
+        <v>0.0008790179561655406</v>
       </c>
       <c r="M34" t="n">
-        <v>-0.000188428042088029</v>
+        <v>-0.0001916191194095074</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0002156265153113528</v>
+        <v>0.0002351027345102644</v>
       </c>
       <c r="O34" t="n">
-        <v>0.002336860665465229</v>
+        <v>0.002427884099859068</v>
       </c>
       <c r="P34" t="n">
-        <v>-0.0003227764480042272</v>
+        <v>-0.0005055460488144436</v>
       </c>
       <c r="Q34" t="n">
-        <v>3659.196745552538</v>
+        <v>3651.03957331981</v>
       </c>
       <c r="R34" t="n">
-        <v>0.16981</v>
+        <v>0.1638</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.9982173366738408</v>
+        <v>0.9981556535288315</v>
       </c>
       <c r="B35" t="n">
-        <v>39.83797152597176</v>
+        <v>39.63116891609124</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0002041102038172957</v>
+        <v>-0.0001918353766148282</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2502025832807434</v>
+        <v>0.2465486674751752</v>
       </c>
       <c r="E35" t="n">
-        <v>9.827920317331516e-06</v>
+        <v>9.853633839474037e-06</v>
       </c>
       <c r="F35" t="n">
-        <v>0.01012625511837503</v>
+        <v>0.0104157751244283</v>
       </c>
       <c r="G35" t="n">
-        <v>5.683035753811312e-06</v>
+        <v>3.504797682203397e-06</v>
       </c>
       <c r="H35" t="n">
-        <v>0.002796931155558358</v>
+        <v>0.002895781282277523</v>
       </c>
       <c r="I35" t="n">
-        <v>0.3983468319981268</v>
+        <v>0.4071195490065664</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0001071148726047856</v>
+        <v>-1.717572623033233e-06</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.004644180523034307</v>
+        <v>-0.004583608816221951</v>
       </c>
       <c r="L35" t="n">
-        <v>0.0009934993736848839</v>
+        <v>0.0009037355029459863</v>
       </c>
       <c r="M35" t="n">
-        <v>-0.0001839750156460868</v>
+        <v>-0.000188428042088029</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0001913483779344547</v>
+        <v>0.0002156265153113528</v>
       </c>
       <c r="O35" t="n">
-        <v>0.002273083890651374</v>
+        <v>0.002336860665465229</v>
       </c>
       <c r="P35" t="n">
-        <v>-0.0001932633554633472</v>
+        <v>-0.0003227764480042272</v>
       </c>
       <c r="Q35" t="n">
-        <v>3667.10240842128</v>
+        <v>3659.196745552538</v>
       </c>
       <c r="R35" t="n">
-        <v>0.17581</v>
+        <v>0.16981</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.9982772800645682</v>
+        <v>0.9982173366738408</v>
       </c>
       <c r="B36" t="n">
-        <v>40.03802775535826</v>
+        <v>39.83797152597176</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.000183171096539049</v>
+        <v>-0.0002041102038172957</v>
       </c>
       <c r="D36" t="n">
-        <v>0.253046451537965</v>
+        <v>0.2502025832807434</v>
       </c>
       <c r="E36" t="n">
-        <v>9.7482749215594e-06</v>
+        <v>9.827920317331516e-06</v>
       </c>
       <c r="F36" t="n">
-        <v>0.009843111264684783</v>
+        <v>0.01012625511837503</v>
       </c>
       <c r="G36" t="n">
-        <v>7.501976330487184e-06</v>
+        <v>5.683035753811312e-06</v>
       </c>
       <c r="H36" t="n">
-        <v>0.002674271347845547</v>
+        <v>0.002796931155558358</v>
       </c>
       <c r="I36" t="n">
-        <v>0.389561784070188</v>
+        <v>0.3983468319981268</v>
       </c>
       <c r="J36" t="n">
-        <v>0.000185779849304123</v>
+        <v>0.0001071148726047856</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.004709079701804895</v>
+        <v>-0.004644180523034307</v>
       </c>
       <c r="L36" t="n">
-        <v>0.0009746816105373832</v>
+        <v>0.0009934993736848839</v>
       </c>
       <c r="M36" t="n">
-        <v>-0.0001800436794384659</v>
+        <v>-0.0001839750156460868</v>
       </c>
       <c r="N36" t="n">
-        <v>0.0001657623558711482</v>
+        <v>0.0001913483779344547</v>
       </c>
       <c r="O36" t="n">
-        <v>0.002257528816108253</v>
+        <v>0.002273083890651374</v>
       </c>
       <c r="P36" t="n">
-        <v>-0.0001221962224101725</v>
+        <v>-0.0001932633554633472</v>
       </c>
       <c r="Q36" t="n">
-        <v>3674.79006088451</v>
+        <v>3667.10240842128</v>
       </c>
       <c r="R36" t="n">
-        <v>0.18182</v>
+        <v>0.17581</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.9983353977221772</v>
+        <v>0.9982772800645682</v>
       </c>
       <c r="B37" t="n">
-        <v>40.23229740232566</v>
+        <v>40.03802775535826</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0001386760024452842</v>
+        <v>-0.000183171096539049</v>
       </c>
       <c r="D37" t="n">
-        <v>0.2551309189630205</v>
+        <v>0.253046451537965</v>
       </c>
       <c r="E37" t="n">
-        <v>9.668208853092099e-06</v>
+        <v>9.7482749215594e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>0.009589567862747736</v>
+        <v>0.009843111264684783</v>
       </c>
       <c r="G37" t="n">
-        <v>9.05703806758923e-06</v>
+        <v>7.501976330487184e-06</v>
       </c>
       <c r="H37" t="n">
-        <v>0.002621506854646783</v>
+        <v>0.002674271347845547</v>
       </c>
       <c r="I37" t="n">
-        <v>0.3821553345987904</v>
+        <v>0.389561784070188</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0002510279815042124</v>
+        <v>0.000185779849304123</v>
       </c>
       <c r="K37" t="n">
-        <v>-0.004747952149962884</v>
+        <v>-0.004709079701804895</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001573552189112194</v>
+        <v>0.0009746816105373832</v>
       </c>
       <c r="M37" t="n">
-        <v>-0.0001787099694422959</v>
+        <v>-0.0001800436794384659</v>
       </c>
       <c r="N37" t="n">
-        <v>0.000144442564335414</v>
+        <v>0.0001657623558711482</v>
       </c>
       <c r="O37" t="n">
-        <v>0.002313481527601411</v>
+        <v>0.002257528816108253</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.430824432721219e-05</v>
+        <v>-0.0001221962224101725</v>
       </c>
       <c r="Q37" t="n">
-        <v>3682.292359724966</v>
+        <v>3674.79006088451</v>
       </c>
       <c r="R37" t="n">
-        <v>0.18782</v>
+        <v>0.18182</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.9983945649493319</v>
+        <v>0.9983353977221772</v>
       </c>
       <c r="B38" t="n">
-        <v>40.42812432741458</v>
+        <v>40.23229740232566</v>
       </c>
       <c r="C38" t="n">
-        <v>-7.658993616977586e-05</v>
+        <v>-0.0001386760024452842</v>
       </c>
       <c r="D38" t="n">
-        <v>0.2564308178831083</v>
+        <v>0.2551309189630205</v>
       </c>
       <c r="E38" t="n">
-        <v>9.627969502614787e-06</v>
+        <v>9.668208853092099e-06</v>
       </c>
       <c r="F38" t="n">
-        <v>0.009356456076809254</v>
+        <v>0.009589567862747736</v>
       </c>
       <c r="G38" t="n">
-        <v>9.105237680376205e-06</v>
+        <v>9.05703806758923e-06</v>
       </c>
       <c r="H38" t="n">
-        <v>0.002528969937263338</v>
+        <v>0.002621506854646783</v>
       </c>
       <c r="I38" t="n">
-        <v>0.3748156800212237</v>
+        <v>0.3821553345987904</v>
       </c>
       <c r="J38" t="n">
-        <v>0.000263574490137905</v>
+        <v>0.0002510279815042124</v>
       </c>
       <c r="K38" t="n">
-        <v>-0.004787990087243048</v>
+        <v>-0.004747952149962884</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0009676173000357279</v>
+        <v>0.001573552189112194</v>
       </c>
       <c r="M38" t="n">
-        <v>-0.0001843964159217285</v>
+        <v>-0.0001787099694422959</v>
       </c>
       <c r="N38" t="n">
-        <v>0.000125096620120972</v>
+        <v>0.000144442564335414</v>
       </c>
       <c r="O38" t="n">
-        <v>0.002357762924152188</v>
+        <v>0.002313481527601411</v>
       </c>
       <c r="P38" t="n">
-        <v>1.90912084491675e-05</v>
+        <v>-1.430824432721219e-05</v>
       </c>
       <c r="Q38" t="n">
-        <v>3689.888939542257</v>
+        <v>3682.292359724966</v>
       </c>
       <c r="R38" t="n">
-        <v>0.19404</v>
+        <v>0.18782</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9984520873688458</v>
+        <v>0.9983945649493319</v>
       </c>
       <c r="B39" t="n">
-        <v>40.61904403815302</v>
+        <v>40.42812432741458</v>
       </c>
       <c r="C39" t="n">
-        <v>-1.568540423442312e-05</v>
+        <v>-7.658993616977586e-05</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2567353219336707</v>
+        <v>0.2564308178831083</v>
       </c>
       <c r="E39" t="n">
-        <v>9.553530026789075e-06</v>
+        <v>9.627969502614787e-06</v>
       </c>
       <c r="F39" t="n">
-        <v>0.009138818744955609</v>
+        <v>0.009356456076809254</v>
       </c>
       <c r="G39" t="n">
-        <v>8.597954508945385e-06</v>
+        <v>9.105237680376205e-06</v>
       </c>
       <c r="H39" t="n">
-        <v>0.002504743393232545</v>
+        <v>0.002528969937263338</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3682815664888051</v>
+        <v>0.3748156800212237</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0002540534815443802</v>
+        <v>0.000263574490137905</v>
       </c>
       <c r="K39" t="n">
-        <v>-0.004803479401910889</v>
+        <v>-0.004787990087243048</v>
       </c>
       <c r="L39" t="n">
-        <v>0.0009581717853036972</v>
+        <v>0.0009676173000357279</v>
       </c>
       <c r="M39" t="n">
-        <v>-0.0001922326480250214</v>
+        <v>-0.0001843964159217285</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0001103594180887365</v>
+        <v>0.000125096620120972</v>
       </c>
       <c r="O39" t="n">
-        <v>0.002358458502455372</v>
+        <v>0.002357762924152188</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0001041526719116497</v>
+        <v>1.90912084491675e-05</v>
       </c>
       <c r="Q39" t="n">
-        <v>3697.330995776721</v>
+        <v>3689.888939542257</v>
       </c>
       <c r="R39" t="n">
-        <v>0.20026</v>
+        <v>0.19404</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.9985083317639675</v>
+        <v>0.9984520873688458</v>
       </c>
       <c r="B40" t="n">
-        <v>40.80553931386322</v>
+        <v>40.61904403815302</v>
       </c>
       <c r="C40" t="n">
-        <v>3.563914979411532e-05</v>
+        <v>-1.568540423442312e-05</v>
       </c>
       <c r="D40" t="n">
-        <v>0.2559691621370094</v>
+        <v>0.2567353219336707</v>
       </c>
       <c r="E40" t="n">
-        <v>9.450179632468723e-06</v>
+        <v>9.553530026789075e-06</v>
       </c>
       <c r="F40" t="n">
-        <v>0.008953437510088782</v>
+        <v>0.009138818744955609</v>
       </c>
       <c r="G40" t="n">
-        <v>7.260570602546861e-06</v>
+        <v>8.597954508945385e-06</v>
       </c>
       <c r="H40" t="n">
-        <v>0.002461463715844681</v>
+        <v>0.002504743393232545</v>
       </c>
       <c r="I40" t="n">
-        <v>0.3629884415573092</v>
+        <v>0.3682815664888051</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0002098362690852345</v>
+        <v>0.0002540534815443802</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.004816231798205691</v>
+        <v>-0.004803479401910889</v>
       </c>
       <c r="L40" t="n">
-        <v>0.0009811324565417649</v>
+        <v>0.0009581717853036972</v>
       </c>
       <c r="M40" t="n">
-        <v>-0.0001998094988873071</v>
+        <v>-0.0001922326480250214</v>
       </c>
       <c r="N40" t="n">
-        <v>9.869551655514206e-05</v>
+        <v>0.0001103594180887365</v>
       </c>
       <c r="O40" t="n">
-        <v>0.002307040072577416</v>
+        <v>0.002358458502455372</v>
       </c>
       <c r="P40" t="n">
-        <v>0.0001601919174036459</v>
+        <v>0.0001041526719116497</v>
       </c>
       <c r="Q40" t="n">
-        <v>3704.636596561043</v>
+        <v>3697.330995776721</v>
       </c>
       <c r="R40" t="n">
-        <v>0.20649</v>
+        <v>0.20026</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9985634028338265</v>
+        <v>0.9985083317639675</v>
       </c>
       <c r="B41" t="n">
-        <v>40.98797952849271</v>
+        <v>40.80553931386322</v>
       </c>
       <c r="C41" t="n">
-        <v>7.338773908294246e-05</v>
+        <v>3.563914979411532e-05</v>
       </c>
       <c r="D41" t="n">
-        <v>0.2541772105297987</v>
+        <v>0.2559691621370094</v>
       </c>
       <c r="E41" t="n">
-        <v>9.305148454176755e-06</v>
+        <v>9.450179632468723e-06</v>
       </c>
       <c r="F41" t="n">
-        <v>0.008748689818177741</v>
+        <v>0.008953437510088782</v>
       </c>
       <c r="G41" t="n">
-        <v>5.176211140671242e-06</v>
+        <v>7.260570602546861e-06</v>
       </c>
       <c r="H41" t="n">
-        <v>0.002395876563384562</v>
+        <v>0.002461463715844681</v>
       </c>
       <c r="I41" t="n">
-        <v>0.3567484920385816</v>
+        <v>0.3629884415573092</v>
       </c>
       <c r="J41" t="n">
-        <v>0.000132939990093751</v>
+        <v>0.0002098362690852345</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.00482824072679082</v>
+        <v>-0.004816231798205691</v>
       </c>
       <c r="L41" t="n">
-        <v>0.0009192168526546637</v>
+        <v>0.0009811324565417649</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0002080940580814813</v>
+        <v>-0.0001998094988873071</v>
       </c>
       <c r="N41" t="n">
-        <v>8.835925387404841e-05</v>
+        <v>9.869551655514206e-05</v>
       </c>
       <c r="O41" t="n">
-        <v>0.002200414967013771</v>
+        <v>0.002307040072577416</v>
       </c>
       <c r="P41" t="n">
-        <v>0.0001875956318913226</v>
+        <v>0.0001601919174036459</v>
       </c>
       <c r="Q41" t="n">
-        <v>3711.817242153819</v>
+        <v>3704.636596561043</v>
       </c>
       <c r="R41" t="n">
-        <v>0.21271</v>
+        <v>0.20649</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.998616987770155</v>
+        <v>0.9985634028338265</v>
       </c>
       <c r="B42" t="n">
-        <v>41.16662655441963</v>
+        <v>40.98797952849271</v>
       </c>
       <c r="C42" t="n">
-        <v>9.78277235586746e-05</v>
+        <v>7.338773908294246e-05</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2515242689842138</v>
+        <v>0.2541772105297987</v>
       </c>
       <c r="E42" t="n">
-        <v>9.090358652277823e-06</v>
+        <v>9.305148454176755e-06</v>
       </c>
       <c r="F42" t="n">
-        <v>0.008543173119002779</v>
+        <v>0.008748689818177741</v>
       </c>
       <c r="G42" t="n">
-        <v>2.680019966695816e-06</v>
+        <v>5.176211140671242e-06</v>
       </c>
       <c r="H42" t="n">
-        <v>0.00237932891577362</v>
+        <v>0.002395876563384562</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3505243209689713</v>
+        <v>0.3567484920385816</v>
       </c>
       <c r="J42" t="n">
-        <v>3.555487161639689e-05</v>
+        <v>0.000132939990093751</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.004823040731243274</v>
+        <v>-0.00482824072679082</v>
       </c>
       <c r="L42" t="n">
-        <v>0.001402625005408316</v>
+        <v>0.0009192168526546637</v>
       </c>
       <c r="M42" t="n">
-        <v>-0.000221738131837385</v>
+        <v>-0.0002080940580814813</v>
       </c>
       <c r="N42" t="n">
-        <v>7.777078021502804e-05</v>
+        <v>8.835925387404841e-05</v>
       </c>
       <c r="O42" t="n">
-        <v>0.002065776322329422</v>
+        <v>0.002200414967013771</v>
       </c>
       <c r="P42" t="n">
-        <v>0.0002624584754288479</v>
+        <v>0.0001875956318913226</v>
       </c>
       <c r="Q42" t="n">
-        <v>3718.879429699159</v>
+        <v>3711.817242153819</v>
       </c>
       <c r="R42" t="n">
-        <v>0.21893</v>
+        <v>0.21271</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9986715685812934</v>
+        <v>0.998616987770155</v>
       </c>
       <c r="B43" t="n">
-        <v>41.34763672789686</v>
+        <v>41.16662655441963</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0001061380332412881</v>
+        <v>9.78277235586746e-05</v>
       </c>
       <c r="D43" t="n">
-        <v>0.2481048100981166</v>
+        <v>0.2515242689842138</v>
       </c>
       <c r="E43" t="n">
-        <v>8.943361174991032e-06</v>
+        <v>9.090358652277823e-06</v>
       </c>
       <c r="F43" t="n">
-        <v>0.008353639106358175</v>
+        <v>0.008543173119002779</v>
       </c>
       <c r="G43" t="n">
-        <v>-6.166884681900748e-07</v>
+        <v>2.680019966695816e-06</v>
       </c>
       <c r="H43" t="n">
-        <v>0.002326334219431478</v>
+        <v>0.00237932891577362</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3444337657808467</v>
+        <v>0.3505243209689713</v>
       </c>
       <c r="J43" t="n">
-        <v>-9.002668004831387e-05</v>
+        <v>3.555487161639689e-05</v>
       </c>
       <c r="K43" t="n">
-        <v>-0.004823079944418288</v>
+        <v>-0.004823040731243274</v>
       </c>
       <c r="L43" t="n">
-        <v>0.0008688369652597176</v>
+        <v>0.001402625005408316</v>
       </c>
       <c r="M43" t="n">
-        <v>-0.0002383500128475087</v>
+        <v>-0.000221738131837385</v>
       </c>
       <c r="N43" t="n">
-        <v>6.411803439035113e-05</v>
+        <v>7.777078021502804e-05</v>
       </c>
       <c r="O43" t="n">
-        <v>0.001920335952395133</v>
+        <v>0.002065776322329422</v>
       </c>
       <c r="P43" t="n">
-        <v>0.0002860762116729316</v>
+        <v>0.0002624584754288479</v>
       </c>
       <c r="Q43" t="n">
-        <v>3726.062418727136</v>
+        <v>3718.879429699159</v>
       </c>
       <c r="R43" t="n">
-        <v>0.22536</v>
+        <v>0.21893</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9987247361223209</v>
+        <v>0.9986715685812934</v>
       </c>
       <c r="B44" t="n">
-        <v>41.52493343895416</v>
+        <v>41.34763672789686</v>
       </c>
       <c r="C44" t="n">
-        <v>9.354992581382677e-05</v>
+        <v>0.0001061380332412881</v>
       </c>
       <c r="D44" t="n">
-        <v>0.244259283939131</v>
+        <v>0.2481048100981166</v>
       </c>
       <c r="E44" t="n">
-        <v>8.838720383177741e-06</v>
+        <v>8.943361174991032e-06</v>
       </c>
       <c r="F44" t="n">
-        <v>0.00818759502174693</v>
+        <v>0.008353639106358175</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.160380383071021e-06</v>
+        <v>-6.166884681900748e-07</v>
       </c>
       <c r="H44" t="n">
-        <v>0.002317471714875659</v>
+        <v>0.002326334219431478</v>
       </c>
       <c r="I44" t="n">
-        <v>0.3393413085149314</v>
+        <v>0.3444337657808467</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0002248756594021213</v>
+        <v>-9.002668004831387e-05</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.004805889621882443</v>
+        <v>-0.004823079944418288</v>
       </c>
       <c r="L44" t="n">
-        <v>0.0008699356394643417</v>
+        <v>0.0008688369652597176</v>
       </c>
       <c r="M44" t="n">
-        <v>-0.0002557240142398913</v>
+        <v>-0.0002383500128475087</v>
       </c>
       <c r="N44" t="n">
-        <v>5.104193097953847e-05</v>
+        <v>6.411803439035113e-05</v>
       </c>
       <c r="O44" t="n">
-        <v>0.001801251804597875</v>
+        <v>0.001920335952395133</v>
       </c>
       <c r="P44" t="n">
-        <v>0.0003587358135399323</v>
+        <v>0.0002860762116729316</v>
       </c>
       <c r="Q44" t="n">
-        <v>3733.124744642073</v>
+        <v>3726.062418727136</v>
       </c>
       <c r="R44" t="n">
-        <v>0.2318</v>
+        <v>0.22536</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.9987770060981078</v>
+        <v>0.9987247361223209</v>
       </c>
       <c r="B45" t="n">
-        <v>41.69869396989807</v>
+        <v>41.52493343895416</v>
       </c>
       <c r="C45" t="n">
-        <v>6.793702700255981e-05</v>
+        <v>9.354992581382677e-05</v>
       </c>
       <c r="D45" t="n">
-        <v>0.2401124453805688</v>
+        <v>0.244259283939131</v>
       </c>
       <c r="E45" t="n">
-        <v>8.710592764695991e-06</v>
+        <v>8.838720383177741e-06</v>
       </c>
       <c r="F45" t="n">
-        <v>0.008058621018294323</v>
+        <v>0.00818759502174693</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.427294052999731e-06</v>
+        <v>-4.160380383071021e-06</v>
       </c>
       <c r="H45" t="n">
-        <v>0.002283867925991123</v>
+        <v>0.002317471714875659</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3357170068827908</v>
+        <v>0.3393413085149314</v>
       </c>
       <c r="J45" t="n">
-        <v>-0.0003079683949919789</v>
+        <v>-0.0002248756594021213</v>
       </c>
       <c r="K45" t="n">
-        <v>-0.004784936187399736</v>
+        <v>-0.004805889621882443</v>
       </c>
       <c r="L45" t="n">
-        <v>0.0009063182439842278</v>
+        <v>0.0008699356394643417</v>
       </c>
       <c r="M45" t="n">
-        <v>-0.0002710890466447036</v>
+        <v>-0.0002557240142398913</v>
       </c>
       <c r="N45" t="n">
-        <v>4.000703380744376e-05</v>
+        <v>5.104193097953847e-05</v>
       </c>
       <c r="O45" t="n">
-        <v>0.001753624396929025</v>
+        <v>0.001801251804597875</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0004021626076693607</v>
+        <v>0.0003587358135399323</v>
       </c>
       <c r="Q45" t="n">
-        <v>3740.072640646371</v>
+        <v>3733.124744642073</v>
       </c>
       <c r="R45" t="n">
-        <v>0.23823</v>
+        <v>0.2318</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.9988284369114878</v>
+        <v>0.9987770060981078</v>
       </c>
       <c r="B46" t="n">
-        <v>41.86902511857432</v>
+        <v>41.69869396989807</v>
       </c>
       <c r="C46" t="n">
-        <v>3.843311106129077e-05</v>
+        <v>6.793702700255981e-05</v>
       </c>
       <c r="D46" t="n">
-        <v>0.2357403288446589</v>
+        <v>0.2401124453805688</v>
       </c>
       <c r="E46" t="n">
-        <v>8.534323785834229e-06</v>
+        <v>8.710592764695991e-06</v>
       </c>
       <c r="F46" t="n">
-        <v>0.007910074519101426</v>
+        <v>0.008058621018294323</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.132543758218993e-06</v>
+        <v>-6.427294052999731e-06</v>
       </c>
       <c r="H46" t="n">
-        <v>0.00222447342559474</v>
+        <v>0.002283867925991123</v>
       </c>
       <c r="I46" t="n">
-        <v>0.3311501807884694</v>
+        <v>0.3357170068827908</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0003278445246116445</v>
+        <v>-0.0003079683949919789</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.004762806427618599</v>
+        <v>-0.004784936187399736</v>
       </c>
       <c r="L46" t="n">
-        <v>0.0008646033536064279</v>
+        <v>0.0009063182439842278</v>
       </c>
       <c r="M46" t="n">
-        <v>-0.0002842428580126097</v>
+        <v>-0.0002710890466447036</v>
       </c>
       <c r="N46" t="n">
-        <v>3.175415334949157e-05</v>
+        <v>4.000703380744376e-05</v>
       </c>
       <c r="O46" t="n">
-        <v>0.001773316598479832</v>
+        <v>0.001753624396929025</v>
       </c>
       <c r="P46" t="n">
-        <v>0.0004118938768402622</v>
+        <v>0.0004021626076693607</v>
       </c>
       <c r="Q46" t="n">
-        <v>3746.908363619148</v>
+        <v>3740.072640646371</v>
       </c>
       <c r="R46" t="n">
-        <v>0.24467</v>
+        <v>0.23823</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.9988786125123307</v>
+        <v>0.9988284369114878</v>
       </c>
       <c r="B47" t="n">
-        <v>42.03596544966071</v>
+        <v>41.86902511857432</v>
       </c>
       <c r="C47" t="n">
-        <v>1.497195943248129e-05</v>
+        <v>3.843311106129077e-05</v>
       </c>
       <c r="D47" t="n">
-        <v>0.2311701100340101</v>
+        <v>0.2357403288446589</v>
       </c>
       <c r="E47" t="n">
-        <v>8.329580383676912e-06</v>
+        <v>8.534323785834229e-06</v>
       </c>
       <c r="F47" t="n">
-        <v>0.007750443259573132</v>
+        <v>0.007910074519101426</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.260705117971484e-06</v>
+        <v>-7.132543758218993e-06</v>
       </c>
       <c r="H47" t="n">
-        <v>0.00219978502890358</v>
+        <v>0.00222447342559474</v>
       </c>
       <c r="I47" t="n">
-        <v>0.3260975334486692</v>
+        <v>0.3311501807884694</v>
       </c>
       <c r="J47" t="n">
-        <v>-0.0003234261059588577</v>
+        <v>-0.0003278445246116445</v>
       </c>
       <c r="K47" t="n">
-        <v>-0.004731173374077685</v>
+        <v>-0.004762806427618599</v>
       </c>
       <c r="L47" t="n">
-        <v>0.001267839556062178</v>
+        <v>0.0008646033536064279</v>
       </c>
       <c r="M47" t="n">
-        <v>-0.0002965106253676084</v>
+        <v>-0.0002842428580126097</v>
       </c>
       <c r="N47" t="n">
-        <v>2.711502498167205e-05</v>
+        <v>3.175415334949157e-05</v>
       </c>
       <c r="O47" t="n">
-        <v>0.001837900477576273</v>
+        <v>0.001773316598479832</v>
       </c>
       <c r="P47" t="n">
-        <v>0.0004541447430718097</v>
+        <v>0.0004118938768402622</v>
       </c>
       <c r="Q47" t="n">
-        <v>3753.63064235388</v>
+        <v>3746.908363619148</v>
       </c>
       <c r="R47" t="n">
-        <v>0.25111</v>
+        <v>0.24467</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9989298356649629</v>
+        <v>0.9988786125123307</v>
       </c>
       <c r="B48" t="n">
-        <v>42.20487093210374</v>
+        <v>42.03596544966071</v>
       </c>
       <c r="C48" t="n">
-        <v>5.014406964623158e-06</v>
+        <v>1.497195943248129e-05</v>
       </c>
       <c r="D48" t="n">
-        <v>0.2262966902725709</v>
+        <v>0.2311701100340101</v>
       </c>
       <c r="E48" t="n">
-        <v>8.197787767225473e-06</v>
+        <v>8.329580383676912e-06</v>
       </c>
       <c r="F48" t="n">
-        <v>0.007582118638462918</v>
+        <v>0.007750443259573132</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.251589297883603e-06</v>
+        <v>-7.260705117971484e-06</v>
       </c>
       <c r="H48" t="n">
-        <v>0.002143672585324685</v>
+        <v>0.00219978502890358</v>
       </c>
       <c r="I48" t="n">
-        <v>0.3203715955345311</v>
+        <v>0.3260975334486692</v>
       </c>
       <c r="J48" t="n">
-        <v>-0.0003163907297993951</v>
+        <v>-0.0003234261059588577</v>
       </c>
       <c r="K48" t="n">
-        <v>-0.004707311037849122</v>
+        <v>-0.004731173374077685</v>
       </c>
       <c r="L48" t="n">
-        <v>0.0008255848191427028</v>
+        <v>0.001267839556062178</v>
       </c>
       <c r="M48" t="n">
-        <v>-0.0003053681189189435</v>
+        <v>-0.0002965106253676084</v>
       </c>
       <c r="N48" t="n">
-        <v>2.731757991734672e-05</v>
+        <v>2.711502498167205e-05</v>
       </c>
       <c r="O48" t="n">
-        <v>0.001931285740674161</v>
+        <v>0.001837900477576273</v>
       </c>
       <c r="P48" t="n">
-        <v>0.0004457998676652442</v>
+        <v>0.0004541447430718097</v>
       </c>
       <c r="Q48" t="n">
-        <v>3760.454313122981</v>
+        <v>3753.63064235388</v>
       </c>
       <c r="R48" t="n">
-        <v>0.25775</v>
+        <v>0.25111</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.998979636579679</v>
+        <v>0.9989298356649629</v>
       </c>
       <c r="B49" t="n">
-        <v>42.37022970660328</v>
+        <v>42.20487093210374</v>
       </c>
       <c r="C49" t="n">
-        <v>4.263766441600373e-06</v>
+        <v>5.014406964623158e-06</v>
       </c>
       <c r="D49" t="n">
-        <v>0.221336172396674</v>
+        <v>0.2262966902725709</v>
       </c>
       <c r="E49" t="n">
-        <v>8.012789352867455e-06</v>
+        <v>8.197787767225473e-06</v>
       </c>
       <c r="F49" t="n">
-        <v>0.007420725579544437</v>
+        <v>0.007582118638462918</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.025418485830866e-06</v>
+        <v>-7.251589297883603e-06</v>
       </c>
       <c r="H49" t="n">
-        <v>0.002124879894934934</v>
+        <v>0.002143672585324685</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3149584900831017</v>
+        <v>0.3203715955345311</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.0002989998192208721</v>
+        <v>-0.0003163907297993951</v>
       </c>
       <c r="K49" t="n">
-        <v>-0.004677234269721699</v>
+        <v>-0.004707311037849122</v>
       </c>
       <c r="L49" t="n">
-        <v>0.0008333258366497399</v>
+        <v>0.0008255848191427028</v>
       </c>
       <c r="M49" t="n">
-        <v>-0.0003095183667938163</v>
+        <v>-0.0003053681189189435</v>
       </c>
       <c r="N49" t="n">
-        <v>3.33710818199165e-05</v>
+        <v>2.731757991734672e-05</v>
       </c>
       <c r="O49" t="n">
-        <v>0.002017403820763135</v>
+        <v>0.001931285740674161</v>
       </c>
       <c r="P49" t="n">
-        <v>0.0004830189391785926</v>
+        <v>0.0004457998676652442</v>
       </c>
       <c r="Q49" t="n">
-        <v>3767.158801796437</v>
+        <v>3760.454313122981</v>
       </c>
       <c r="R49" t="n">
-        <v>0.2644</v>
+        <v>0.25775</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9990285395928616</v>
+        <v>0.998979636579679</v>
       </c>
       <c r="B50" t="n">
-        <v>42.532292968244</v>
+        <v>42.37022970660328</v>
       </c>
       <c r="C50" t="n">
-        <v>2.976563524448619e-06</v>
+        <v>4.263766441600373e-06</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2163798929235482</v>
+        <v>0.221336172396674</v>
       </c>
       <c r="E50" t="n">
-        <v>7.807740769642297e-06</v>
+        <v>8.012789352867455e-06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.007294127651107524</v>
+        <v>0.007420725579544437</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.406414165915616e-06</v>
+        <v>-7.025418485830866e-06</v>
       </c>
       <c r="H50" t="n">
-        <v>0.002090687231721183</v>
+        <v>0.002124879894934934</v>
       </c>
       <c r="I50" t="n">
-        <v>0.3109531305737402</v>
+        <v>0.3149584900831017</v>
       </c>
       <c r="J50" t="n">
-        <v>-0.0002674519417351083</v>
+        <v>-0.0002989998192208721</v>
       </c>
       <c r="K50" t="n">
-        <v>-0.004651815398594047</v>
+        <v>-0.004677234269721699</v>
       </c>
       <c r="L50" t="n">
-        <v>0.0008827186016497523</v>
+        <v>0.0008333258366497399</v>
       </c>
       <c r="M50" t="n">
-        <v>-0.0003120024362284524</v>
+        <v>-0.0003095183667938163</v>
       </c>
       <c r="N50" t="n">
-        <v>4.219122964394078e-05</v>
+        <v>3.33710818199165e-05</v>
       </c>
       <c r="O50" t="n">
-        <v>0.002079190764773214</v>
+        <v>0.002017403820763135</v>
       </c>
       <c r="P50" t="n">
-        <v>0.0005031899154193323</v>
+        <v>0.0004830189391785926</v>
       </c>
       <c r="Q50" t="n">
-        <v>3773.755120488034</v>
+        <v>3767.158801796437</v>
       </c>
       <c r="R50" t="n">
-        <v>0.27105</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9990766348309569</v>
+        <v>0.9990285395928616</v>
       </c>
       <c r="B51" t="n">
-        <v>42.69140950238643</v>
+        <v>42.532292968244</v>
       </c>
       <c r="C51" t="n">
-        <v>-4.464554549167635e-06</v>
+        <v>2.976563524448619e-06</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2114773553067687</v>
+        <v>0.2163798929235482</v>
       </c>
       <c r="E51" t="n">
-        <v>7.609110812334432e-06</v>
+        <v>7.807740769642297e-06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.007165055834678503</v>
+        <v>0.007294127651107524</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.223021820686493e-06</v>
+        <v>-6.406414165915616e-06</v>
       </c>
       <c r="H51" t="n">
-        <v>0.002040485873205771</v>
+        <v>0.002090687231721183</v>
       </c>
       <c r="I51" t="n">
-        <v>0.3067491164220448</v>
+        <v>0.3109531305737402</v>
       </c>
       <c r="J51" t="n">
-        <v>-0.0002151172162250021</v>
+        <v>-0.0002674519417351083</v>
       </c>
       <c r="K51" t="n">
-        <v>-0.004630619551036779</v>
+        <v>-0.004651815398594047</v>
       </c>
       <c r="L51" t="n">
-        <v>0.0008754140554167477</v>
+        <v>0.0008827186016497523</v>
       </c>
       <c r="M51" t="n">
-        <v>-0.0003134962588927002</v>
+        <v>-0.0003120024362284524</v>
       </c>
       <c r="N51" t="n">
-        <v>5.120772807610057e-05</v>
+        <v>4.219122964394078e-05</v>
       </c>
       <c r="O51" t="n">
-        <v>0.002089704260566117</v>
+        <v>0.002079190764773214</v>
       </c>
       <c r="P51" t="n">
-        <v>0.0005009409886762834</v>
+        <v>0.0005031899154193323</v>
       </c>
       <c r="Q51" t="n">
-        <v>3780.256338933327</v>
+        <v>3773.755120488034</v>
       </c>
       <c r="R51" t="n">
-        <v>0.2777</v>
+        <v>0.27105</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9991236725405792</v>
+        <v>0.9990766348309569</v>
       </c>
       <c r="B52" t="n">
-        <v>42.84802036937394</v>
+        <v>42.69140950238643</v>
       </c>
       <c r="C52" t="n">
-        <v>-1.942127165226757e-05</v>
+        <v>-4.464554549167635e-06</v>
       </c>
       <c r="D52" t="n">
-        <v>0.2066365147433685</v>
+        <v>0.2114773553067687</v>
       </c>
       <c r="E52" t="n">
-        <v>7.428651365126447e-06</v>
+        <v>7.609110812334432e-06</v>
       </c>
       <c r="F52" t="n">
-        <v>0.007053797346090037</v>
+        <v>0.007165055834678503</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.234072938805934e-06</v>
+        <v>-5.223021820686493e-06</v>
       </c>
       <c r="H52" t="n">
-        <v>0.002021824875163874</v>
+        <v>0.002040485873205771</v>
       </c>
       <c r="I52" t="n">
-        <v>0.3033432161976006</v>
+        <v>0.3067491164220448</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.0001301200081114425</v>
+        <v>-0.0002151172162250021</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.0046013215318382</v>
+        <v>-0.004630619551036779</v>
       </c>
       <c r="L52" t="n">
-        <v>0.001239205695258609</v>
+        <v>0.0008754140554167477</v>
       </c>
       <c r="M52" t="n">
-        <v>-0.0003118832383382781</v>
+        <v>-0.0003134962588927002</v>
       </c>
       <c r="N52" t="n">
-        <v>5.899638028626917e-05</v>
+        <v>5.120772807610057e-05</v>
       </c>
       <c r="O52" t="n">
-        <v>0.002036086912802041</v>
+        <v>0.002089704260566117</v>
       </c>
       <c r="P52" t="n">
-        <v>0.0005258422428386802</v>
+        <v>0.0005009409886762834</v>
       </c>
       <c r="Q52" t="n">
-        <v>3786.679369065327</v>
+        <v>3780.256338933327</v>
       </c>
       <c r="R52" t="n">
-        <v>0.28435</v>
+        <v>0.2777</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9991718946731235</v>
+        <v>0.9991236725405792</v>
       </c>
       <c r="B53" t="n">
-        <v>43.00732185827878</v>
+        <v>42.84802036937394</v>
       </c>
       <c r="C53" t="n">
-        <v>-3.611342822180912e-05</v>
+        <v>-1.942127165226757e-05</v>
       </c>
       <c r="D53" t="n">
-        <v>0.2016587221586778</v>
+        <v>0.2066365147433685</v>
       </c>
       <c r="E53" t="n">
-        <v>7.299010102377814e-06</v>
+        <v>7.428651365126447e-06</v>
       </c>
       <c r="F53" t="n">
-        <v>0.006946859452067077</v>
+        <v>0.007053797346090037</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.495266302764303e-07</v>
+        <v>-3.234072938805934e-06</v>
       </c>
       <c r="H53" t="n">
-        <v>0.00197699555087324</v>
+        <v>0.002021824875163874</v>
       </c>
       <c r="I53" t="n">
-        <v>0.2999092114309628</v>
+        <v>0.3033432161976006</v>
       </c>
       <c r="J53" t="n">
-        <v>4.70689132894134e-06</v>
+        <v>-0.0001301200081114425</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.004580057462459769</v>
+        <v>-0.0046013215318382</v>
       </c>
       <c r="L53" t="n">
-        <v>0.0008879221501613769</v>
+        <v>0.001239205695258609</v>
       </c>
       <c r="M53" t="n">
-        <v>-0.0003070118520963242</v>
+        <v>-0.0003118832383382781</v>
       </c>
       <c r="N53" t="n">
-        <v>6.65938748736785e-05</v>
+        <v>5.899638028626917e-05</v>
       </c>
       <c r="O53" t="n">
-        <v>0.001933037620393724</v>
+        <v>0.002036086912802041</v>
       </c>
       <c r="P53" t="n">
-        <v>0.0005089479284712071</v>
+        <v>0.0005258422428386802</v>
       </c>
       <c r="Q53" t="n">
-        <v>3793.237429322264</v>
+        <v>3786.679369065327</v>
       </c>
       <c r="R53" t="n">
-        <v>0.2912</v>
+        <v>0.28435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9992191499641289</v>
+        <v>0.9991718946731235</v>
       </c>
       <c r="B54" t="n">
-        <v>43.16461537455535</v>
+        <v>43.00732185827878</v>
       </c>
       <c r="C54" t="n">
-        <v>-5.003318677199076e-05</v>
+        <v>-3.611342822180912e-05</v>
       </c>
       <c r="D54" t="n">
-        <v>0.196598541427382</v>
+        <v>0.2016587221586778</v>
       </c>
       <c r="E54" t="n">
-        <v>7.142373605090351e-06</v>
+        <v>7.299010102377814e-06</v>
       </c>
       <c r="F54" t="n">
-        <v>0.006844517489462828</v>
+        <v>0.006946859452067077</v>
       </c>
       <c r="G54" t="n">
-        <v>3.064279425432697e-06</v>
+        <v>-1.495266302764303e-07</v>
       </c>
       <c r="H54" t="n">
-        <v>0.001960635648298857</v>
+        <v>0.00197699555087324</v>
       </c>
       <c r="I54" t="n">
-        <v>0.2967020391793461</v>
+        <v>0.2999092114309628</v>
       </c>
       <c r="J54" t="n">
-        <v>0.0001426284302776157</v>
+        <v>4.70689132894134e-06</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.004552534911293457</v>
+        <v>-0.004580057462459769</v>
       </c>
       <c r="L54" t="n">
-        <v>0.0009114249972026737</v>
+        <v>0.0008879221501613769</v>
       </c>
       <c r="M54" t="n">
-        <v>-0.0002986339339405907</v>
+        <v>-0.0003070118520963242</v>
       </c>
       <c r="N54" t="n">
-        <v>7.339636214371218e-05</v>
+        <v>6.65938748736785e-05</v>
       </c>
       <c r="O54" t="n">
-        <v>0.001794439387217813</v>
+        <v>0.001933037620393724</v>
       </c>
       <c r="P54" t="n">
-        <v>0.0005253870547598621</v>
+        <v>0.0005089479284712071</v>
       </c>
       <c r="Q54" t="n">
-        <v>3799.73960584181</v>
+        <v>3793.237429322264</v>
       </c>
       <c r="R54" t="n">
-        <v>0.29806</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.9992657698861089</v>
+        <v>0.9992191499641289</v>
       </c>
       <c r="B55" t="n">
-        <v>43.32014043957194</v>
+        <v>43.16461537455535</v>
       </c>
       <c r="C55" t="n">
-        <v>-6.005220725532731e-05</v>
+        <v>-5.003318677199076e-05</v>
       </c>
       <c r="D55" t="n">
-        <v>0.1913774427576855</v>
+        <v>0.196598541427382</v>
       </c>
       <c r="E55" t="n">
-        <v>6.995966950096402e-06</v>
+        <v>7.142373605090351e-06</v>
       </c>
       <c r="F55" t="n">
-        <v>0.006764633780602637</v>
+        <v>0.006844517489462828</v>
       </c>
       <c r="G55" t="n">
-        <v>5.140604076942651e-06</v>
+        <v>3.064279425432697e-06</v>
       </c>
       <c r="H55" t="n">
-        <v>0.001926362353398736</v>
+        <v>0.001960635648298857</v>
       </c>
       <c r="I55" t="n">
-        <v>0.294437864815313</v>
+        <v>0.2967020391793461</v>
       </c>
       <c r="J55" t="n">
-        <v>0.0002259916711051074</v>
+        <v>0.0001426284302776157</v>
       </c>
       <c r="K55" t="n">
-        <v>-0.004527849143219592</v>
+        <v>-0.004552534911293457</v>
       </c>
       <c r="L55" t="n">
-        <v>0.000968918657968163</v>
+        <v>0.0009114249972026737</v>
       </c>
       <c r="M55" t="n">
-        <v>-0.0002892325845621904</v>
+        <v>-0.0002986339339405907</v>
       </c>
       <c r="N55" t="n">
-        <v>7.733730071377751e-05</v>
+        <v>7.339636214371218e-05</v>
       </c>
       <c r="O55" t="n">
-        <v>0.001644360405408085</v>
+        <v>0.001794439387217813</v>
       </c>
       <c r="P55" t="n">
-        <v>0.000522250542544702</v>
+        <v>0.0005253870547598621</v>
       </c>
       <c r="Q55" t="n">
-        <v>3806.196697895993</v>
+        <v>3799.73960584181</v>
       </c>
       <c r="R55" t="n">
-        <v>0.30492</v>
+        <v>0.29806</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.9993119422024932</v>
+        <v>0.9992657698861089</v>
       </c>
       <c r="B56" t="n">
-        <v>43.47407845833457</v>
+        <v>43.32014043957194</v>
       </c>
       <c r="C56" t="n">
-        <v>-6.574729666746388e-05</v>
+        <v>-6.005220725532731e-05</v>
       </c>
       <c r="D56" t="n">
-        <v>0.1859035526924871</v>
+        <v>0.1913774427576855</v>
       </c>
       <c r="E56" t="n">
-        <v>6.863096954859429e-06</v>
+        <v>6.995966950096402e-06</v>
       </c>
       <c r="F56" t="n">
-        <v>0.006667514702717244</v>
+        <v>0.006764633780602637</v>
       </c>
       <c r="G56" t="n">
-        <v>5.484054032620391e-06</v>
+        <v>5.140604076942651e-06</v>
       </c>
       <c r="H56" t="n">
-        <v>0.001872033417455772</v>
+        <v>0.001926362353398736</v>
       </c>
       <c r="I56" t="n">
-        <v>0.2913792073954503</v>
+        <v>0.294437864815313</v>
       </c>
       <c r="J56" t="n">
-        <v>0.0002299129363146927</v>
+        <v>0.0002259916711051074</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.004505839228550753</v>
+        <v>-0.004527849143219592</v>
       </c>
       <c r="L56" t="n">
-        <v>0.0009886696425060869</v>
+        <v>0.000968918657968163</v>
       </c>
       <c r="M56" t="n">
-        <v>-0.0002785390514850437</v>
+        <v>-0.0002892325845621904</v>
       </c>
       <c r="N56" t="n">
-        <v>7.814636272510305e-05</v>
+        <v>7.733730071377751e-05</v>
       </c>
       <c r="O56" t="n">
-        <v>0.001488309074307112</v>
+        <v>0.001644360405408085</v>
       </c>
       <c r="P56" t="n">
-        <v>0.0004999258634542387</v>
+        <v>0.000522250542544702</v>
       </c>
       <c r="Q56" t="n">
-        <v>3812.613707679092</v>
+        <v>3806.196697895993</v>
       </c>
       <c r="R56" t="n">
-        <v>0.31178</v>
+        <v>0.30492</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9993571045758226</v>
+        <v>0.9993119422024932</v>
       </c>
       <c r="B57" t="n">
-        <v>43.62655712554429</v>
+        <v>43.47407845833457</v>
       </c>
       <c r="C57" t="n">
-        <v>-6.76345933193581e-05</v>
+        <v>-6.574729666746388e-05</v>
       </c>
       <c r="D57" t="n">
-        <v>0.1800714304187564</v>
+        <v>0.1859035526924871</v>
       </c>
       <c r="E57" t="n">
-        <v>6.711275392170604e-06</v>
+        <v>6.863096954859429e-06</v>
       </c>
       <c r="F57" t="n">
-        <v>0.006571457674199623</v>
+        <v>0.006667514702717244</v>
       </c>
       <c r="G57" t="n">
-        <v>4.198175614856295e-06</v>
+        <v>5.484054032620391e-06</v>
       </c>
       <c r="H57" t="n">
-        <v>0.001837596516906565</v>
+        <v>0.001872033417455772</v>
       </c>
       <c r="I57" t="n">
-        <v>0.2884065060806703</v>
+        <v>0.2913792073954503</v>
       </c>
       <c r="J57" t="n">
-        <v>0.0001626587045497288</v>
+        <v>0.0002299129363146927</v>
       </c>
       <c r="K57" t="n">
-        <v>-0.004476463998190247</v>
+        <v>-0.004505839228550753</v>
       </c>
       <c r="L57" t="n">
-        <v>0.001356338740984372</v>
+        <v>0.0009886696425060869</v>
       </c>
       <c r="M57" t="n">
-        <v>-0.0002642416578632553</v>
+        <v>-0.0002785390514850437</v>
       </c>
       <c r="N57" t="n">
-        <v>7.746533944463515e-05</v>
+        <v>7.814636272510305e-05</v>
       </c>
       <c r="O57" t="n">
-        <v>0.00134444743738293</v>
+        <v>0.001488309074307112</v>
       </c>
       <c r="P57" t="n">
-        <v>0.0005108859583578262</v>
+        <v>0.0004999258634542387</v>
       </c>
       <c r="Q57" t="n">
-        <v>3818.993720968695</v>
+        <v>3812.613707679092</v>
       </c>
       <c r="R57" t="n">
-        <v>0.31864</v>
+        <v>0.31178</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9994033781723612</v>
+        <v>0.9993571045758226</v>
       </c>
       <c r="B58" t="n">
-        <v>43.78216258008749</v>
+        <v>43.62655712554429</v>
       </c>
       <c r="C58" t="n">
-        <v>-6.565079823807764e-05</v>
+        <v>-6.76345933193581e-05</v>
       </c>
       <c r="D58" t="n">
-        <v>0.1735404391237059</v>
+        <v>0.1800714304187564</v>
       </c>
       <c r="E58" t="n">
-        <v>6.532772308032912e-06</v>
+        <v>6.711275392170604e-06</v>
       </c>
       <c r="F58" t="n">
-        <v>0.006487161011344274</v>
+        <v>0.006571457674199623</v>
       </c>
       <c r="G58" t="n">
-        <v>2.218188113005563e-06</v>
+        <v>4.198175614856295e-06</v>
       </c>
       <c r="H58" t="n">
-        <v>0.00177159284430507</v>
+        <v>0.001837596516906565</v>
       </c>
       <c r="I58" t="n">
-        <v>0.2857020637162586</v>
+        <v>0.2884065060806703</v>
       </c>
       <c r="J58" t="n">
-        <v>6.702323110221848e-05</v>
+        <v>0.0001626587045497288</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.004454360570296385</v>
+        <v>-0.004476463998190247</v>
       </c>
       <c r="L58" t="n">
-        <v>0.001071414372364399</v>
+        <v>0.001356338740984372</v>
       </c>
       <c r="M58" t="n">
-        <v>-0.000243494793128394</v>
+        <v>-0.0002642416578632553</v>
       </c>
       <c r="N58" t="n">
-        <v>7.246109808608907e-05</v>
+        <v>7.746533944463515e-05</v>
       </c>
       <c r="O58" t="n">
-        <v>0.001220961606128144</v>
+        <v>0.00134444743738293</v>
       </c>
       <c r="P58" t="n">
-        <v>0.0004883724836174011</v>
+        <v>0.0005108859583578262</v>
       </c>
       <c r="Q58" t="n">
-        <v>3825.528099986444</v>
+        <v>3818.993720968695</v>
       </c>
       <c r="R58" t="n">
-        <v>0.3257</v>
+        <v>0.31864</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9994489077212806</v>
+        <v>0.9994033781723612</v>
       </c>
       <c r="B59" t="n">
-        <v>43.93632257072111</v>
+        <v>43.78216258008749</v>
       </c>
       <c r="C59" t="n">
-        <v>-6.162897776357774e-05</v>
+        <v>-6.565079823807764e-05</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1664134902341077</v>
+        <v>0.1735404391237059</v>
       </c>
       <c r="E59" t="n">
-        <v>6.319872282914414e-06</v>
+        <v>6.532772308032912e-06</v>
       </c>
       <c r="F59" t="n">
-        <v>0.006407078708187607</v>
+        <v>0.006487161011344274</v>
       </c>
       <c r="G59" t="n">
-        <v>8.44227445374858e-07</v>
+        <v>2.218188113005563e-06</v>
       </c>
       <c r="H59" t="n">
-        <v>0.001732789015440481</v>
+        <v>0.00177159284430507</v>
       </c>
       <c r="I59" t="n">
-        <v>0.2832414463949421</v>
+        <v>0.2857020637162586</v>
       </c>
       <c r="J59" t="n">
-        <v>-9.527392254927284e-07</v>
+        <v>6.702323110221848e-05</v>
       </c>
       <c r="K59" t="n">
-        <v>-0.004425153930639006</v>
+        <v>-0.004454360570296385</v>
       </c>
       <c r="L59" t="n">
-        <v>0.001110616791602815</v>
+        <v>0.001071414372364399</v>
       </c>
       <c r="M59" t="n">
-        <v>-0.0002117855803612967</v>
+        <v>-0.000243494793128394</v>
       </c>
       <c r="N59" t="n">
-        <v>6.555418667856769e-05</v>
+        <v>7.246109808608907e-05</v>
       </c>
       <c r="O59" t="n">
-        <v>0.00112344968564902</v>
+        <v>0.001220961606128144</v>
       </c>
       <c r="P59" t="n">
-        <v>0.0005035158303229642</v>
+        <v>0.0004883724836174011</v>
       </c>
       <c r="Q59" t="n">
-        <v>3832.024144038094</v>
+        <v>3825.528099986444</v>
       </c>
       <c r="R59" t="n">
-        <v>0.33276</v>
+        <v>0.3257</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9994939880952383</v>
+        <v>0.9994489077212806</v>
       </c>
       <c r="B60" t="n">
-        <v>44.08904984231609</v>
+        <v>43.93632257072111</v>
       </c>
       <c r="C60" t="n">
-        <v>-5.541892500921639e-05</v>
+        <v>-6.162897776357774e-05</v>
       </c>
       <c r="D60" t="n">
-        <v>0.1586229708675287</v>
+        <v>0.1664134902341077</v>
       </c>
       <c r="E60" t="n">
-        <v>6.124872438803583e-06</v>
+        <v>6.319872282914414e-06</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0063508913976325</v>
+        <v>0.006407078708187607</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.79529799233252e-07</v>
+        <v>8.44227445374858e-07</v>
       </c>
       <c r="H60" t="n">
-        <v>0.001683684225930397</v>
+        <v>0.001732789015440481</v>
       </c>
       <c r="I60" t="n">
-        <v>0.2818563569909026</v>
+        <v>0.2832414463949421</v>
       </c>
       <c r="J60" t="n">
-        <v>-5.651829592396415e-05</v>
+        <v>-9.527392254927284e-07</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.004398610001556911</v>
+        <v>-0.004425153930639006</v>
       </c>
       <c r="L60" t="n">
-        <v>0.001162653194564227</v>
+        <v>0.001110616791602815</v>
       </c>
       <c r="M60" t="n">
-        <v>-0.0001680095868146665</v>
+        <v>-0.0002117855803612967</v>
       </c>
       <c r="N60" t="n">
-        <v>5.830135063433524e-05</v>
+        <v>6.555418667856769e-05</v>
       </c>
       <c r="O60" t="n">
-        <v>0.001052892708305857</v>
+        <v>0.00112344968564902</v>
       </c>
       <c r="P60" t="n">
-        <v>0.0005070790296222186</v>
+        <v>0.0005035158303229642</v>
       </c>
       <c r="Q60" t="n">
-        <v>3838.481452612693</v>
+        <v>3832.024144038094</v>
       </c>
       <c r="R60" t="n">
-        <v>0.33983</v>
+        <v>0.33276</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.999538534548471</v>
+        <v>0.9994939880952383</v>
       </c>
       <c r="B61" t="n">
-        <v>44.24019907905619</v>
+        <v>44.08904984231609</v>
       </c>
       <c r="C61" t="n">
-        <v>-4.586623705273086e-05</v>
+        <v>-5.541892500921639e-05</v>
       </c>
       <c r="D61" t="n">
-        <v>0.1501342298514564</v>
+        <v>0.1586229708675287</v>
       </c>
       <c r="E61" t="n">
-        <v>5.956116374229218e-06</v>
+        <v>6.124872438803583e-06</v>
       </c>
       <c r="F61" t="n">
-        <v>0.006280286768002869</v>
+        <v>0.0063508913976325</v>
       </c>
       <c r="G61" t="n">
-        <v>-1.185607150782438e-06</v>
+        <v>-2.79529799233252e-07</v>
       </c>
       <c r="H61" t="n">
-        <v>0.001622753500987505</v>
+        <v>0.001683684225930397</v>
       </c>
       <c r="I61" t="n">
-        <v>0.2798262223617214</v>
+        <v>0.2818563569909026</v>
       </c>
       <c r="J61" t="n">
-        <v>-9.898331243274176e-05</v>
+        <v>-5.651829592396415e-05</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.004373840696069859</v>
+        <v>-0.004398610001556911</v>
       </c>
       <c r="L61" t="n">
-        <v>0.001171390415768036</v>
+        <v>0.001162653194564227</v>
       </c>
       <c r="M61" t="n">
-        <v>-0.0001156115670582297</v>
+        <v>-0.0001680095868146665</v>
       </c>
       <c r="N61" t="n">
-        <v>5.267691247545686e-05</v>
+        <v>5.830135063433524e-05</v>
       </c>
       <c r="O61" t="n">
-        <v>0.0009844227204962933</v>
+        <v>0.001052892708305857</v>
       </c>
       <c r="P61" t="n">
-        <v>0.0004949730718051382</v>
+        <v>0.0005070790296222186</v>
       </c>
       <c r="Q61" t="n">
-        <v>3844.893035458554</v>
+        <v>3838.481452612693</v>
       </c>
       <c r="R61" t="n">
-        <v>0.34689</v>
+        <v>0.33983</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.9995819111514663</v>
+        <v>0.999538534548471</v>
       </c>
       <c r="B62" t="n">
-        <v>44.38947301686943</v>
+        <v>44.24019907905619</v>
       </c>
       <c r="C62" t="n">
-        <v>-3.086764996163617e-05</v>
+        <v>-4.586623705273086e-05</v>
       </c>
       <c r="D62" t="n">
-        <v>0.140945628661537</v>
+        <v>0.1501342298514564</v>
       </c>
       <c r="E62" t="n">
-        <v>5.781203228502545e-06</v>
+        <v>5.956116374229218e-06</v>
       </c>
       <c r="F62" t="n">
-        <v>0.006211117320755986</v>
+        <v>0.006280286768002869</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.579515110383039e-06</v>
+        <v>-1.185607150782438e-06</v>
       </c>
       <c r="H62" t="n">
-        <v>0.001582765821512343</v>
+        <v>0.001622753500987505</v>
       </c>
       <c r="I62" t="n">
-        <v>0.277872095925627</v>
+        <v>0.2798262223617214</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.0001115145170283369</v>
+        <v>-9.898331243274176e-05</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.004338862613997001</v>
+        <v>-0.004373840696069859</v>
       </c>
       <c r="L62" t="n">
-        <v>0.0014774845896231</v>
+        <v>0.001171390415768036</v>
       </c>
       <c r="M62" t="n">
-        <v>-6.324089565643996e-05</v>
+        <v>-0.0001156115670582297</v>
       </c>
       <c r="N62" t="n">
-        <v>5.100515022466533e-05</v>
+        <v>5.267691247545686e-05</v>
       </c>
       <c r="O62" t="n">
-        <v>0.0008827166014630434</v>
+        <v>0.0009844227204962933</v>
       </c>
       <c r="P62" t="n">
-        <v>0.0005074416303033546</v>
+        <v>0.0004949730718051382</v>
       </c>
       <c r="Q62" t="n">
-        <v>3851.244826987825</v>
+        <v>3844.893035458554</v>
       </c>
       <c r="R62" t="n">
-        <v>0.35395</v>
+        <v>0.34689</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.9996277425791409</v>
+        <v>0.9995819111514663</v>
       </c>
       <c r="B63" t="n">
-        <v>44.54073118753674</v>
+        <v>44.38947301686943</v>
       </c>
       <c r="C63" t="n">
-        <v>-1.001660490713419e-05</v>
+        <v>-3.086764996163617e-05</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1307972868543217</v>
+        <v>0.140945628661537</v>
       </c>
       <c r="E63" t="n">
-        <v>5.65842761313111e-06</v>
+        <v>5.781203228502545e-06</v>
       </c>
       <c r="F63" t="n">
-        <v>0.006136335508026186</v>
+        <v>0.006211117320755986</v>
       </c>
       <c r="G63" t="n">
-        <v>-1.320539041677871e-06</v>
+        <v>-1.579515110383039e-06</v>
       </c>
       <c r="H63" t="n">
-        <v>0.001517729081249703</v>
+        <v>0.001582765821512343</v>
       </c>
       <c r="I63" t="n">
-        <v>0.2754867749155531</v>
+        <v>0.277872095925627</v>
       </c>
       <c r="J63" t="n">
-        <v>-9.316628792036596e-05</v>
+        <v>-0.0001115145170283369</v>
       </c>
       <c r="K63" t="n">
-        <v>-0.004307388866469375</v>
+        <v>-0.004338862613997001</v>
       </c>
       <c r="L63" t="n">
-        <v>0.001197359983738354</v>
+        <v>0.0014774845896231</v>
       </c>
       <c r="M63" t="n">
-        <v>-1.277593161207514e-05</v>
+        <v>-6.324089565643996e-05</v>
       </c>
       <c r="N63" t="n">
-        <v>5.186128477695198e-05</v>
+        <v>5.100515022466533e-05</v>
       </c>
       <c r="O63" t="n">
-        <v>0.0007678058940003513</v>
+        <v>0.0008827166014630434</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0004851443333832168</v>
+        <v>0.0005074416303033546</v>
       </c>
       <c r="Q63" t="n">
-        <v>3857.698034634476</v>
+        <v>3851.244826987825</v>
       </c>
       <c r="R63" t="n">
-        <v>0.36122</v>
+        <v>0.35395</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9996715927943682</v>
+        <v>0.9996277425791409</v>
       </c>
       <c r="B64" t="n">
-        <v>44.68950791657948</v>
+        <v>44.54073118753674</v>
       </c>
       <c r="C64" t="n">
-        <v>5.624016910540406e-06</v>
+        <v>-1.001660490713419e-05</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1200620319544405</v>
+        <v>0.1307972868543217</v>
       </c>
       <c r="E64" t="n">
-        <v>5.533803868849206e-06</v>
+        <v>5.65842761313111e-06</v>
       </c>
       <c r="F64" t="n">
-        <v>0.006051036531476997</v>
+        <v>0.006136335508026186</v>
       </c>
       <c r="G64" t="n">
-        <v>-4.11700121428584e-07</v>
+        <v>-1.320539041677871e-06</v>
       </c>
       <c r="H64" t="n">
-        <v>0.001480088888228858</v>
+        <v>0.001517729081249703</v>
       </c>
       <c r="I64" t="n">
-        <v>0.272655003661854</v>
+        <v>0.2754867749155531</v>
       </c>
       <c r="J64" t="n">
-        <v>-4.083568994310428e-05</v>
+        <v>-9.316628792036596e-05</v>
       </c>
       <c r="K64" t="n">
-        <v>-0.004269543995991889</v>
+        <v>-0.004307388866469375</v>
       </c>
       <c r="L64" t="n">
-        <v>0.00121770482083773</v>
+        <v>0.001197359983738354</v>
       </c>
       <c r="M64" t="n">
-        <v>2.947299763530798e-05</v>
+        <v>-1.277593161207514e-05</v>
       </c>
       <c r="N64" t="n">
-        <v>5.244192044566257e-05</v>
+        <v>5.186128477695198e-05</v>
       </c>
       <c r="O64" t="n">
-        <v>0.0006374817505154557</v>
+        <v>0.0007678058940003513</v>
       </c>
       <c r="P64" t="n">
-        <v>0.0004975530500446398</v>
+        <v>0.0004851443333832168</v>
       </c>
       <c r="Q64" t="n">
-        <v>3864.066273524948</v>
+        <v>3857.698034634476</v>
       </c>
       <c r="R64" t="n">
-        <v>0.36848</v>
+        <v>0.36122</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9997148544973546</v>
+        <v>0.9996715927943682</v>
       </c>
       <c r="B65" t="n">
-        <v>44.83583044370708</v>
+        <v>44.68950791657948</v>
       </c>
       <c r="C65" t="n">
-        <v>8.358659718921429e-06</v>
+        <v>5.624016910540406e-06</v>
       </c>
       <c r="D65" t="n">
-        <v>0.1090023482153693</v>
+        <v>0.1200620319544405</v>
       </c>
       <c r="E65" t="n">
-        <v>5.418759630693435e-06</v>
+        <v>5.533803868849206e-06</v>
       </c>
       <c r="F65" t="n">
-        <v>0.005980214801363107</v>
+        <v>0.006051036531476997</v>
       </c>
       <c r="G65" t="n">
-        <v>-1.819832039391159e-08</v>
+        <v>-4.11700121428584e-07</v>
       </c>
       <c r="H65" t="n">
-        <v>0.001437100759534645</v>
+        <v>0.001480088888228858</v>
       </c>
       <c r="I65" t="n">
-        <v>0.2704133198691697</v>
+        <v>0.272655003661854</v>
       </c>
       <c r="J65" t="n">
-        <v>-6.705165383149776e-06</v>
+        <v>-4.083568994310428e-05</v>
       </c>
       <c r="K65" t="n">
-        <v>-0.004237469225231419</v>
+        <v>-0.004269543995991889</v>
       </c>
       <c r="L65" t="n">
-        <v>0.001255374559354592</v>
+        <v>0.00121770482083773</v>
       </c>
       <c r="M65" t="n">
-        <v>6.370048735229275e-05</v>
+        <v>2.947299763530798e-05</v>
       </c>
       <c r="N65" t="n">
-        <v>5.234684748562848e-05</v>
+        <v>5.244192044566257e-05</v>
       </c>
       <c r="O65" t="n">
-        <v>0.000503386140202087</v>
+        <v>0.0006374817505154557</v>
       </c>
       <c r="P65" t="n">
-        <v>0.000500775125025834</v>
+        <v>0.0004975530500446398</v>
       </c>
       <c r="Q65" t="n">
-        <v>3870.347793767925</v>
+        <v>3864.066273524948</v>
       </c>
       <c r="R65" t="n">
-        <v>0.37575</v>
+        <v>0.36848</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9997584623576362</v>
+        <v>0.9997148544973546</v>
       </c>
       <c r="B66" t="n">
-        <v>44.97972356116541</v>
+        <v>44.83583044370708</v>
       </c>
       <c r="C66" t="n">
-        <v>-3.312700091047932e-06</v>
+        <v>8.358659718921429e-06</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09788246048068933</v>
+        <v>0.1090023482153693</v>
       </c>
       <c r="E66" t="n">
-        <v>5.302744459993038e-06</v>
+        <v>5.418759630693435e-06</v>
       </c>
       <c r="F66" t="n">
-        <v>0.00589469829387499</v>
+        <v>0.005980214801363107</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.343379066563446e-07</v>
+        <v>-1.819832039391159e-08</v>
       </c>
       <c r="H66" t="n">
-        <v>0.001387746661004923</v>
+        <v>0.001437100759534645</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2674284131218924</v>
+        <v>0.2704133198691697</v>
       </c>
       <c r="J66" t="n">
-        <v>-1.292474147186568e-05</v>
+        <v>-6.705165383149776e-06</v>
       </c>
       <c r="K66" t="n">
-        <v>-0.004211647948178539</v>
+        <v>-0.004237469225231419</v>
       </c>
       <c r="L66" t="n">
-        <v>0.001270052972371262</v>
+        <v>0.001255374559354592</v>
       </c>
       <c r="M66" t="n">
-        <v>9.049779258698771e-05</v>
+        <v>6.370048735229275e-05</v>
       </c>
       <c r="N66" t="n">
-        <v>5.220791120364765e-05</v>
+        <v>5.234684748562848e-05</v>
       </c>
       <c r="O66" t="n">
-        <v>0.0003745527867839935</v>
+        <v>0.000503386140202087</v>
       </c>
       <c r="P66" t="n">
-        <v>0.0004917831072747587</v>
+        <v>0.000500775125025834</v>
       </c>
       <c r="Q66" t="n">
-        <v>3876.541821219416</v>
+        <v>3870.347793767925</v>
       </c>
       <c r="R66" t="n">
-        <v>0.38301</v>
+        <v>0.37575</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9998004640278898</v>
+        <v>0.9997584623576362</v>
       </c>
       <c r="B67" t="n">
-        <v>45.12119927273586</v>
+        <v>44.97972356116541</v>
       </c>
       <c r="C67" t="n">
-        <v>-2.490382770494663e-05</v>
+        <v>-3.312700091047932e-06</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08696843119089472</v>
+        <v>0.09788246048068933</v>
       </c>
       <c r="E67" t="n">
-        <v>5.159133327548128e-06</v>
+        <v>5.302744459993038e-06</v>
       </c>
       <c r="F67" t="n">
-        <v>0.005817809519325622</v>
+        <v>0.00589469829387499</v>
       </c>
       <c r="G67" t="n">
-        <v>-2.150293288589028e-06</v>
+        <v>-6.343379066563446e-07</v>
       </c>
       <c r="H67" t="n">
-        <v>0.001359880582374681</v>
+        <v>0.001387746661004923</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2648061005988501</v>
+        <v>0.2674284131218924</v>
       </c>
       <c r="J67" t="n">
-        <v>-5.47690349092384e-05</v>
+        <v>-1.292474147186568e-05</v>
       </c>
       <c r="K67" t="n">
-        <v>-0.004180808553636196</v>
+        <v>-0.004211647948178539</v>
       </c>
       <c r="L67" t="n">
-        <v>0.001548930416527668</v>
+        <v>0.001270052972371262</v>
       </c>
       <c r="M67" t="n">
-        <v>0.0001110168011897102</v>
+        <v>9.049779258698771e-05</v>
       </c>
       <c r="N67" t="n">
-        <v>5.362671761906942e-05</v>
+        <v>5.220791120364765e-05</v>
       </c>
       <c r="O67" t="n">
-        <v>0.0002564510847617616</v>
+        <v>0.0003745527867839935</v>
       </c>
       <c r="P67" t="n">
-        <v>0.0005065216532264827</v>
+        <v>0.0004917831072747587</v>
       </c>
       <c r="Q67" t="n">
-        <v>3882.648734324825</v>
+        <v>3876.541821219416</v>
       </c>
       <c r="R67" t="n">
-        <v>0.39028</v>
+        <v>0.38301</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.9998431781902967</v>
+        <v>0.9998004640278898</v>
       </c>
       <c r="B68" t="n">
-        <v>45.263900497215</v>
+        <v>45.12119927273586</v>
       </c>
       <c r="C68" t="n">
-        <v>-4.744447072839817e-05</v>
+        <v>-2.490382770494663e-05</v>
       </c>
       <c r="D68" t="n">
-        <v>0.07613737835414344</v>
+        <v>0.08696843119089472</v>
       </c>
       <c r="E68" t="n">
-        <v>4.988666025179692e-06</v>
+        <v>5.159133327548128e-06</v>
       </c>
       <c r="F68" t="n">
-        <v>0.005742500205138552</v>
+        <v>0.005817809519325622</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.602965673331993e-06</v>
+        <v>-2.150293288589028e-06</v>
       </c>
       <c r="H68" t="n">
-        <v>0.001305432845182156</v>
+        <v>0.001359880582374681</v>
       </c>
       <c r="I68" t="n">
-        <v>0.2621103897632499</v>
+        <v>0.2648061005988501</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.603045984166883e-05</v>
+        <v>-5.47690349092384e-05</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.004150800104624399</v>
+        <v>-0.004180808553636196</v>
       </c>
       <c r="L68" t="n">
-        <v>0.00131929338154651</v>
+        <v>0.001548930416527668</v>
       </c>
       <c r="M68" t="n">
-        <v>0.0001293530698220856</v>
+        <v>0.0001110168011897102</v>
       </c>
       <c r="N68" t="n">
-        <v>5.701061562367974e-05</v>
+        <v>5.362671761906942e-05</v>
       </c>
       <c r="O68" t="n">
-        <v>0.0001705131066503</v>
+        <v>0.0002564510847617616</v>
       </c>
       <c r="P68" t="n">
-        <v>0.0004896743810147943</v>
+        <v>0.0005065216532264827</v>
       </c>
       <c r="Q68" t="n">
-        <v>3888.825128543207</v>
+        <v>3882.648734324825</v>
       </c>
       <c r="R68" t="n">
-        <v>0.39773</v>
+        <v>0.39028</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9998865382028517</v>
+        <v>0.9998431781902967</v>
       </c>
       <c r="B69" t="n">
-        <v>45.40397283751333</v>
+        <v>45.263900497215</v>
       </c>
       <c r="C69" t="n">
-        <v>-6.79233764597591e-05</v>
+        <v>-4.744447072839817e-05</v>
       </c>
       <c r="D69" t="n">
-        <v>0.06574733194568792</v>
+        <v>0.07613737835414344</v>
       </c>
       <c r="E69" t="n">
-        <v>4.852118850654762e-06</v>
+        <v>4.988666025179692e-06</v>
       </c>
       <c r="F69" t="n">
-        <v>0.005662854430095956</v>
+        <v>0.005742500205138552</v>
       </c>
       <c r="G69" t="n">
-        <v>-4.600906779918845e-06</v>
+        <v>-3.602965673331993e-06</v>
       </c>
       <c r="H69" t="n">
-        <v>0.001268449042005244</v>
+        <v>0.001305432845182156</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2592624920908936</v>
+        <v>0.2621103897632499</v>
       </c>
       <c r="J69" t="n">
-        <v>-0.0001191522013789248</v>
+        <v>-9.603045984166883e-05</v>
       </c>
       <c r="K69" t="n">
-        <v>-0.004109704896982333</v>
+        <v>-0.004150800104624399</v>
       </c>
       <c r="L69" t="n">
-        <v>0.001347804355191052</v>
+        <v>0.00131929338154651</v>
       </c>
       <c r="M69" t="n">
-        <v>0.0001432464839889796</v>
+        <v>0.0001293530698220856</v>
       </c>
       <c r="N69" t="n">
-        <v>6.199747410387646e-05</v>
+        <v>5.701061562367974e-05</v>
       </c>
       <c r="O69" t="n">
-        <v>8.669576644307557e-05</v>
+        <v>0.0001705131066503</v>
       </c>
       <c r="P69" t="n">
-        <v>0.0004970887203382121</v>
+        <v>0.0004896743810147943</v>
       </c>
       <c r="Q69" t="n">
-        <v>3894.900392650985</v>
+        <v>3888.825128543207</v>
       </c>
       <c r="R69" t="n">
-        <v>0.40519</v>
+        <v>0.39773</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9999279815711595</v>
+        <v>0.9998865382028517</v>
       </c>
       <c r="B70" t="n">
-        <v>45.54161810973605</v>
+        <v>45.40397283751333</v>
       </c>
       <c r="C70" t="n">
-        <v>-8.341019872034488e-05</v>
+        <v>-6.79233764597591e-05</v>
       </c>
       <c r="D70" t="n">
-        <v>0.05584298438641588</v>
+        <v>0.06574733194568792</v>
       </c>
       <c r="E70" t="n">
-        <v>4.736184474747782e-06</v>
+        <v>4.852118850654762e-06</v>
       </c>
       <c r="F70" t="n">
-        <v>0.00559523967020895</v>
+        <v>0.005662854430095956</v>
       </c>
       <c r="G70" t="n">
-        <v>-4.596089064624254e-06</v>
+        <v>-4.600906779918845e-06</v>
       </c>
       <c r="H70" t="n">
-        <v>0.001223643433200442</v>
+        <v>0.001268449042005244</v>
       </c>
       <c r="I70" t="n">
-        <v>0.2569866804422125</v>
+        <v>0.2592624920908936</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.933203367660102e-05</v>
+        <v>-0.0001191522013789248</v>
       </c>
       <c r="K70" t="n">
-        <v>-0.004065928190053956</v>
+        <v>-0.004109704896982333</v>
       </c>
       <c r="L70" t="n">
-        <v>0.0013843952070022</v>
+        <v>0.001347804355191052</v>
       </c>
       <c r="M70" t="n">
-        <v>0.0001544795103271131</v>
+        <v>0.0001432464839889796</v>
       </c>
       <c r="N70" t="n">
-        <v>6.656538883099047e-05</v>
+        <v>6.199747410387646e-05</v>
       </c>
       <c r="O70" t="n">
-        <v>1.763886010210842e-05</v>
+        <v>8.669576644307557e-05</v>
       </c>
       <c r="P70" t="n">
-        <v>0.0004971898763885776</v>
+        <v>0.0004970887203382121</v>
       </c>
       <c r="Q70" t="n">
-        <v>3900.893170041531</v>
+        <v>3894.900392650985</v>
       </c>
       <c r="R70" t="n">
-        <v>0.41265</v>
+        <v>0.40519</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9999696296296295</v>
+        <v>0.9999279815711595</v>
       </c>
       <c r="B71" t="n">
-        <v>45.67701435596209</v>
+        <v>45.54161810973605</v>
       </c>
       <c r="C71" t="n">
-        <v>-9.207386446407548e-05</v>
+        <v>-8.341019872034488e-05</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04647441672618444</v>
+        <v>0.05584298438641588</v>
       </c>
       <c r="E71" t="n">
-        <v>4.610000333109699e-06</v>
+        <v>4.736184474747782e-06</v>
       </c>
       <c r="F71" t="n">
-        <v>0.005503528336023675</v>
+        <v>0.00559523967020895</v>
       </c>
       <c r="G71" t="n">
-        <v>-3.522659974475384e-06</v>
+        <v>-4.596089064624254e-06</v>
       </c>
       <c r="H71" t="n">
-        <v>0.001171310542860624</v>
+        <v>0.001223643433200442</v>
       </c>
       <c r="I71" t="n">
-        <v>0.2536335092642414</v>
+        <v>0.2569866804422125</v>
       </c>
       <c r="J71" t="n">
-        <v>-3.396160201377056e-05</v>
+        <v>-9.933203367660102e-05</v>
       </c>
       <c r="K71" t="n">
-        <v>-0.004020045221006587</v>
+        <v>-0.004065928190053956</v>
       </c>
       <c r="L71" t="n">
-        <v>0.001391146016183738</v>
+        <v>0.0013843952070022</v>
       </c>
       <c r="M71" t="n">
-        <v>0.0001643983804235295</v>
+        <v>0.0001544795103271131</v>
       </c>
       <c r="N71" t="n">
-        <v>6.952988000317922e-05</v>
+        <v>6.656538883099047e-05</v>
       </c>
       <c r="O71" t="n">
-        <v>-2.475480462704516e-05</v>
+        <v>1.763886010210842e-05</v>
       </c>
       <c r="P71" t="n">
-        <v>0.0004924045507228114</v>
+        <v>0.0004971898763885776</v>
       </c>
       <c r="Q71" t="n">
-        <v>3906.804220968093</v>
+        <v>3900.893170041531</v>
       </c>
       <c r="R71" t="n">
-        <v>0.42011</v>
+        <v>0.41265</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>1.000009673011389</v>
+        <v>0.9999696296296295</v>
       </c>
       <c r="B72" t="n">
-        <v>45.81030874473139</v>
+        <v>45.67701435596209</v>
       </c>
       <c r="C72" t="n">
-        <v>-9.310778306909592e-05</v>
+        <v>-9.207386446407548e-05</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03769716940169884</v>
+        <v>0.04647441672618444</v>
       </c>
       <c r="E72" t="n">
-        <v>4.430425666892767e-06</v>
+        <v>4.610000333109699e-06</v>
       </c>
       <c r="F72" t="n">
-        <v>0.005404846093960183</v>
+        <v>0.005503528336023675</v>
       </c>
       <c r="G72" t="n">
-        <v>-1.785862217575776e-06</v>
+        <v>-3.522659974475384e-06</v>
       </c>
       <c r="H72" t="n">
-        <v>0.001135008542145127</v>
+        <v>0.001171310542860624</v>
       </c>
       <c r="I72" t="n">
-        <v>0.2500080888672167</v>
+        <v>0.2536335092642414</v>
       </c>
       <c r="J72" t="n">
-        <v>5.752289118498988e-05</v>
+        <v>-3.396160201377056e-05</v>
       </c>
       <c r="K72" t="n">
-        <v>-0.003964825525488496</v>
+        <v>-0.004020045221006587</v>
       </c>
       <c r="L72" t="n">
-        <v>0.001621949361670602</v>
+        <v>0.001391146016183738</v>
       </c>
       <c r="M72" t="n">
-        <v>0.0001736842483615974</v>
+        <v>0.0001643983804235295</v>
       </c>
       <c r="N72" t="n">
-        <v>7.058713570979463e-05</v>
+        <v>6.952988000317922e-05</v>
       </c>
       <c r="O72" t="n">
-        <v>-4.171589396444266e-05</v>
+        <v>-2.475480462704516e-05</v>
       </c>
       <c r="P72" t="n">
-        <v>0.0005166652459458978</v>
+        <v>0.0004924045507228114</v>
       </c>
       <c r="Q72" t="n">
-        <v>3912.642548990525</v>
+        <v>3906.804220968093</v>
       </c>
       <c r="R72" t="n">
-        <v>0.42757</v>
+        <v>0.42011</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>1.000051566003049</v>
+        <v>1.000009673011389</v>
       </c>
       <c r="B73" t="n">
-        <v>45.94473403606053</v>
+        <v>45.81030874473139</v>
       </c>
       <c r="C73" t="n">
-        <v>-8.372805741762215e-05</v>
+        <v>-9.310778306909592e-05</v>
       </c>
       <c r="D73" t="n">
-        <v>0.02927122406426616</v>
+        <v>0.03769716940169884</v>
       </c>
       <c r="E73" t="n">
-        <v>4.295985265510604e-06</v>
+        <v>4.430425666892767e-06</v>
       </c>
       <c r="F73" t="n">
-        <v>0.005307522798403731</v>
+        <v>0.005404846093960183</v>
       </c>
       <c r="G73" t="n">
-        <v>1.185866109070906e-07</v>
+        <v>-1.785862217575776e-06</v>
       </c>
       <c r="H73" t="n">
-        <v>0.001083213410779744</v>
+        <v>0.001135008542145127</v>
       </c>
       <c r="I73" t="n">
-        <v>0.2462973637142658</v>
+        <v>0.2500080888672167</v>
       </c>
       <c r="J73" t="n">
-        <v>0.0001557364952184158</v>
+        <v>5.752289118498988e-05</v>
       </c>
       <c r="K73" t="n">
-        <v>-0.003909362187471976</v>
+        <v>-0.003964825525488496</v>
       </c>
       <c r="L73" t="n">
-        <v>0.001403776518298863</v>
+        <v>0.001621949361670602</v>
       </c>
       <c r="M73" t="n">
-        <v>0.0001833304149404257</v>
+        <v>0.0001736842483615974</v>
       </c>
       <c r="N73" t="n">
-        <v>7.143416677797332e-05</v>
+        <v>7.058713570979463e-05</v>
       </c>
       <c r="O73" t="n">
-        <v>-5.123804195836946e-05</v>
+        <v>-4.171589396444266e-05</v>
       </c>
       <c r="P73" t="n">
-        <v>0.0005253321643822116</v>
+        <v>0.0005166652459458978</v>
       </c>
       <c r="Q73" t="n">
-        <v>3918.547009532011</v>
+        <v>3912.642548990525</v>
       </c>
       <c r="R73" t="n">
-        <v>0.43522</v>
+        <v>0.42757</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>1.000091782799749</v>
+        <v>1.000051566003049</v>
       </c>
       <c r="B74" t="n">
-        <v>46.07683710479379</v>
+        <v>45.94473403606053</v>
       </c>
       <c r="C74" t="n">
-        <v>-6.285271562465777e-05</v>
+        <v>-8.372805741762215e-05</v>
       </c>
       <c r="D74" t="n">
-        <v>0.02136442208264829</v>
+        <v>0.02927122406426616</v>
       </c>
       <c r="E74" t="n">
-        <v>4.139056791235092e-06</v>
+        <v>4.295985265510604e-06</v>
       </c>
       <c r="F74" t="n">
-        <v>0.00521288291745135</v>
+        <v>0.005307522798403731</v>
       </c>
       <c r="G74" t="n">
-        <v>1.818942976949385e-06</v>
+        <v>1.185866109070906e-07</v>
       </c>
       <c r="H74" t="n">
-        <v>0.001051139972675115</v>
+        <v>0.001083213410779744</v>
       </c>
       <c r="I74" t="n">
-        <v>0.2426918596613158</v>
+        <v>0.2462973637142658</v>
       </c>
       <c r="J74" t="n">
-        <v>0.0002451053758911756</v>
+        <v>0.0001557364952184158</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.003850952161913729</v>
+        <v>-0.003909362187471976</v>
       </c>
       <c r="L74" t="n">
-        <v>0.001414448173714309</v>
+        <v>0.001403776518298863</v>
       </c>
       <c r="M74" t="n">
-        <v>0.0001921208393870692</v>
+        <v>0.0001833304149404257</v>
       </c>
       <c r="N74" t="n">
-        <v>7.213472687260235e-05</v>
+        <v>7.143416677797332e-05</v>
       </c>
       <c r="O74" t="n">
-        <v>-8.291777864028761e-05</v>
+        <v>-5.123804195836946e-05</v>
       </c>
       <c r="P74" t="n">
-        <v>0.0005539201599779728</v>
+        <v>0.0005253321643822116</v>
       </c>
       <c r="Q74" t="n">
-        <v>3924.367938623687</v>
+        <v>3918.547009532011</v>
       </c>
       <c r="R74" t="n">
-        <v>0.44286</v>
+        <v>0.43522</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>1.000131852188144</v>
+        <v>1.000091782799749</v>
       </c>
       <c r="B75" t="n">
-        <v>46.20666230731673</v>
+        <v>46.07683710479379</v>
       </c>
       <c r="C75" t="n">
-        <v>-3.378768357845211e-05</v>
+        <v>-6.285271562465777e-05</v>
       </c>
       <c r="D75" t="n">
-        <v>0.01383513342233631</v>
+        <v>0.02136442208264829</v>
       </c>
       <c r="E75" t="n">
-        <v>3.98466986558302e-06</v>
+        <v>4.139056791235092e-06</v>
       </c>
       <c r="F75" t="n">
-        <v>0.005138648212043764</v>
+        <v>0.00521288291745135</v>
       </c>
       <c r="G75" t="n">
-        <v>3.176989031757245e-06</v>
+        <v>1.818942976949385e-06</v>
       </c>
       <c r="H75" t="n">
-        <v>0.001013231866440086</v>
+        <v>0.001051139972675115</v>
       </c>
       <c r="I75" t="n">
-        <v>0.2399883014353471</v>
+        <v>0.2426918596613158</v>
       </c>
       <c r="J75" t="n">
-        <v>0.0003187276466105429</v>
+        <v>0.0002451053758911756</v>
       </c>
       <c r="K75" t="n">
-        <v>-0.003796683806335255</v>
+        <v>-0.003850952161913729</v>
       </c>
       <c r="L75" t="n">
-        <v>0.001437668054413842</v>
+        <v>0.001414448173714309</v>
       </c>
       <c r="M75" t="n">
-        <v>0.000205383435626177</v>
+        <v>0.0001921208393870692</v>
       </c>
       <c r="N75" t="n">
-        <v>7.210082668117708e-05</v>
+        <v>7.213472687260235e-05</v>
       </c>
       <c r="O75" t="n">
-        <v>-0.0001222602158793743</v>
+        <v>-8.291777864028761e-05</v>
       </c>
       <c r="P75" t="n">
-        <v>0.0005695628184763804</v>
+        <v>0.0005539201599779728</v>
       </c>
       <c r="Q75" t="n">
-        <v>3930.103656818023</v>
+        <v>3924.367938623687</v>
       </c>
       <c r="R75" t="n">
-        <v>0.45051</v>
+        <v>0.44286</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>1.00017123105551</v>
+        <v>1.000131852188144</v>
       </c>
       <c r="B76" t="n">
-        <v>46.33428316717983</v>
+        <v>46.20666230731673</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.439191272082035e-06</v>
+        <v>-3.378768357845211e-05</v>
       </c>
       <c r="D76" t="n">
-        <v>0.006607822048402484</v>
+        <v>0.01383513342233631</v>
       </c>
       <c r="E76" t="n">
-        <v>3.846070458968926e-06</v>
+        <v>3.98466986558302e-06</v>
       </c>
       <c r="F76" t="n">
-        <v>0.005049285440767644</v>
+        <v>0.005138648212043764</v>
       </c>
       <c r="G76" t="n">
-        <v>3.991889523964214e-06</v>
+        <v>3.176989031757245e-06</v>
       </c>
       <c r="H76" t="n">
-        <v>0.0009689602575340713</v>
+        <v>0.001013231866440086</v>
       </c>
       <c r="I76" t="n">
-        <v>0.2365511087695174</v>
+        <v>0.2399883014353471</v>
       </c>
       <c r="J76" t="n">
-        <v>0.0003673743092958778</v>
+        <v>0.0003187276466105429</v>
       </c>
       <c r="K76" t="n">
-        <v>-0.003746313943043847</v>
+        <v>-0.003796683806335255</v>
       </c>
       <c r="L76" t="n">
-        <v>0.001432078258468398</v>
+        <v>0.001437668054413842</v>
       </c>
       <c r="M76" t="n">
-        <v>0.0002241418171920555</v>
+        <v>0.000205383435626177</v>
       </c>
       <c r="N76" t="n">
-        <v>6.966446089407776e-05</v>
+        <v>7.210082668117708e-05</v>
       </c>
       <c r="O76" t="n">
-        <v>-0.0001606467903996528</v>
+        <v>-0.0001222602158793743</v>
       </c>
       <c r="P76" t="n">
-        <v>0.0005711610639614534</v>
+        <v>0.0005695628184763804</v>
       </c>
       <c r="Q76" t="n">
-        <v>3935.757682086904</v>
+        <v>3930.103656818023</v>
       </c>
       <c r="R76" t="n">
-        <v>0.45816</v>
+        <v>0.45051</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>1.000208915512061</v>
+        <v>1.00017123105551</v>
       </c>
       <c r="B77" t="n">
-        <v>46.45978440212138</v>
+        <v>46.33428316717983</v>
       </c>
       <c r="C77" t="n">
-        <v>2.254878206301951e-05</v>
+        <v>-2.439191272082035e-06</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.0003266687770482407</v>
+        <v>0.006607822048402484</v>
       </c>
       <c r="E77" t="n">
-        <v>3.72275426062657e-06</v>
+        <v>3.846070458968926e-06</v>
       </c>
       <c r="F77" t="n">
-        <v>0.004957700492668819</v>
+        <v>0.005049285440767644</v>
       </c>
       <c r="G77" t="n">
-        <v>4.05418998887992e-06</v>
+        <v>3.991889523964214e-06</v>
       </c>
       <c r="H77" t="n">
-        <v>0.0009414501165650004</v>
+        <v>0.0009689602575340713</v>
       </c>
       <c r="I77" t="n">
-        <v>0.2330159201279905</v>
+        <v>0.2365511087695174</v>
       </c>
       <c r="J77" t="n">
-        <v>0.0003817525120178245</v>
+        <v>0.0003673743092958778</v>
       </c>
       <c r="K77" t="n">
-        <v>-0.003692479876154605</v>
+        <v>-0.003746313943043847</v>
       </c>
       <c r="L77" t="n">
-        <v>0.001630895863927538</v>
+        <v>0.001432078258468398</v>
       </c>
       <c r="M77" t="n">
-        <v>0.0002448794280406061</v>
+        <v>0.0002241418171920555</v>
       </c>
       <c r="N77" t="n">
-        <v>6.225386812298537e-05</v>
+        <v>6.966446089407776e-05</v>
       </c>
       <c r="O77" t="n">
-        <v>-0.0001987644888811635</v>
+        <v>-0.0001606467903996528</v>
       </c>
       <c r="P77" t="n">
-        <v>0.000587979620389744</v>
+        <v>0.0005711610639614534</v>
       </c>
       <c r="Q77" t="n">
-        <v>3941.332698755481</v>
+        <v>3935.757682086904</v>
       </c>
       <c r="R77" t="n">
-        <v>0.4658</v>
+        <v>0.45816</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>1.000247427697067</v>
+        <v>1.000208915512061</v>
       </c>
       <c r="B78" t="n">
-        <v>46.5860798421168</v>
+        <v>46.45978440212138</v>
       </c>
       <c r="C78" t="n">
-        <v>3.790236710272577e-05</v>
+        <v>2.254878206301951e-05</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.006941416210596957</v>
+        <v>-0.0003266687770482407</v>
       </c>
       <c r="E78" t="n">
-        <v>3.606779508243655e-06</v>
+        <v>3.72275426062657e-06</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004864483742489464</v>
+        <v>0.004957700492668819</v>
       </c>
       <c r="G78" t="n">
-        <v>2.631066161776976e-06</v>
+        <v>4.05418998887992e-06</v>
       </c>
       <c r="H78" t="n">
-        <v>0.0008996505381788692</v>
+        <v>0.0009414501165650004</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2292239495834952</v>
+        <v>0.2330159201279905</v>
       </c>
       <c r="J78" t="n">
-        <v>0.0003323508540458503</v>
+        <v>0.0003817525120178245</v>
       </c>
       <c r="K78" t="n">
-        <v>-0.003641370773516824</v>
+        <v>-0.003692479876154605</v>
       </c>
       <c r="L78" t="n">
-        <v>0.00143114125343457</v>
+        <v>0.001630895863927538</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0002656620838118081</v>
+        <v>0.0002448794280406061</v>
       </c>
       <c r="N78" t="n">
-        <v>5.277170336982109e-05</v>
+        <v>6.225386812298537e-05</v>
       </c>
       <c r="O78" t="n">
-        <v>-0.0001879702087339949</v>
+        <v>-0.0001987644888811635</v>
       </c>
       <c r="P78" t="n">
-        <v>0.000585910423491833</v>
+        <v>0.000587979620389744</v>
       </c>
       <c r="Q78" t="n">
-        <v>3946.954290353608</v>
+        <v>3941.332698755481</v>
       </c>
       <c r="R78" t="n">
-        <v>0.47363</v>
+        <v>0.4658</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>1.000285201775625</v>
+        <v>1.000247427697067</v>
       </c>
       <c r="B79" t="n">
-        <v>46.71029337179526</v>
+        <v>46.5860798421168</v>
       </c>
       <c r="C79" t="n">
-        <v>4.548373208307098e-05</v>
+        <v>3.790236710272577e-05</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.01289236978118853</v>
+        <v>-0.006941416210596957</v>
       </c>
       <c r="E79" t="n">
-        <v>3.526601061683705e-06</v>
+        <v>3.606779508243655e-06</v>
       </c>
       <c r="F79" t="n">
-        <v>0.004765500939377634</v>
+        <v>0.004864483742489464</v>
       </c>
       <c r="G79" t="n">
-        <v>-3.186321581349235e-07</v>
+        <v>2.631066161776976e-06</v>
       </c>
       <c r="H79" t="n">
-        <v>0.0008768751854149601</v>
+        <v>0.0008996505381788692</v>
       </c>
       <c r="I79" t="n">
-        <v>0.2251432262552436</v>
+        <v>0.2292239495834952</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0002115138130538865</v>
+        <v>0.0003323508540458503</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.003588447326037649</v>
+        <v>-0.003641370773516824</v>
       </c>
       <c r="L79" t="n">
-        <v>0.001433735948496516</v>
+        <v>0.00143114125343457</v>
       </c>
       <c r="M79" t="n">
-        <v>0.0002789583925452313</v>
+        <v>0.0002656620838118081</v>
       </c>
       <c r="N79" t="n">
-        <v>4.621952515166179e-05</v>
+        <v>5.277170336982109e-05</v>
       </c>
       <c r="O79" t="n">
-        <v>-0.0001497998709794961</v>
+        <v>-0.0001879702087339949</v>
       </c>
       <c r="P79" t="n">
-        <v>0.0006043633290713838</v>
+        <v>0.000585910423491833</v>
       </c>
       <c r="Q79" t="n">
-        <v>3952.492908812806</v>
+        <v>3946.954290353608</v>
       </c>
       <c r="R79" t="n">
-        <v>0.4814600000000001</v>
+        <v>0.47363</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>1.000321242265268</v>
+        <v>1.000285201775625</v>
       </c>
       <c r="B80" t="n">
-        <v>46.83265736007731</v>
+        <v>46.71029337179526</v>
       </c>
       <c r="C80" t="n">
-        <v>5.019492722999434e-05</v>
+        <v>4.548373208307098e-05</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01806161253818803</v>
+        <v>-0.01289236978118853</v>
       </c>
       <c r="E80" t="n">
-        <v>3.4606316690493e-06</v>
+        <v>3.526601061683705e-06</v>
       </c>
       <c r="F80" t="n">
-        <v>0.004681127082772846</v>
+        <v>0.004765500939377634</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.123928328229534e-06</v>
+        <v>-3.186321581349235e-07</v>
       </c>
       <c r="H80" t="n">
-        <v>0.0008507981864926477</v>
+        <v>0.0008768751854149601</v>
       </c>
       <c r="I80" t="n">
-        <v>0.2217240272422005</v>
+        <v>0.2251432262552436</v>
       </c>
       <c r="J80" t="n">
-        <v>5.122160431052513e-05</v>
+        <v>0.0002115138130538865</v>
       </c>
       <c r="K80" t="n">
-        <v>-0.003540171755355337</v>
+        <v>-0.003588447326037649</v>
       </c>
       <c r="L80" t="n">
-        <v>0.001451632277271365</v>
+        <v>0.001433735948496516</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0002850788621278547</v>
+        <v>0.0002789583925452313</v>
       </c>
       <c r="N80" t="n">
-        <v>4.376411960063434e-05</v>
+        <v>4.621952515166179e-05</v>
       </c>
       <c r="O80" t="n">
-        <v>-0.0001030370214489047</v>
+        <v>-0.0001497998709794961</v>
       </c>
       <c r="P80" t="n">
-        <v>0.00061609038246865</v>
+        <v>0.0006043633290713838</v>
       </c>
       <c r="Q80" t="n">
-        <v>3957.962877024907</v>
+        <v>3952.492908812806</v>
       </c>
       <c r="R80" t="n">
-        <v>0.48928</v>
+        <v>0.4814600000000001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1.00035962682719</v>
+        <v>1.000321242265268</v>
       </c>
       <c r="B81" t="n">
-        <v>46.95340542452595</v>
+        <v>46.83265736007731</v>
       </c>
       <c r="C81" t="n">
-        <v>5.422051134552018e-05</v>
+        <v>5.019492722999434e-05</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02243505581370535</v>
+        <v>-0.01806161253818803</v>
       </c>
       <c r="E81" t="n">
-        <v>3.392017059998992e-06</v>
+        <v>3.4606316690493e-06</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004583297499103221</v>
+        <v>0.004681127082772846</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.858974208860198e-06</v>
+        <v>-4.123928328229534e-06</v>
       </c>
       <c r="H81" t="n">
-        <v>0.0008210773288142506</v>
+        <v>0.0008507981864926477</v>
       </c>
       <c r="I81" t="n">
-        <v>0.2176616985023765</v>
+        <v>0.2217240272422005</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.0001044879245259519</v>
+        <v>5.122160431052513e-05</v>
       </c>
       <c r="K81" t="n">
-        <v>-0.003497672566243436</v>
+        <v>-0.003540171755355337</v>
       </c>
       <c r="L81" t="n">
-        <v>0.001446225861124644</v>
+        <v>0.001451632277271365</v>
       </c>
       <c r="M81" t="n">
-        <v>0.0002831699828308123</v>
+        <v>0.0002850788621278547</v>
       </c>
       <c r="N81" t="n">
-        <v>4.422873061088816e-05</v>
+        <v>4.376411960063434e-05</v>
       </c>
       <c r="O81" t="n">
-        <v>-8.140627502493548e-05</v>
+        <v>-0.0001030370214489047</v>
       </c>
       <c r="P81" t="n">
-        <v>0.0006217442690097834</v>
+        <v>0.00061609038246865</v>
       </c>
       <c r="Q81" t="n">
-        <v>3963.365231369502</v>
+        <v>3957.962877024907</v>
       </c>
       <c r="R81" t="n">
-        <v>0.4971100000000001</v>
+        <v>0.48928</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>1.000391666666667</v>
+        <v>1.00035962682719</v>
       </c>
       <c r="B82" t="n">
-        <v>47.07316686844229</v>
+        <v>46.95340542452595</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.0001325722645951033</v>
+        <v>5.422051134552018e-05</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.02600301539380997</v>
+        <v>-0.02243505581370535</v>
       </c>
       <c r="E82" t="n">
-        <v>4.516779166464891e-06</v>
+        <v>3.392017059998992e-06</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004489671529459242</v>
+        <v>0.004583297499103221</v>
       </c>
       <c r="G82" t="n">
-        <v>1.353603046206618e-05</v>
+        <v>-7.858974208860198e-06</v>
       </c>
       <c r="H82" t="n">
-        <v>0.0001976459590283383</v>
+        <v>0.0008210773288142506</v>
       </c>
       <c r="I82" t="n">
-        <v>0.2137548314052551</v>
+        <v>0.2176616985023765</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0009233748233566496</v>
+        <v>-0.0001044879245259519</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.00351169157474666</v>
+        <v>-0.003497672566243436</v>
       </c>
       <c r="L82" t="n">
-        <v>0.001539367865035647</v>
+        <v>0.001446225861124644</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0002344026623363375</v>
+        <v>0.0002831699828308123</v>
       </c>
       <c r="N82" t="n">
-        <v>4.078957605595911e-05</v>
+        <v>4.422873061088816e-05</v>
       </c>
       <c r="O82" t="n">
-        <v>-8.167668063290288e-05</v>
+        <v>-8.140627502493548e-05</v>
       </c>
       <c r="P82" t="n">
-        <v>0.0003516428836359968</v>
+        <v>0.0006217442690097834</v>
       </c>
       <c r="Q82" t="n">
-        <v>3968.733577764848</v>
+        <v>3963.365231369502</v>
       </c>
       <c r="R82" t="n">
-        <v>0.50493</v>
+        <v>0.4971100000000001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>1.000392729966563</v>
+        <v>1.000391666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>47.07277477676569</v>
+        <v>47.07316686844229</v>
       </c>
       <c r="C83" t="n">
-        <v>6.232855301638608e-05</v>
+        <v>-0.0001325722645951033</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.02610489919736062</v>
+        <v>-0.02600301539380997</v>
       </c>
       <c r="E83" t="n">
-        <v>3.273444265770611e-06</v>
+        <v>4.516779166464891e-06</v>
       </c>
       <c r="F83" t="n">
-        <v>0.004492918245128559</v>
+        <v>0.004489671529459242</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.105149819210192e-05</v>
+        <v>1.353603046206618e-05</v>
       </c>
       <c r="H83" t="n">
-        <v>0.0008254911491890797</v>
+        <v>0.0001976459590283383</v>
       </c>
       <c r="I83" t="n">
-        <v>0.2139617835363901</v>
+        <v>0.2137548314052551</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.0002329612899265922</v>
+        <v>0.0009233748233566496</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.003455378066156783</v>
+        <v>-0.00351169157474666</v>
       </c>
       <c r="L83" t="n">
-        <v>0.001620910346787602</v>
+        <v>0.001539367865035647</v>
       </c>
       <c r="M83" t="n">
-        <v>0.0002726215716338893</v>
+        <v>0.0002344026623363375</v>
       </c>
       <c r="N83" t="n">
-        <v>4.448747568185429e-05</v>
+        <v>4.078957605595911e-05</v>
       </c>
       <c r="O83" t="n">
-        <v>-0.0001218806071698099</v>
+        <v>-8.167668063290288e-05</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0006572954885897558</v>
+        <v>0.0003516428836359968</v>
       </c>
       <c r="Q83" t="n">
-        <v>3968.726633894917</v>
+        <v>3968.733577764848</v>
       </c>
       <c r="R83" t="n">
-        <v>0.5049399999999999</v>
+        <v>0.50493</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>1.000428438705049</v>
+        <v>1.000392729966563</v>
       </c>
       <c r="B84" t="n">
-        <v>47.19353074338126</v>
+        <v>47.07277477676569</v>
       </c>
       <c r="C84" t="n">
-        <v>5.836649127133809e-05</v>
+        <v>6.232855301638608e-05</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.02917642694549392</v>
+        <v>-0.02610489919736062</v>
       </c>
       <c r="E84" t="n">
-        <v>3.16299575431542e-06</v>
+        <v>3.273444265770611e-06</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004414631824500044</v>
+        <v>0.004492918245128559</v>
       </c>
       <c r="G84" t="n">
-        <v>-1.209020800825038e-05</v>
+        <v>-1.105149819210192e-05</v>
       </c>
       <c r="H84" t="n">
-        <v>0.0007822152523644491</v>
+        <v>0.0008254911491890797</v>
       </c>
       <c r="I84" t="n">
-        <v>0.2107367850666108</v>
+        <v>0.2139617835363901</v>
       </c>
       <c r="J84" t="n">
-        <v>-0.0002597293859876168</v>
+        <v>-0.0002329612899265922</v>
       </c>
       <c r="K84" t="n">
-        <v>-0.003422604615866539</v>
+        <v>-0.003455378066156783</v>
       </c>
       <c r="L84" t="n">
-        <v>0.001446224097178897</v>
+        <v>0.001620910346787602</v>
       </c>
       <c r="M84" t="n">
-        <v>0.0002515613676908025</v>
+        <v>0.0002726215716338893</v>
       </c>
       <c r="N84" t="n">
-        <v>4.392200778789148e-05</v>
+        <v>4.448747568185429e-05</v>
       </c>
       <c r="O84" t="n">
-        <v>-0.0002067641302753882</v>
+        <v>-0.0001218806071698099</v>
       </c>
       <c r="P84" t="n">
-        <v>0.0006578500129061824</v>
+        <v>0.0006572954885897558</v>
       </c>
       <c r="Q84" t="n">
-        <v>3974.156178247285</v>
+        <v>3968.726633894917</v>
       </c>
       <c r="R84" t="n">
-        <v>0.51293</v>
+        <v>0.5049399999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>1.000464757532957</v>
+        <v>1.000428438705049</v>
       </c>
       <c r="B85" t="n">
-        <v>47.31310408134796</v>
+        <v>47.19353074338126</v>
       </c>
       <c r="C85" t="n">
-        <v>5.712230763434259e-05</v>
+        <v>5.836649127133809e-05</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.03171618458205174</v>
+        <v>-0.02917642694549392</v>
       </c>
       <c r="E85" t="n">
-        <v>3.029791451149426e-06</v>
+        <v>3.16299575431542e-06</v>
       </c>
       <c r="F85" t="n">
-        <v>0.004348039317101604</v>
+        <v>0.004414631824500044</v>
       </c>
       <c r="G85" t="n">
-        <v>-1.253918703184132e-05</v>
+        <v>-1.209020800825038e-05</v>
       </c>
       <c r="H85" t="n">
-        <v>0.0007740359477729326</v>
+        <v>0.0007822152523644491</v>
       </c>
       <c r="I85" t="n">
-        <v>0.2080634075543798</v>
+        <v>0.2107367850666108</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.0002616073049190903</v>
+        <v>-0.0002597293859876168</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.003388434003427694</v>
+        <v>-0.003422604615866539</v>
       </c>
       <c r="L85" t="n">
-        <v>0.001447539194645514</v>
+        <v>0.001446224097178897</v>
       </c>
       <c r="M85" t="n">
-        <v>0.0002240960695495421</v>
+        <v>0.0002515613676908025</v>
       </c>
       <c r="N85" t="n">
-        <v>4.04664080251771e-05</v>
+        <v>4.392200778789148e-05</v>
       </c>
       <c r="O85" t="n">
-        <v>-0.0002946901844500057</v>
+        <v>-0.0002067641302753882</v>
       </c>
       <c r="P85" t="n">
-        <v>0.0006835389034421427</v>
+        <v>0.0006578500129061824</v>
       </c>
       <c r="Q85" t="n">
-        <v>3979.543050264772</v>
+        <v>3974.156178247285</v>
       </c>
       <c r="R85" t="n">
-        <v>0.52093</v>
+        <v>0.51293</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1.00049813099722</v>
+        <v>1.000464757532957</v>
       </c>
       <c r="B86" t="n">
-        <v>47.43158090579819</v>
+        <v>47.31310408134796</v>
       </c>
       <c r="C86" t="n">
-        <v>5.088690013289669e-05</v>
+        <v>5.712230763434259e-05</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.03388300437258367</v>
+        <v>-0.03171618458205174</v>
       </c>
       <c r="E86" t="n">
-        <v>2.931606867085351e-06</v>
+        <v>3.029791451149426e-06</v>
       </c>
       <c r="F86" t="n">
-        <v>0.004307626643350372</v>
+        <v>0.004348039317101604</v>
       </c>
       <c r="G86" t="n">
-        <v>-1.163699086475989e-05</v>
+        <v>-1.253918703184132e-05</v>
       </c>
       <c r="H86" t="n">
-        <v>0.0007620041676851416</v>
+        <v>0.0007740359477729326</v>
       </c>
       <c r="I86" t="n">
-        <v>0.2066108873519066</v>
+        <v>0.2080634075543798</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.0002044300414992055</v>
+        <v>-0.0002616073049190903</v>
       </c>
       <c r="K86" t="n">
-        <v>-0.003354165601054713</v>
+        <v>-0.003388434003427694</v>
       </c>
       <c r="L86" t="n">
-        <v>0.001461461019313901</v>
+        <v>0.001447539194645514</v>
       </c>
       <c r="M86" t="n">
-        <v>0.0001949611004917346</v>
+        <v>0.0002240960695495421</v>
       </c>
       <c r="N86" t="n">
-        <v>3.503201801881869e-05</v>
+        <v>4.04664080251771e-05</v>
       </c>
       <c r="O86" t="n">
-        <v>-0.0003690039572278395</v>
+        <v>-0.0002946901844500057</v>
       </c>
       <c r="P86" t="n">
-        <v>0.0006997333659092108</v>
+        <v>0.0006835389034421427</v>
       </c>
       <c r="Q86" t="n">
-        <v>3984.901060538574</v>
+        <v>3979.543050264772</v>
       </c>
       <c r="R86" t="n">
-        <v>0.5289199999999999</v>
+        <v>0.52093</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>1.000533853466057</v>
+        <v>1.00049813099722</v>
       </c>
       <c r="B87" t="n">
-        <v>47.54899214943352</v>
+        <v>47.43158090579819</v>
       </c>
       <c r="C87" t="n">
-        <v>4.044385065738949e-05</v>
+        <v>5.088690013289669e-05</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.03583723694063125</v>
+        <v>-0.03388300437258367</v>
       </c>
       <c r="E87" t="n">
-        <v>2.870756827394976e-06</v>
+        <v>2.931606867085351e-06</v>
       </c>
       <c r="F87" t="n">
-        <v>0.004259087973051744</v>
+        <v>0.004307626643350372</v>
       </c>
       <c r="G87" t="n">
-        <v>-9.603325945544119e-06</v>
+        <v>-1.163699086475989e-05</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0007430054477721851</v>
+        <v>0.0007620041676851416</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2047542550991938</v>
+        <v>0.2066108873519066</v>
       </c>
       <c r="J87" t="n">
-        <v>-9.869803992479491e-05</v>
+        <v>-0.0002044300414992055</v>
       </c>
       <c r="K87" t="n">
-        <v>-0.003316447185043194</v>
+        <v>-0.003354165601054713</v>
       </c>
       <c r="L87" t="n">
-        <v>0.001457333115940536</v>
+        <v>0.001461461019313901</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0001687571247442058</v>
+        <v>0.0001949611004917346</v>
       </c>
       <c r="N87" t="n">
-        <v>2.869519902146918e-05</v>
+        <v>3.503201801881869e-05</v>
       </c>
       <c r="O87" t="n">
-        <v>-0.0004219100508595082</v>
+        <v>-0.0003690039572278395</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0007055282236760344</v>
+        <v>0.0006997333659092108</v>
       </c>
       <c r="Q87" t="n">
-        <v>3990.219307586986</v>
+        <v>3984.901060538574</v>
       </c>
       <c r="R87" t="n">
-        <v>0.53692</v>
+        <v>0.5289199999999999</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1.000567231021881</v>
+        <v>1.000533853466057</v>
       </c>
       <c r="B88" t="n">
-        <v>47.66532049006566</v>
+        <v>47.54899214943352</v>
       </c>
       <c r="C88" t="n">
-        <v>2.966608874017299e-05</v>
+        <v>4.044385065738949e-05</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.03773778680318469</v>
+        <v>-0.03583723694063125</v>
       </c>
       <c r="E88" t="n">
-        <v>2.831356988589813e-06</v>
+        <v>2.870756827394976e-06</v>
       </c>
       <c r="F88" t="n">
-        <v>0.004214061541565779</v>
+        <v>0.004259087973051744</v>
       </c>
       <c r="G88" t="n">
-        <v>-6.996943587082998e-06</v>
+        <v>-9.603325945544119e-06</v>
       </c>
       <c r="H88" t="n">
-        <v>0.0007314439819960593</v>
+        <v>0.0007430054477721851</v>
       </c>
       <c r="I88" t="n">
-        <v>0.2030732193923813</v>
+        <v>0.2047542550991938</v>
       </c>
       <c r="J88" t="n">
-        <v>3.081627566716749e-05</v>
+        <v>-9.869803992479491e-05</v>
       </c>
       <c r="K88" t="n">
-        <v>-0.003268841616440728</v>
+        <v>-0.003316447185043194</v>
       </c>
       <c r="L88" t="n">
-        <v>0.001617201539245866</v>
+        <v>0.001457333115940536</v>
       </c>
       <c r="M88" t="n">
-        <v>0.0001491542512385256</v>
+        <v>0.0001687571247442058</v>
       </c>
       <c r="N88" t="n">
-        <v>2.279583448771005e-05</v>
+        <v>2.869519902146918e-05</v>
       </c>
       <c r="O88" t="n">
-        <v>-0.0004508110847987163</v>
+        <v>-0.0004219100508595082</v>
       </c>
       <c r="P88" t="n">
-        <v>0.0007244417504326965</v>
+        <v>0.0007055282236760344</v>
       </c>
       <c r="Q88" t="n">
-        <v>3995.507107747037</v>
+        <v>3990.219307586986</v>
       </c>
       <c r="R88" t="n">
-        <v>0.54491</v>
+        <v>0.53692</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>1.000600750381132</v>
+        <v>1.000567231021881</v>
       </c>
       <c r="B89" t="n">
-        <v>47.78271293556134</v>
+        <v>47.66532049006566</v>
       </c>
       <c r="C89" t="n">
-        <v>2.792582517512195e-05</v>
+        <v>2.966608874017299e-05</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.03979406095584975</v>
+        <v>-0.03773778680318469</v>
       </c>
       <c r="E89" t="n">
-        <v>2.717704926403462e-06</v>
+        <v>2.831356988589813e-06</v>
       </c>
       <c r="F89" t="n">
-        <v>0.004168389546901624</v>
+        <v>0.004214061541565779</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.781857771874722e-06</v>
+        <v>-6.996943587082998e-06</v>
       </c>
       <c r="H89" t="n">
-        <v>0.0007009587857929285</v>
+        <v>0.0007314439819960593</v>
       </c>
       <c r="I89" t="n">
-        <v>0.2012993376901922</v>
+        <v>0.2030732193923813</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0001403251126325245</v>
+        <v>3.081627566716749e-05</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.003216674892407507</v>
+        <v>-0.003268841616440728</v>
       </c>
       <c r="L89" t="n">
-        <v>0.001465618190008015</v>
+        <v>0.001617201539245866</v>
       </c>
       <c r="M89" t="n">
-        <v>0.000137914806734766</v>
+        <v>0.0001491542512385256</v>
       </c>
       <c r="N89" t="n">
-        <v>1.742775475811213e-05</v>
+        <v>2.279583448771005e-05</v>
       </c>
       <c r="O89" t="n">
-        <v>-0.0004585164040997381</v>
+        <v>-0.0004508110847987163</v>
       </c>
       <c r="P89" t="n">
-        <v>0.000728064525384329</v>
+        <v>0.0007244417504326965</v>
       </c>
       <c r="Q89" t="n">
-        <v>4000.857544403374</v>
+        <v>3995.507107747037</v>
       </c>
       <c r="R89" t="n">
-        <v>0.55307</v>
+        <v>0.54491</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>1.000632680701282</v>
+        <v>1.000600750381132</v>
       </c>
       <c r="B90" t="n">
-        <v>47.89856810301019</v>
+        <v>47.78271293556134</v>
       </c>
       <c r="C90" t="n">
-        <v>3.64753780509206e-05</v>
+        <v>2.792582517512195e-05</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.04217788195848341</v>
+        <v>-0.03979406095584975</v>
       </c>
       <c r="E90" t="n">
-        <v>2.617000867121783e-06</v>
+        <v>2.717704926403462e-06</v>
       </c>
       <c r="F90" t="n">
-        <v>0.004112490713837323</v>
+        <v>0.004168389546901624</v>
       </c>
       <c r="G90" t="n">
-        <v>-3.358240169368217e-06</v>
+        <v>-4.781857771874722e-06</v>
       </c>
       <c r="H90" t="n">
-        <v>0.0006800192298312777</v>
+        <v>0.0007009587857929285</v>
       </c>
       <c r="I90" t="n">
-        <v>0.1990425589633217</v>
+        <v>0.2012993376901922</v>
       </c>
       <c r="J90" t="n">
-        <v>0.000211290279975326</v>
+        <v>0.0001403251126325245</v>
       </c>
       <c r="K90" t="n">
-        <v>-0.003158838239096642</v>
+        <v>-0.003216674892407507</v>
       </c>
       <c r="L90" t="n">
-        <v>0.001475325640569543</v>
+        <v>0.001465618190008015</v>
       </c>
       <c r="M90" t="n">
-        <v>0.0001356672796325628</v>
+        <v>0.000137914806734766</v>
       </c>
       <c r="N90" t="n">
-        <v>1.373612495200978e-05</v>
+        <v>1.742775475811213e-05</v>
       </c>
       <c r="O90" t="n">
-        <v>-0.0004495426437540628</v>
+        <v>-0.0004585164040997381</v>
       </c>
       <c r="P90" t="n">
-        <v>0.0007458871584215415</v>
+        <v>0.000728064525384329</v>
       </c>
       <c r="Q90" t="n">
-        <v>4006.153695050281</v>
+        <v>4000.857544403374</v>
       </c>
       <c r="R90" t="n">
-        <v>0.56123</v>
+        <v>0.55307</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1.000669737803784</v>
+        <v>1.000632680701282</v>
       </c>
       <c r="B91" t="n">
-        <v>48.01267376991601</v>
+        <v>47.89856810301019</v>
       </c>
       <c r="C91" t="n">
-        <v>5.123916657947987e-05</v>
+        <v>3.64753780509206e-05</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.04488753798321837</v>
+        <v>-0.04217788195848341</v>
       </c>
       <c r="E91" t="n">
-        <v>2.546936663792149e-06</v>
+        <v>2.617000867121783e-06</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004067094717962515</v>
+        <v>0.004112490713837323</v>
       </c>
       <c r="G91" t="n">
-        <v>-2.542069015547923e-06</v>
+        <v>-3.358240169368217e-06</v>
       </c>
       <c r="H91" t="n">
-        <v>0.000654413534077163</v>
+        <v>0.0006800192298312777</v>
       </c>
       <c r="I91" t="n">
-        <v>0.1972820107688398</v>
+        <v>0.1990425589633217</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0002528775389839225</v>
+        <v>0.000211290279975326</v>
       </c>
       <c r="K91" t="n">
-        <v>-0.003101992581089514</v>
+        <v>-0.003158838239096642</v>
       </c>
       <c r="L91" t="n">
-        <v>0.001501327595057935</v>
+        <v>0.001475325640569543</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0001418010934716804</v>
+        <v>0.0001356672796325628</v>
       </c>
       <c r="N91" t="n">
-        <v>1.048303488073442e-05</v>
+        <v>1.373612495200978e-05</v>
       </c>
       <c r="O91" t="n">
-        <v>-0.0004388738417813736</v>
+        <v>-0.0004495426437540628</v>
       </c>
       <c r="P91" t="n">
-        <v>0.0007578396609772292</v>
+        <v>0.0007458871584215415</v>
       </c>
       <c r="Q91" t="n">
-        <v>4011.369278608916</v>
+        <v>4006.153695050281</v>
       </c>
       <c r="R91" t="n">
-        <v>0.56938</v>
+        <v>0.56123</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>1.00070320711147</v>
+        <v>1.000669737803784</v>
       </c>
       <c r="B92" t="n">
-        <v>48.12490471083809</v>
+        <v>48.01267376991601</v>
       </c>
       <c r="C92" t="n">
-        <v>6.66354863103956e-05</v>
+        <v>5.123916657947987e-05</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.04782620245259157</v>
+        <v>-0.04488753798321837</v>
       </c>
       <c r="E92" t="n">
-        <v>2.497893781521949e-06</v>
+        <v>2.546936663792149e-06</v>
       </c>
       <c r="F92" t="n">
-        <v>0.004006986280378442</v>
+        <v>0.004067094717962515</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.985765936312889e-06</v>
+        <v>-2.542069015547923e-06</v>
       </c>
       <c r="H92" t="n">
-        <v>0.0006242527313459119</v>
+        <v>0.000654413534077163</v>
       </c>
       <c r="I92" t="n">
-        <v>0.1948102772297452</v>
+        <v>0.1972820107688398</v>
       </c>
       <c r="J92" t="n">
-        <v>0.0002824197732796758</v>
+        <v>0.0002528775389839225</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.00304750760182196</v>
+        <v>-0.003101992581089514</v>
       </c>
       <c r="L92" t="n">
-        <v>0.001510546549419453</v>
+        <v>0.001501327595057935</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0001537674928856966</v>
+        <v>0.0001418010934716804</v>
       </c>
       <c r="N92" t="n">
-        <v>6.457977348145158e-06</v>
+        <v>1.048303488073442e-05</v>
       </c>
       <c r="O92" t="n">
-        <v>-0.0004267265730516944</v>
+        <v>-0.0004388738417813736</v>
       </c>
       <c r="P92" t="n">
-        <v>0.0007642364725800812</v>
+        <v>0.0007578396609772292</v>
       </c>
       <c r="Q92" t="n">
-        <v>4016.51731806128</v>
+        <v>4011.369278608916</v>
       </c>
       <c r="R92" t="n">
-        <v>0.5775399999999999</v>
+        <v>0.56938</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>1.000731743789794</v>
+        <v>1.00070320711147</v>
       </c>
       <c r="B93" t="n">
-        <v>48.23522106574897</v>
+        <v>48.12490471083809</v>
       </c>
       <c r="C93" t="n">
-        <v>7.572565483040981e-05</v>
+        <v>6.66354863103956e-05</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.05080201865202708</v>
+        <v>-0.04782620245259157</v>
       </c>
       <c r="E93" t="n">
-        <v>2.435114885606672e-06</v>
+        <v>2.497893781521949e-06</v>
       </c>
       <c r="F93" t="n">
-        <v>0.003951392910389202</v>
+        <v>0.004006986280378442</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.191598422796164e-06</v>
+        <v>-1.985765936312889e-06</v>
       </c>
       <c r="H93" t="n">
-        <v>0.0006032292854196871</v>
+        <v>0.0006242527313459119</v>
       </c>
       <c r="I93" t="n">
-        <v>0.1925767232510288</v>
+        <v>0.1948102772297452</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0003246486561475557</v>
+        <v>0.0002824197732796758</v>
       </c>
       <c r="K93" t="n">
-        <v>-0.00299153446343782</v>
+        <v>-0.00304750760182196</v>
       </c>
       <c r="L93" t="n">
-        <v>0.001656805464266794</v>
+        <v>0.001510546549419453</v>
       </c>
       <c r="M93" t="n">
-        <v>0.0001675138759685788</v>
+        <v>0.0001537674928856966</v>
       </c>
       <c r="N93" t="n">
-        <v>6.767469208827753e-07</v>
+        <v>6.457977348145158e-06</v>
       </c>
       <c r="O93" t="n">
-        <v>-0.000404191662555345</v>
+        <v>-0.0004267265730516944</v>
       </c>
       <c r="P93" t="n">
-        <v>0.0007847869737231246</v>
+        <v>0.0007642364725800812</v>
       </c>
       <c r="Q93" t="n">
-        <v>4021.595007451241</v>
+        <v>4016.51731806128</v>
       </c>
       <c r="R93" t="n">
-        <v>0.5856899999999999</v>
+        <v>0.5775399999999999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>1.000765133171913</v>
+        <v>1.000731743789794</v>
       </c>
       <c r="B94" t="n">
-        <v>48.34560838464912</v>
+        <v>48.23522106574897</v>
       </c>
       <c r="C94" t="n">
-        <v>7.095353385097621e-05</v>
+        <v>7.572565483040981e-05</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.05378614813065039</v>
+        <v>-0.05080201865202708</v>
       </c>
       <c r="E94" t="n">
-        <v>2.29684203603252e-06</v>
+        <v>2.435114885606672e-06</v>
       </c>
       <c r="F94" t="n">
-        <v>0.003896787309434132</v>
+        <v>0.003951392910389202</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.233802702470662e-07</v>
+        <v>-1.191598422796164e-06</v>
       </c>
       <c r="H94" t="n">
-        <v>0.0005673252561248244</v>
+        <v>0.0006032292854196871</v>
       </c>
       <c r="I94" t="n">
-        <v>0.190323268279377</v>
+        <v>0.1925767232510288</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0003606118461924194</v>
+        <v>0.0003246486561475557</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.002936305028634701</v>
+        <v>-0.00299153446343782</v>
       </c>
       <c r="L94" t="n">
-        <v>0.001533155932003003</v>
+        <v>0.001656805464266794</v>
       </c>
       <c r="M94" t="n">
-        <v>0.0001837260828911396</v>
+        <v>0.0001675138759685788</v>
       </c>
       <c r="N94" t="n">
-        <v>-5.234242972534852e-06</v>
+        <v>6.767469208827753e-07</v>
       </c>
       <c r="O94" t="n">
-        <v>-0.0004035593136027786</v>
+        <v>-0.000404191662555345</v>
       </c>
       <c r="P94" t="n">
-        <v>0.0007874916188796161</v>
+        <v>0.0007847869737231246</v>
       </c>
       <c r="Q94" t="n">
-        <v>4026.672491625837</v>
+        <v>4021.595007451241</v>
       </c>
       <c r="R94" t="n">
-        <v>0.594</v>
+        <v>0.5856899999999999</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>1.000801534615729</v>
+        <v>1.000765133171913</v>
       </c>
       <c r="B95" t="n">
-        <v>48.45404045725844</v>
+        <v>48.34560838464912</v>
       </c>
       <c r="C95" t="n">
-        <v>5.263632372657081e-05</v>
+        <v>7.095353385097621e-05</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.05670117764462703</v>
+        <v>-0.05378614813065039</v>
       </c>
       <c r="E95" t="n">
-        <v>2.188368651411533e-06</v>
+        <v>2.29684203603252e-06</v>
       </c>
       <c r="F95" t="n">
-        <v>0.003835175803739575</v>
+        <v>0.003896787309434132</v>
       </c>
       <c r="G95" t="n">
-        <v>4.716926983006856e-08</v>
+        <v>-5.233802702470662e-07</v>
       </c>
       <c r="H95" t="n">
-        <v>0.0005459140138771018</v>
+        <v>0.0005673252561248244</v>
       </c>
       <c r="I95" t="n">
-        <v>0.1877246373020856</v>
+        <v>0.190323268279377</v>
       </c>
       <c r="J95" t="n">
-        <v>0.0003899712579532603</v>
+        <v>0.0003606118461924194</v>
       </c>
       <c r="K95" t="n">
-        <v>-0.00287988700838988</v>
+        <v>-0.002936305028634701</v>
       </c>
       <c r="L95" t="n">
-        <v>0.001544884719322245</v>
+        <v>0.001533155932003003</v>
       </c>
       <c r="M95" t="n">
-        <v>0.000199404024734827</v>
+        <v>0.0001837260828911396</v>
       </c>
       <c r="N95" t="n">
-        <v>-1.078949933979514e-05</v>
+        <v>-5.234242972534852e-06</v>
       </c>
       <c r="O95" t="n">
-        <v>-0.0004069491658921646</v>
+        <v>-0.0004035593136027786</v>
       </c>
       <c r="P95" t="n">
-        <v>0.0007985463257246423</v>
+        <v>0.0007874916188796161</v>
       </c>
       <c r="Q95" t="n">
-        <v>4031.660735830039</v>
+        <v>4026.672491625837</v>
       </c>
       <c r="R95" t="n">
-        <v>0.6022999999999999</v>
+        <v>0.594</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>1.000830674378979</v>
+        <v>1.000801534615729</v>
       </c>
       <c r="B96" t="n">
-        <v>48.56061952590201</v>
+        <v>48.45404045725844</v>
       </c>
       <c r="C96" t="n">
-        <v>2.804080029257445e-05</v>
+        <v>5.263632372657081e-05</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.05950948890642593</v>
+        <v>-0.05670117764462703</v>
       </c>
       <c r="E96" t="n">
-        <v>2.112693407544615e-06</v>
+        <v>2.188368651411533e-06</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003783855211416017</v>
+        <v>0.003835175803739575</v>
       </c>
       <c r="G96" t="n">
-        <v>5.712891246524953e-07</v>
+        <v>4.716926983006856e-08</v>
       </c>
       <c r="H96" t="n">
-        <v>0.000525324480965895</v>
+        <v>0.0005459140138771018</v>
       </c>
       <c r="I96" t="n">
-        <v>0.1856042119416296</v>
+        <v>0.1877246373020856</v>
       </c>
       <c r="J96" t="n">
-        <v>0.0004148850940542824</v>
+        <v>0.0003899712579532603</v>
       </c>
       <c r="K96" t="n">
-        <v>-0.002825784105436483</v>
+        <v>-0.00287988700838988</v>
       </c>
       <c r="L96" t="n">
-        <v>0.001566931751224946</v>
+        <v>0.001544884719322245</v>
       </c>
       <c r="M96" t="n">
-        <v>0.0002130995834095597</v>
+        <v>0.000199404024734827</v>
       </c>
       <c r="N96" t="n">
-        <v>-1.698499646791144e-05</v>
+        <v>-1.078949933979514e-05</v>
       </c>
       <c r="O96" t="n">
-        <v>-0.0004150787897192143</v>
+        <v>-0.0004069491658921646</v>
       </c>
       <c r="P96" t="n">
-        <v>0.0008004849783403899</v>
+        <v>0.0007985463257246423</v>
       </c>
       <c r="Q96" t="n">
-        <v>4036.588443138161</v>
+        <v>4031.660735830039</v>
       </c>
       <c r="R96" t="n">
-        <v>0.6106</v>
+        <v>0.6022999999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1.000858008250381</v>
+        <v>1.000830674378979</v>
       </c>
       <c r="B97" t="n">
-        <v>48.66549383338815</v>
+        <v>48.56061952590201</v>
       </c>
       <c r="C97" t="n">
-        <v>2.939396553871828e-06</v>
+        <v>2.804080029257445e-05</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.06212068200355162</v>
+        <v>-0.05950948890642593</v>
       </c>
       <c r="E97" t="n">
-        <v>2.067828656269505e-06</v>
+        <v>2.112693407544615e-06</v>
       </c>
       <c r="F97" t="n">
-        <v>0.003715679833647207</v>
+        <v>0.003783855211416017</v>
       </c>
       <c r="G97" t="n">
-        <v>1.077706292822394e-06</v>
+        <v>5.712891246524953e-07</v>
       </c>
       <c r="H97" t="n">
-        <v>0.0005048022662300746</v>
+        <v>0.000525324480965895</v>
       </c>
       <c r="I97" t="n">
-        <v>0.1826448933952112</v>
+        <v>0.1856042119416296</v>
       </c>
       <c r="J97" t="n">
-        <v>0.000436737371165827</v>
+        <v>0.0004148850940542824</v>
       </c>
       <c r="K97" t="n">
-        <v>-0.002774199329718809</v>
+        <v>-0.002825784105436483</v>
       </c>
       <c r="L97" t="n">
-        <v>0.001570984361891011</v>
+        <v>0.001566931751224946</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0002230327482442768</v>
+        <v>0.0002130995834095597</v>
       </c>
       <c r="N97" t="n">
-        <v>-2.378623439177104e-05</v>
+        <v>-1.698499646791144e-05</v>
       </c>
       <c r="O97" t="n">
-        <v>-0.0004166833923999404</v>
+        <v>-0.0004150787897192143</v>
       </c>
       <c r="P97" t="n">
-        <v>0.0007945186653285953</v>
+        <v>0.0008004849783403899</v>
       </c>
       <c r="Q97" t="n">
-        <v>4041.44927996254</v>
+        <v>4036.588443138161</v>
       </c>
       <c r="R97" t="n">
-        <v>0.6189100000000001</v>
+        <v>0.6106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>1.000890911689535</v>
+        <v>1.000858008250381</v>
       </c>
       <c r="B98" t="n">
-        <v>48.7688422127064</v>
+        <v>48.66549383338815</v>
       </c>
       <c r="C98" t="n">
-        <v>-1.833049654801732e-05</v>
+        <v>2.939396553871828e-06</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.06439188716100792</v>
+        <v>-0.06212068200355162</v>
       </c>
       <c r="E98" t="n">
-        <v>2.047347368929468e-06</v>
+        <v>2.067828656269505e-06</v>
       </c>
       <c r="F98" t="n">
-        <v>0.003647063258900548</v>
+        <v>0.003715679833647207</v>
       </c>
       <c r="G98" t="n">
-        <v>1.534403464930278e-06</v>
+        <v>1.077706292822394e-06</v>
       </c>
       <c r="H98" t="n">
-        <v>0.0004959590677974011</v>
+        <v>0.0005048022662300746</v>
       </c>
       <c r="I98" t="n">
-        <v>0.1796531992335018</v>
+        <v>0.1826448933952112</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0004544470677983104</v>
+        <v>0.000436737371165827</v>
       </c>
       <c r="K98" t="n">
-        <v>-0.002722371307381501</v>
+        <v>-0.002774199329718809</v>
       </c>
       <c r="L98" t="n">
-        <v>0.001692565412643191</v>
+        <v>0.001570984361891011</v>
       </c>
       <c r="M98" t="n">
-        <v>0.0002273709138914122</v>
+        <v>0.0002230327482442768</v>
       </c>
       <c r="N98" t="n">
-        <v>-3.025376717380822e-05</v>
+        <v>-2.378623439177104e-05</v>
       </c>
       <c r="O98" t="n">
-        <v>-0.0003956917465128136</v>
+        <v>-0.0004166833923999404</v>
       </c>
       <c r="P98" t="n">
-        <v>0.0007993569394016713</v>
+        <v>0.0007945186653285953</v>
       </c>
       <c r="Q98" t="n">
-        <v>4046.233873642939</v>
+        <v>4041.44927996254</v>
       </c>
       <c r="R98" t="n">
-        <v>0.62721</v>
+        <v>0.6189100000000001</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>1.000924685005829</v>
+        <v>1.000890911689535</v>
       </c>
       <c r="B99" t="n">
-        <v>48.87249922154464</v>
+        <v>48.7688422127064</v>
       </c>
       <c r="C99" t="n">
-        <v>-3.470274059135823e-05</v>
+        <v>-1.833049654801732e-05</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.06624938625099643</v>
+        <v>-0.06439188716100792</v>
       </c>
       <c r="E99" t="n">
-        <v>1.978782836543808e-06</v>
+        <v>2.047347368929468e-06</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003581257822168416</v>
+        <v>0.003647063258900548</v>
       </c>
       <c r="G99" t="n">
-        <v>1.831444655793203e-06</v>
+        <v>1.534403464930278e-06</v>
       </c>
       <c r="H99" t="n">
-        <v>0.0004775060628225608</v>
+        <v>0.0004959590677974011</v>
       </c>
       <c r="I99" t="n">
-        <v>0.1767061801881246</v>
+        <v>0.1796531992335018</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0004645639218057173</v>
+        <v>0.0004544470677983104</v>
       </c>
       <c r="K99" t="n">
-        <v>-0.002673585482991062</v>
+        <v>-0.002722371307381501</v>
       </c>
       <c r="L99" t="n">
-        <v>0.001586032312725858</v>
+        <v>0.001692565412643191</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0002234707765872891</v>
+        <v>0.0002273709138914122</v>
       </c>
       <c r="N99" t="n">
-        <v>-3.636905480827516e-05</v>
+        <v>-3.025376717380822e-05</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.0003606653598573939</v>
+        <v>-0.0003956917465128136</v>
       </c>
       <c r="P99" t="n">
-        <v>0.0007917470937271383</v>
+        <v>0.0007993569394016713</v>
       </c>
       <c r="Q99" t="n">
-        <v>4051.038303191676</v>
+        <v>4046.233873642939</v>
       </c>
       <c r="R99" t="n">
-        <v>0.63565</v>
+        <v>0.62721</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>1.000952221773832</v>
+        <v>1.000924685005829</v>
       </c>
       <c r="B100" t="n">
-        <v>48.97486406301378</v>
+        <v>48.87249922154464</v>
       </c>
       <c r="C100" t="n">
-        <v>-4.400188822209466e-05</v>
+        <v>-3.470274059135823e-05</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.06760207626398611</v>
+        <v>-0.06624938625099643</v>
       </c>
       <c r="E100" t="n">
-        <v>1.907078044402857e-06</v>
+        <v>1.978782836543808e-06</v>
       </c>
       <c r="F100" t="n">
-        <v>0.003513388795847906</v>
+        <v>0.003581257822168416</v>
       </c>
       <c r="G100" t="n">
-        <v>1.799555370304234e-06</v>
+        <v>1.831444655793203e-06</v>
       </c>
       <c r="H100" t="n">
-        <v>0.0004692681254322607</v>
+        <v>0.0004775060628225608</v>
       </c>
       <c r="I100" t="n">
-        <v>0.1736223763563806</v>
+        <v>0.1767061801881246</v>
       </c>
       <c r="J100" t="n">
-        <v>0.0004585193680850746</v>
+        <v>0.0004645639218057173</v>
       </c>
       <c r="K100" t="n">
-        <v>-0.002625639536127801</v>
+        <v>-0.002673585482991062</v>
       </c>
       <c r="L100" t="n">
-        <v>0.001597122778077955</v>
+        <v>0.001586032312725858</v>
       </c>
       <c r="M100" t="n">
-        <v>0.000212400448167703</v>
+        <v>0.0002234707765872891</v>
       </c>
       <c r="N100" t="n">
-        <v>-4.263208636862415e-05</v>
+        <v>-3.636905480827516e-05</v>
       </c>
       <c r="O100" t="n">
-        <v>-0.0003221625090243501</v>
+        <v>-0.0003606653598573939</v>
       </c>
       <c r="P100" t="n">
-        <v>0.0007922729848220699</v>
+        <v>0.0007917470937271383</v>
       </c>
       <c r="Q100" t="n">
-        <v>4055.805031547701</v>
+        <v>4051.038303191676</v>
       </c>
       <c r="R100" t="n">
-        <v>0.6440899999999999</v>
+        <v>0.63565</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>1.000979805622814</v>
+        <v>1.000952221773832</v>
       </c>
       <c r="B101" t="n">
-        <v>49.07599786142747</v>
+        <v>48.97486406301378</v>
       </c>
       <c r="C101" t="n">
-        <v>-4.65888571260419e-05</v>
+        <v>-4.400188822209466e-05</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.06847281889947587</v>
+        <v>-0.06760207626398611</v>
       </c>
       <c r="E101" t="n">
-        <v>1.845651413302954e-06</v>
+        <v>1.907078044402857e-06</v>
       </c>
       <c r="F101" t="n">
-        <v>0.003460041918886199</v>
+        <v>0.003513388795847906</v>
       </c>
       <c r="G101" t="n">
-        <v>1.587088782485872e-06</v>
+        <v>1.799555370304234e-06</v>
       </c>
       <c r="H101" t="n">
-        <v>0.000460179272042505</v>
+        <v>0.0004692681254322607</v>
       </c>
       <c r="I101" t="n">
-        <v>0.1712196037475463</v>
+        <v>0.1736223763563806</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0004441911071951695</v>
+        <v>0.0004585193680850746</v>
       </c>
       <c r="K101" t="n">
-        <v>-0.002580482414133261</v>
+        <v>-0.002625639536127801</v>
       </c>
       <c r="L101" t="n">
-        <v>0.001615221493905741</v>
+        <v>0.001597122778077955</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0001952198630555991</v>
+        <v>0.000212400448167703</v>
       </c>
       <c r="N101" t="n">
-        <v>-4.827124332112716e-05</v>
+        <v>-4.263208636862415e-05</v>
       </c>
       <c r="O101" t="n">
-        <v>-0.0002968050144322009</v>
+        <v>-0.0003221625090243501</v>
       </c>
       <c r="P101" t="n">
-        <v>0.0007864251337996717</v>
+        <v>0.0007922729848220699</v>
       </c>
       <c r="Q101" t="n">
-        <v>4060.521721721034</v>
+        <v>4055.805031547701</v>
       </c>
       <c r="R101" t="n">
-        <v>0.65252</v>
+        <v>0.6440899999999999</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>1.001010104474935</v>
+        <v>1.000979805622814</v>
       </c>
       <c r="B102" t="n">
-        <v>49.17584760709055</v>
+        <v>49.07599786142747</v>
       </c>
       <c r="C102" t="n">
-        <v>-4.442289811732018e-05</v>
+        <v>-4.65888571260419e-05</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.06885792175897901</v>
+        <v>-0.06847281889947587</v>
       </c>
       <c r="E102" t="n">
-        <v>1.797322994384158e-06</v>
+        <v>1.845651413302954e-06</v>
       </c>
       <c r="F102" t="n">
-        <v>0.003394241945789615</v>
+        <v>0.003460041918886199</v>
       </c>
       <c r="G102" t="n">
-        <v>1.18781145439423e-06</v>
+        <v>1.587088782485872e-06</v>
       </c>
       <c r="H102" t="n">
-        <v>0.0004494315179442925</v>
+        <v>0.000460179272042505</v>
       </c>
       <c r="I102" t="n">
-        <v>0.1681901160458952</v>
+        <v>0.1712196037475463</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0004214431754577315</v>
+        <v>0.0004441911071951695</v>
       </c>
       <c r="K102" t="n">
-        <v>-0.002536820723104056</v>
+        <v>-0.002580482414133261</v>
       </c>
       <c r="L102" t="n">
-        <v>0.001615708818027593</v>
+        <v>0.001615221493905741</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0001728114269444818</v>
+        <v>0.0001952198630555991</v>
       </c>
       <c r="N102" t="n">
-        <v>-5.283016201760056e-05</v>
+        <v>-4.827124332112716e-05</v>
       </c>
       <c r="O102" t="n">
-        <v>-0.000290180560494618</v>
+        <v>-0.0002968050144322009</v>
       </c>
       <c r="P102" t="n">
-        <v>0.0007747221620463161</v>
+        <v>0.0007864251337996717</v>
       </c>
       <c r="Q102" t="n">
-        <v>4065.177972022065</v>
+        <v>4060.521721721034</v>
       </c>
       <c r="R102" t="n">
-        <v>0.66096</v>
+        <v>0.65252</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>1.001041729441306</v>
+        <v>1.001010104474935</v>
       </c>
       <c r="B103" t="n">
-        <v>49.27424376488407</v>
+        <v>49.17584760709055</v>
       </c>
       <c r="C103" t="n">
-        <v>-4.095723673605539e-05</v>
+        <v>-4.442289811732018e-05</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.06872722376778086</v>
+        <v>-0.06885792175897901</v>
       </c>
       <c r="E103" t="n">
-        <v>1.755042357934305e-06</v>
+        <v>1.797322994384158e-06</v>
       </c>
       <c r="F103" t="n">
-        <v>0.003332100228118555</v>
+        <v>0.003394241945789615</v>
       </c>
       <c r="G103" t="n">
-        <v>4.143769868453516e-07</v>
+        <v>1.18781145439423e-06</v>
       </c>
       <c r="H103" t="n">
-        <v>0.0004460568180426064</v>
+        <v>0.0004494315179442925</v>
       </c>
       <c r="I103" t="n">
-        <v>0.1653378415862055</v>
+        <v>0.1681901160458952</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0003810449507154627</v>
+        <v>0.0004214431754577315</v>
       </c>
       <c r="K103" t="n">
-        <v>-0.002490328613402884</v>
+        <v>-0.002536820723104056</v>
       </c>
       <c r="L103" t="n">
-        <v>0.001717287889581932</v>
+        <v>0.001615708818027593</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0001461105921590238</v>
+        <v>0.0001728114269444818</v>
       </c>
       <c r="N103" t="n">
-        <v>-5.644254422438072e-05</v>
+        <v>-5.283016201760056e-05</v>
       </c>
       <c r="O103" t="n">
-        <v>-0.0003104630018498684</v>
+        <v>-0.000290180560494618</v>
       </c>
       <c r="P103" t="n">
-        <v>0.000772019743393894</v>
+        <v>0.0007747221620463161</v>
       </c>
       <c r="Q103" t="n">
-        <v>4069.768761369786</v>
+        <v>4065.177972022065</v>
       </c>
       <c r="R103" t="n">
-        <v>0.6694</v>
+        <v>0.66096</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>1.001067433414044</v>
+        <v>1.001041729441306</v>
       </c>
       <c r="B104" t="n">
-        <v>49.37235662098067</v>
+        <v>49.27424376488407</v>
       </c>
       <c r="C104" t="n">
-        <v>-4.073691800249597e-05</v>
+        <v>-4.095723673605539e-05</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.06796924646805344</v>
+        <v>-0.06872722376778086</v>
       </c>
       <c r="E104" t="n">
-        <v>1.665432285161533e-06</v>
+        <v>1.755042357934305e-06</v>
       </c>
       <c r="F104" t="n">
-        <v>0.003265877778898753</v>
+        <v>0.003332100228118555</v>
       </c>
       <c r="G104" t="n">
-        <v>-2.214908618957927e-07</v>
+        <v>4.143769868453516e-07</v>
       </c>
       <c r="H104" t="n">
-        <v>0.0004309601515900169</v>
+        <v>0.0004460568180426064</v>
       </c>
       <c r="I104" t="n">
-        <v>0.1622497992207974</v>
+        <v>0.1653378415862055</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0003467414178717157</v>
+        <v>0.0003810449507154627</v>
       </c>
       <c r="K104" t="n">
-        <v>-0.002441681850157933</v>
+        <v>-0.002490328613402884</v>
       </c>
       <c r="L104" t="n">
-        <v>0.00162678687234921</v>
+        <v>0.001717287889581932</v>
       </c>
       <c r="M104" t="n">
-        <v>0.0001175802955187377</v>
+        <v>0.0001461105921590238</v>
       </c>
       <c r="N104" t="n">
-        <v>-5.934318089458655e-05</v>
+        <v>-5.644254422438072e-05</v>
       </c>
       <c r="O104" t="n">
-        <v>-0.0003186624442815418</v>
+        <v>-0.0003104630018498684</v>
       </c>
       <c r="P104" t="n">
-        <v>0.0007594864270650539</v>
+        <v>0.000772019743393894</v>
       </c>
       <c r="Q104" t="n">
-        <v>4074.365952920895</v>
+        <v>4069.768761369786</v>
       </c>
       <c r="R104" t="n">
-        <v>0.67796</v>
+        <v>0.6694</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>1.001091585956416</v>
+        <v>1.001067433414044</v>
       </c>
       <c r="B105" t="n">
-        <v>49.46846861641706</v>
+        <v>49.37235662098067</v>
       </c>
       <c r="C105" t="n">
-        <v>-4.191896221938291e-05</v>
+        <v>-4.073691800249597e-05</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.06650452788436388</v>
+        <v>-0.06796924646805344</v>
       </c>
       <c r="E105" t="n">
-        <v>1.607100412202157e-06</v>
+        <v>1.665432285161533e-06</v>
       </c>
       <c r="F105" t="n">
-        <v>0.003200830850372164</v>
+        <v>0.003265877778898753</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.017539844946646e-06</v>
+        <v>-2.214908618957927e-07</v>
       </c>
       <c r="H105" t="n">
-        <v>0.0004234132248865552</v>
+        <v>0.0004309601515900169</v>
       </c>
       <c r="I105" t="n">
-        <v>0.1592173125354976</v>
+        <v>0.1622497992207974</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0003044158017367649</v>
+        <v>0.0003467414178717157</v>
       </c>
       <c r="K105" t="n">
-        <v>-0.002388897750699987</v>
+        <v>-0.002441681850157933</v>
       </c>
       <c r="L105" t="n">
-        <v>0.001641993460672156</v>
+        <v>0.00162678687234921</v>
       </c>
       <c r="M105" t="n">
-        <v>9.02968934934485e-05</v>
+        <v>0.0001175802955187377</v>
       </c>
       <c r="N105" t="n">
-        <v>-6.127009306728282e-05</v>
+        <v>-5.934318089458655e-05</v>
       </c>
       <c r="O105" t="n">
-        <v>-0.0003362065471117314</v>
+        <v>-0.0003186624442815418</v>
       </c>
       <c r="P105" t="n">
-        <v>0.0007560952478200449</v>
+        <v>0.0007594864270650539</v>
       </c>
       <c r="Q105" t="n">
-        <v>4078.878106859495</v>
+        <v>4074.365952920895</v>
       </c>
       <c r="R105" t="n">
-        <v>0.68652</v>
+        <v>0.67796</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>1.001123436238902</v>
+        <v>1.001091585956416</v>
       </c>
       <c r="B106" t="n">
-        <v>49.56237007268903</v>
+        <v>49.46846861641706</v>
       </c>
       <c r="C106" t="n">
-        <v>-4.052101703135854e-05</v>
+        <v>-4.191896221938291e-05</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.06433642133150115</v>
+        <v>-0.06650452788436388</v>
       </c>
       <c r="E106" t="n">
-        <v>1.552876124568648e-06</v>
+        <v>1.607100412202157e-06</v>
       </c>
       <c r="F106" t="n">
-        <v>0.003149065052461662</v>
+        <v>0.003200830850372164</v>
       </c>
       <c r="G106" t="n">
-        <v>-1.61280830162317e-06</v>
+        <v>-1.017539844946646e-06</v>
       </c>
       <c r="H106" t="n">
-        <v>0.0004113698317119727</v>
+        <v>0.0004234132248865552</v>
       </c>
       <c r="I106" t="n">
-        <v>0.1568317010058889</v>
+        <v>0.1592173125354976</v>
       </c>
       <c r="J106" t="n">
-        <v>0.000271802430242056</v>
+        <v>0.0003044158017367649</v>
       </c>
       <c r="K106" t="n">
-        <v>-0.002332847015028547</v>
+        <v>-0.002388897750699987</v>
       </c>
       <c r="L106" t="n">
-        <v>0.001662393050648316</v>
+        <v>0.001641993460672156</v>
       </c>
       <c r="M106" t="n">
-        <v>6.502440933450786e-05</v>
+        <v>9.02968934934485e-05</v>
       </c>
       <c r="N106" t="n">
-        <v>-6.198550465916915e-05</v>
+        <v>-6.127009306728282e-05</v>
       </c>
       <c r="O106" t="n">
-        <v>-0.0003522465074695966</v>
+        <v>-0.0003362065471117314</v>
       </c>
       <c r="P106" t="n">
-        <v>0.0007473401885749815</v>
+        <v>0.0007560952478200449</v>
       </c>
       <c r="Q106" t="n">
-        <v>4083.271024511199</v>
+        <v>4078.878106859495</v>
       </c>
       <c r="R106" t="n">
-        <v>0.69508</v>
+        <v>0.68652</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>1.00115117254058</v>
+        <v>1.001123436238902</v>
       </c>
       <c r="B107" t="n">
-        <v>49.65391797820822</v>
+        <v>49.56237007268903</v>
       </c>
       <c r="C107" t="n">
-        <v>-3.45860549938221e-05</v>
+        <v>-4.052101703135854e-05</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.06156542050203145</v>
+        <v>-0.06433642133150115</v>
       </c>
       <c r="E107" t="n">
-        <v>1.503833677221774e-06</v>
+        <v>1.552876124568648e-06</v>
       </c>
       <c r="F107" t="n">
-        <v>0.003079598179535467</v>
+        <v>0.003149065052461662</v>
       </c>
       <c r="G107" t="n">
-        <v>-1.868413246218949e-06</v>
+        <v>-1.61280830162317e-06</v>
       </c>
       <c r="H107" t="n">
-        <v>0.0003950448524592588</v>
+        <v>0.0004113698317119727</v>
       </c>
       <c r="I107" t="n">
-        <v>0.1535623921995038</v>
+        <v>0.1568317010058889</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0002563535813594819</v>
+        <v>0.000271802430242056</v>
       </c>
       <c r="K107" t="n">
-        <v>-0.002273886446469674</v>
+        <v>-0.002332847015028547</v>
       </c>
       <c r="L107" t="n">
-        <v>0.0016669882841258</v>
+        <v>0.001662393050648316</v>
       </c>
       <c r="M107" t="n">
-        <v>4.253334245526434e-05</v>
+        <v>6.502440933450786e-05</v>
       </c>
       <c r="N107" t="n">
-        <v>-6.148375363376105e-05</v>
+        <v>-6.198550465916915e-05</v>
       </c>
       <c r="O107" t="n">
-        <v>-0.0003541952488310279</v>
+        <v>-0.0003522465074695966</v>
       </c>
       <c r="P107" t="n">
-        <v>0.0007327945807337632</v>
+        <v>0.0007473401885749815</v>
       </c>
       <c r="Q107" t="n">
-        <v>4087.56541169277</v>
+        <v>4083.271024511199</v>
       </c>
       <c r="R107" t="n">
-        <v>0.7036399999999999</v>
+        <v>0.69508</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>1.001173290512062</v>
+        <v>1.00115117254058</v>
       </c>
       <c r="B108" t="n">
-        <v>49.74304118838371</v>
+        <v>49.65391797820822</v>
       </c>
       <c r="C108" t="n">
-        <v>-2.40590439058149e-05</v>
+        <v>-3.45860549938221e-05</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.05838905644365945</v>
+        <v>-0.06156542050203145</v>
       </c>
       <c r="E108" t="n">
-        <v>1.490281462941877e-06</v>
+        <v>1.503833677221774e-06</v>
       </c>
       <c r="F108" t="n">
-        <v>0.003001688030221505</v>
+        <v>0.003079598179535467</v>
       </c>
       <c r="G108" t="n">
-        <v>-1.851520639141103e-06</v>
+        <v>-1.868413246218949e-06</v>
       </c>
       <c r="H108" t="n">
-        <v>0.0003862985502801786</v>
+        <v>0.0003950448524592588</v>
       </c>
       <c r="I108" t="n">
-        <v>0.1498764455292998</v>
+        <v>0.1535623921995038</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0002561446251997516</v>
+        <v>0.0002563535813594819</v>
       </c>
       <c r="K108" t="n">
-        <v>-0.00221183899136475</v>
+        <v>-0.002273886446469674</v>
       </c>
       <c r="L108" t="n">
-        <v>0.001758997823309005</v>
+        <v>0.0016669882841258</v>
       </c>
       <c r="M108" t="n">
-        <v>2.382231611151871e-05</v>
+        <v>4.253334245526434e-05</v>
       </c>
       <c r="N108" t="n">
-        <v>-6.001598220701761e-05</v>
+        <v>-6.148375363376105e-05</v>
       </c>
       <c r="O108" t="n">
-        <v>-0.0003393018790465075</v>
+        <v>-0.0003541952488310279</v>
       </c>
       <c r="P108" t="n">
-        <v>0.0007256969198372965</v>
+        <v>0.0007327945807337632</v>
       </c>
       <c r="Q108" t="n">
-        <v>4091.760372722269</v>
+        <v>4087.56541169277</v>
       </c>
       <c r="R108" t="n">
-        <v>0.71221</v>
+        <v>0.7036399999999999</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>1.001199534795086</v>
+        <v>1.001173290512062</v>
       </c>
       <c r="B109" t="n">
-        <v>49.83078653259796</v>
+        <v>49.74304118838371</v>
       </c>
       <c r="C109" t="n">
-        <v>-9.421333126575368e-06</v>
+        <v>-2.40590439058149e-05</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.05501395039911717</v>
+        <v>-0.05838905644365945</v>
       </c>
       <c r="E109" t="n">
-        <v>1.416750786278249e-06</v>
+        <v>1.490281462941877e-06</v>
       </c>
       <c r="F109" t="n">
-        <v>0.002918038691597167</v>
+        <v>0.003001688030221505</v>
       </c>
       <c r="G109" t="n">
-        <v>-1.321072907306521e-06</v>
+        <v>-1.851520639141103e-06</v>
       </c>
       <c r="H109" t="n">
-        <v>0.0003673252874092383</v>
+        <v>0.0003862985502801786</v>
       </c>
       <c r="I109" t="n">
-        <v>0.1458964443273648</v>
+        <v>0.1498764455292998</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0002841405819151122</v>
+        <v>0.0002561446251997516</v>
       </c>
       <c r="K109" t="n">
-        <v>-0.002149717125519385</v>
+        <v>-0.00221183899136475</v>
       </c>
       <c r="L109" t="n">
-        <v>0.001687104228046638</v>
+        <v>0.001758997823309005</v>
       </c>
       <c r="M109" t="n">
-        <v>8.795392927147789e-06</v>
+        <v>2.382231611151871e-05</v>
       </c>
       <c r="N109" t="n">
-        <v>-5.669044100587951e-05</v>
+        <v>-6.001598220701761e-05</v>
       </c>
       <c r="O109" t="n">
-        <v>-0.000294952705827716</v>
+        <v>-0.0003393018790465075</v>
       </c>
       <c r="P109" t="n">
-        <v>0.0007108403514358205</v>
+        <v>0.0007256969198372965</v>
       </c>
       <c r="Q109" t="n">
-        <v>4095.88203169521</v>
+        <v>4091.760372722269</v>
       </c>
       <c r="R109" t="n">
-        <v>0.72087</v>
+        <v>0.71221</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>1.001224383463367</v>
+        <v>1.001199534795086</v>
       </c>
       <c r="B110" t="n">
-        <v>49.91594987121234</v>
+        <v>49.83078653259796</v>
       </c>
       <c r="C110" t="n">
-        <v>8.610214899137116e-06</v>
+        <v>-9.421333126575368e-06</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.05171940935293235</v>
+        <v>-0.05501395039911717</v>
       </c>
       <c r="E110" t="n">
-        <v>1.368128075524112e-06</v>
+        <v>1.416750786278249e-06</v>
       </c>
       <c r="F110" t="n">
-        <v>0.002819784272710968</v>
+        <v>0.002918038691597167</v>
       </c>
       <c r="G110" t="n">
-        <v>-8.902147259214401e-07</v>
+        <v>-1.321072907306521e-06</v>
       </c>
       <c r="H110" t="n">
-        <v>0.000356227499652292</v>
+        <v>0.0003673252874092383</v>
       </c>
       <c r="I110" t="n">
-        <v>0.1412222643833637</v>
+        <v>0.1458964443273648</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0003105379926264213</v>
+        <v>0.0002841405819151122</v>
       </c>
       <c r="K110" t="n">
-        <v>-0.002088884277257147</v>
+        <v>-0.002149717125519385</v>
       </c>
       <c r="L110" t="n">
-        <v>0.001698946799141003</v>
+        <v>0.001687104228046638</v>
       </c>
       <c r="M110" t="n">
-        <v>-2.37443911812842e-06</v>
+        <v>8.795392927147789e-06</v>
       </c>
       <c r="N110" t="n">
-        <v>-5.25566926734797e-05</v>
+        <v>-5.669044100587951e-05</v>
       </c>
       <c r="O110" t="n">
-        <v>-0.0002463933568691585</v>
+        <v>-0.000294952705827716</v>
       </c>
       <c r="P110" t="n">
-        <v>0.0007039875560765789</v>
+        <v>0.0007108403514358205</v>
       </c>
       <c r="Q110" t="n">
-        <v>4099.886966029588</v>
+        <v>4095.88203169521</v>
       </c>
       <c r="R110" t="n">
-        <v>0.72954</v>
+        <v>0.72087</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>1.001248938436015</v>
+        <v>1.001224383463367</v>
       </c>
       <c r="B111" t="n">
-        <v>49.9985234819498</v>
+        <v>49.91594987121234</v>
       </c>
       <c r="C111" t="n">
-        <v>2.715567502061295e-05</v>
+        <v>8.610214899137116e-06</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.04870353528654817</v>
+        <v>-0.05171940935293235</v>
       </c>
       <c r="E111" t="n">
-        <v>1.332616769787968e-06</v>
+        <v>1.368128075524112e-06</v>
       </c>
       <c r="F111" t="n">
-        <v>0.002726725152116402</v>
+        <v>0.002819784272710968</v>
       </c>
       <c r="G111" t="n">
-        <v>-5.181887867680011e-07</v>
+        <v>-8.902147259214401e-07</v>
       </c>
       <c r="H111" t="n">
-        <v>0.0003452935208253121</v>
+        <v>0.000356227499652292</v>
       </c>
       <c r="I111" t="n">
-        <v>0.1368037319086978</v>
+        <v>0.1412222643833637</v>
       </c>
       <c r="J111" t="n">
-        <v>0.000335137438989154</v>
+        <v>0.0003105379926264213</v>
       </c>
       <c r="K111" t="n">
-        <v>-0.002032452495541007</v>
+        <v>-0.002088884277257147</v>
       </c>
       <c r="L111" t="n">
-        <v>0.001716625939330865</v>
+        <v>0.001698946799141003</v>
       </c>
       <c r="M111" t="n">
-        <v>-1.101728789298294e-05</v>
+        <v>-2.37443911812842e-06</v>
       </c>
       <c r="N111" t="n">
-        <v>-4.729932428863442e-05</v>
+        <v>-5.25566926734797e-05</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.0002005864365707174</v>
+        <v>-0.0002463933568691585</v>
       </c>
       <c r="P111" t="n">
-        <v>0.0006947122742294599</v>
+        <v>0.0007039875560765789</v>
       </c>
       <c r="Q111" t="n">
-        <v>4103.772614712499</v>
+        <v>4099.886966029588</v>
       </c>
       <c r="R111" t="n">
-        <v>0.73821</v>
+        <v>0.72954</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>1.001274074074074</v>
+        <v>1.001248938436015</v>
       </c>
       <c r="B112" t="n">
-        <v>50.07854545307346</v>
+        <v>49.9985234819498</v>
       </c>
       <c r="C112" t="n">
-        <v>4.268191145039315e-05</v>
+        <v>2.715567502061295e-05</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.04608556583282142</v>
+        <v>-0.04870353528654817</v>
       </c>
       <c r="E112" t="n">
-        <v>1.309904106960923e-06</v>
+        <v>1.332616769787968e-06</v>
       </c>
       <c r="F112" t="n">
-        <v>0.002618420166128598</v>
+        <v>0.002726725152116402</v>
       </c>
       <c r="G112" t="n">
-        <v>-2.105988505934772e-07</v>
+        <v>-5.181887867680011e-07</v>
       </c>
       <c r="H112" t="n">
-        <v>0.0003352816787452544</v>
+        <v>0.0003452935208253121</v>
       </c>
       <c r="I112" t="n">
-        <v>0.1315937965391744</v>
+        <v>0.1368037319086978</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0003557271636294452</v>
+        <v>0.000335137438989154</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.001981082042716647</v>
+        <v>-0.002032452495541007</v>
       </c>
       <c r="L112" t="n">
-        <v>0.001725417746279232</v>
+        <v>0.001716625939330865</v>
       </c>
       <c r="M112" t="n">
-        <v>-1.779430032546845e-05</v>
+        <v>-1.101728789298294e-05</v>
       </c>
       <c r="N112" t="n">
-        <v>-4.094042694769216e-05</v>
+        <v>-4.729932428863442e-05</v>
       </c>
       <c r="O112" t="n">
-        <v>-0.0001665517363278206</v>
+        <v>-0.0002005864365707174</v>
       </c>
       <c r="P112" t="n">
-        <v>0.000683409748315653</v>
+        <v>0.0006947122742294599</v>
       </c>
       <c r="Q112" t="n">
-        <v>4107.540181706847</v>
+        <v>4103.772614712499</v>
       </c>
       <c r="R112" t="n">
-        <v>0.74688</v>
+        <v>0.73821</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.001295200542552</v>
+        <v>1.001274074074074</v>
       </c>
       <c r="B113" t="n">
-        <v>50.15611779337179</v>
+        <v>50.07854545307346</v>
       </c>
       <c r="C113" t="n">
-        <v>5.125137116096982e-05</v>
+        <v>4.268191145039315e-05</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.04390585222887614</v>
+        <v>-0.04608556583282142</v>
       </c>
       <c r="E113" t="n">
-        <v>1.30884726379142e-06</v>
+        <v>1.309904106960923e-06</v>
       </c>
       <c r="F113" t="n">
-        <v>0.002514371634999103</v>
+        <v>0.002618420166128598</v>
       </c>
       <c r="G113" t="n">
-        <v>-9.999571641552956e-09</v>
+        <v>-2.105988505934772e-07</v>
       </c>
       <c r="H113" t="n">
-        <v>0.0003347453704886084</v>
+        <v>0.0003352816787452544</v>
       </c>
       <c r="I113" t="n">
-        <v>0.1265592383343795</v>
+        <v>0.1315937965391744</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0003686141266619648</v>
+        <v>0.0003557271636294452</v>
       </c>
       <c r="K113" t="n">
-        <v>-0.001932896415524516</v>
+        <v>-0.001981082042716647</v>
       </c>
       <c r="L113" t="n">
-        <v>0.001814048947472218</v>
+        <v>0.001725417746279232</v>
       </c>
       <c r="M113" t="n">
-        <v>-2.254151595926344e-05</v>
+        <v>-1.779430032546845e-05</v>
       </c>
       <c r="N113" t="n">
-        <v>-3.383222532347372e-05</v>
+        <v>-4.094042694769216e-05</v>
       </c>
       <c r="O113" t="n">
-        <v>-0.0001595949495472971</v>
+        <v>-0.0001665517363278206</v>
       </c>
       <c r="P113" t="n">
-        <v>0.0006808690717481023</v>
+        <v>0.000683409748315653</v>
       </c>
       <c r="Q113" t="n">
-        <v>4111.203835231542</v>
+        <v>4107.540181706847</v>
       </c>
       <c r="R113" t="n">
-        <v>0.7555500000000001</v>
+        <v>0.74688</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>1.00131594139539</v>
+        <v>1.001295200542552</v>
       </c>
       <c r="B114" t="n">
-        <v>50.23214864885063</v>
+        <v>50.15611779337179</v>
       </c>
       <c r="C114" t="n">
-        <v>4.969871407086047e-05</v>
+        <v>5.125137116096982e-05</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.0421094708669626</v>
+        <v>-0.04390585222887614</v>
       </c>
       <c r="E114" t="n">
-        <v>1.250278430780984e-06</v>
+        <v>1.30884726379142e-06</v>
       </c>
       <c r="F114" t="n">
-        <v>0.00242746395480226</v>
+        <v>0.002514371634999103</v>
       </c>
       <c r="G114" t="n">
-        <v>2.707943334902681e-07</v>
+        <v>-9.999571641552956e-09</v>
       </c>
       <c r="H114" t="n">
-        <v>0.0003264476194419409</v>
+        <v>0.0003347453704886084</v>
       </c>
       <c r="I114" t="n">
-        <v>0.1223270977876922</v>
+        <v>0.1265592383343795</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0003829952261826917</v>
+        <v>0.0003686141266619648</v>
       </c>
       <c r="K114" t="n">
-        <v>-0.001887325163600175</v>
+        <v>-0.001932896415524516</v>
       </c>
       <c r="L114" t="n">
-        <v>0.001758243717397045</v>
+        <v>0.001814048947472218</v>
       </c>
       <c r="M114" t="n">
-        <v>-2.596723139251213e-05</v>
+        <v>-2.254151595926344e-05</v>
       </c>
       <c r="N114" t="n">
-        <v>-2.559596248214535e-05</v>
+        <v>-3.383222532347372e-05</v>
       </c>
       <c r="O114" t="n">
-        <v>-0.0001589832188198648</v>
+        <v>-0.0001595949495472971</v>
       </c>
       <c r="P114" t="n">
-        <v>0.0006701464664075593</v>
+        <v>0.0006808690717481023</v>
       </c>
       <c r="Q114" t="n">
-        <v>4114.798764280716</v>
+        <v>4111.203835231542</v>
       </c>
       <c r="R114" t="n">
-        <v>0.76431</v>
+        <v>0.7555500000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>1.001337785848803</v>
+        <v>1.00131594139539</v>
       </c>
       <c r="B115" t="n">
-        <v>50.30578740446796</v>
+        <v>50.23214864885063</v>
       </c>
       <c r="C115" t="n">
-        <v>4.051330877150971e-05</v>
+        <v>4.969871407086047e-05</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.04065796948888303</v>
+        <v>-0.0421094708669626</v>
       </c>
       <c r="E115" t="n">
-        <v>1.20171646506199e-06</v>
+        <v>1.250278430780984e-06</v>
       </c>
       <c r="F115" t="n">
-        <v>0.002340507802439243</v>
+        <v>0.00242746395480226</v>
       </c>
       <c r="G115" t="n">
-        <v>6.834953311631239e-07</v>
+        <v>2.707943334902681e-07</v>
       </c>
       <c r="H115" t="n">
-        <v>0.0003247454399307921</v>
+        <v>0.0003264476194419409</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1180893254715571</v>
+        <v>0.1223270977876922</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0004016095264486742</v>
+        <v>0.0003829952261826917</v>
       </c>
       <c r="K115" t="n">
-        <v>-0.001842047607588756</v>
+        <v>-0.001887325163600175</v>
       </c>
       <c r="L115" t="n">
-        <v>0.00177126368867713</v>
+        <v>0.001758243717397045</v>
       </c>
       <c r="M115" t="n">
-        <v>-2.741946126746231e-05</v>
+        <v>-2.596723139251213e-05</v>
       </c>
       <c r="N115" t="n">
-        <v>-1.743514485450981e-05</v>
+        <v>-2.559596248214535e-05</v>
       </c>
       <c r="O115" t="n">
-        <v>-0.0001411289117251878</v>
+        <v>-0.0001589832188198648</v>
       </c>
       <c r="P115" t="n">
-        <v>0.0006641991131538527</v>
+        <v>0.0006701464664075593</v>
       </c>
       <c r="Q115" t="n">
-        <v>4118.281399877515</v>
+        <v>4114.798764280716</v>
       </c>
       <c r="R115" t="n">
-        <v>0.77307</v>
+        <v>0.76431</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>1.001358827683616</v>
+        <v>1.001337785848803</v>
       </c>
       <c r="B116" t="n">
-        <v>50.3769959781883</v>
+        <v>50.30578740446796</v>
       </c>
       <c r="C116" t="n">
-        <v>2.914018877043953e-05</v>
+        <v>4.051330877150971e-05</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.03948525731670863</v>
+        <v>-0.04065796948888303</v>
       </c>
       <c r="E116" t="n">
-        <v>1.153116118930028e-06</v>
+        <v>1.20171646506199e-06</v>
       </c>
       <c r="F116" t="n">
-        <v>0.002267315098421666</v>
+        <v>0.002340507802439243</v>
       </c>
       <c r="G116" t="n">
-        <v>1.306171921763744e-06</v>
+        <v>6.834953311631239e-07</v>
       </c>
       <c r="H116" t="n">
-        <v>0.0003213340466451956</v>
+        <v>0.0003247454399307921</v>
       </c>
       <c r="I116" t="n">
-        <v>0.1145319295666059</v>
+        <v>0.1180893254715571</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0004292929786165788</v>
+        <v>0.0004016095264486742</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.001798026219434729</v>
+        <v>-0.001842047607588756</v>
       </c>
       <c r="L116" t="n">
-        <v>0.001785426676856087</v>
+        <v>0.00177126368867713</v>
       </c>
       <c r="M116" t="n">
-        <v>-2.925920761569714e-05</v>
+        <v>-2.741946126746231e-05</v>
       </c>
       <c r="N116" t="n">
-        <v>-9.488776319544086e-06</v>
+        <v>-1.743514485450981e-05</v>
       </c>
       <c r="O116" t="n">
-        <v>-0.0001131216300233973</v>
+        <v>-0.0001411289117251878</v>
       </c>
       <c r="P116" t="n">
-        <v>0.0006545488498030377</v>
+        <v>0.0006641991131538527</v>
       </c>
       <c r="Q116" t="n">
-        <v>4121.653357449643</v>
+        <v>4118.281399877515</v>
       </c>
       <c r="R116" t="n">
-        <v>0.78183</v>
+        <v>0.77307</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>1.001377059232356</v>
+        <v>1.001358827683616</v>
       </c>
       <c r="B117" t="n">
-        <v>50.44574076565131</v>
+        <v>50.3769959781883</v>
       </c>
       <c r="C117" t="n">
-        <v>2.074772034334197e-05</v>
+        <v>2.914018877043953e-05</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.03848078942282829</v>
+        <v>-0.03948525731670863</v>
       </c>
       <c r="E117" t="n">
-        <v>1.120897981292844e-06</v>
+        <v>1.153116118930028e-06</v>
       </c>
       <c r="F117" t="n">
-        <v>0.002181755937696171</v>
+        <v>0.002267315098421666</v>
       </c>
       <c r="G117" t="n">
-        <v>1.975613975746563e-06</v>
+        <v>1.306171921763744e-06</v>
       </c>
       <c r="H117" t="n">
-        <v>0.0003166659903423459</v>
+        <v>0.0003213340466451956</v>
       </c>
       <c r="I117" t="n">
-        <v>0.1103332396820415</v>
+        <v>0.1145319295666059</v>
       </c>
       <c r="J117" t="n">
-        <v>0.000458778297356739</v>
+        <v>0.0004292929786165788</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.001754416039667593</v>
+        <v>-0.001798026219434729</v>
       </c>
       <c r="L117" t="n">
-        <v>0.001790168491850507</v>
+        <v>0.001785426676856087</v>
       </c>
       <c r="M117" t="n">
-        <v>-3.222983727554393e-05</v>
+        <v>-2.925920761569714e-05</v>
       </c>
       <c r="N117" t="n">
-        <v>-1.744790628948327e-06</v>
+        <v>-9.488776319544086e-06</v>
       </c>
       <c r="O117" t="n">
-        <v>-7.898530126250976e-05</v>
+        <v>-0.0001131216300233973</v>
       </c>
       <c r="P117" t="n">
-        <v>0.0006422611943561987</v>
+        <v>0.0006545488498030377</v>
       </c>
       <c r="Q117" t="n">
-        <v>4124.917598258058</v>
+        <v>4121.653357449643</v>
       </c>
       <c r="R117" t="n">
-        <v>0.79059</v>
+        <v>0.78183</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>1.001394223612232</v>
+        <v>1.001377059232356</v>
       </c>
       <c r="B118" t="n">
-        <v>50.51200086377403</v>
+        <v>50.44574076565131</v>
       </c>
       <c r="C118" t="n">
-        <v>2.029829868945454e-05</v>
+        <v>2.074772034334197e-05</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.0374897852887101</v>
+        <v>-0.03848078942282829</v>
       </c>
       <c r="E118" t="n">
-        <v>1.144514885162839e-06</v>
+        <v>1.120897981292844e-06</v>
       </c>
       <c r="F118" t="n">
-        <v>0.002098050906701193</v>
+        <v>0.002181755937696171</v>
       </c>
       <c r="G118" t="n">
-        <v>2.301495190089452e-06</v>
+        <v>1.975613975746563e-06</v>
       </c>
       <c r="H118" t="n">
-        <v>0.0003193950151091955</v>
+        <v>0.0003166659903423459</v>
       </c>
       <c r="I118" t="n">
-        <v>0.106204099177702</v>
+        <v>0.1103332396820415</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0004713942065357555</v>
+        <v>0.000458778297356739</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.001708446045571398</v>
+        <v>-0.001754416039667593</v>
       </c>
       <c r="L118" t="n">
-        <v>0.001866095028485861</v>
+        <v>0.001790168491850507</v>
       </c>
       <c r="M118" t="n">
-        <v>-3.525034739607839e-05</v>
+        <v>-3.222983727554393e-05</v>
       </c>
       <c r="N118" t="n">
-        <v>6.089428585438276e-06</v>
+        <v>-1.744790628948327e-06</v>
       </c>
       <c r="O118" t="n">
-        <v>-4.281368001519234e-05</v>
+        <v>-7.898530126250976e-05</v>
       </c>
       <c r="P118" t="n">
-        <v>0.000637489394564838</v>
+        <v>0.0006422611943561987</v>
       </c>
       <c r="Q118" t="n">
-        <v>4128.066581845344</v>
+        <v>4124.917598258058</v>
       </c>
       <c r="R118" t="n">
-        <v>0.79935</v>
+        <v>0.79059</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>1.00141355259618</v>
+        <v>1.001394223612232</v>
       </c>
       <c r="B119" t="n">
-        <v>50.57638974207595</v>
+        <v>50.51200086377403</v>
       </c>
       <c r="C119" t="n">
-        <v>2.621264943540185e-05</v>
+        <v>2.029829868945454e-05</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.03640757127752082</v>
+        <v>-0.0374897852887101</v>
       </c>
       <c r="E119" t="n">
-        <v>1.069993972592032e-06</v>
+        <v>1.144514885162839e-06</v>
       </c>
       <c r="F119" t="n">
-        <v>0.002022511718455744</v>
+        <v>0.002098050906701193</v>
       </c>
       <c r="G119" t="n">
-        <v>2.426285382947723e-06</v>
+        <v>2.301495190089452e-06</v>
       </c>
       <c r="H119" t="n">
-        <v>0.0003105432721449746</v>
+        <v>0.0003193950151091955</v>
       </c>
       <c r="I119" t="n">
-        <v>0.1024177680315169</v>
+        <v>0.106204099177702</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0004754313633162573</v>
+        <v>0.0004713942065357555</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.001660703124968862</v>
+        <v>-0.001708446045571398</v>
       </c>
       <c r="L119" t="n">
-        <v>0.001813354910718645</v>
+        <v>0.001866095028485861</v>
       </c>
       <c r="M119" t="n">
-        <v>-3.840495732180846e-05</v>
+        <v>-3.525034739607839e-05</v>
       </c>
       <c r="N119" t="n">
-        <v>1.437325121714918e-05</v>
+        <v>6.089428585438276e-06</v>
       </c>
       <c r="O119" t="n">
-        <v>-1.901181304279511e-05</v>
+        <v>-4.281368001519234e-05</v>
       </c>
       <c r="P119" t="n">
-        <v>0.0006242848871979344</v>
+        <v>0.000637489394564838</v>
       </c>
       <c r="Q119" t="n">
-        <v>4131.1215218138</v>
+        <v>4128.066581845344</v>
       </c>
       <c r="R119" t="n">
-        <v>0.80819</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="n">
-        <v>1.00142731593579</v>
-      </c>
-      <c r="B120" t="n">
-        <v>50.63833341429269</v>
-      </c>
-      <c r="C120" t="n">
-        <v>3.496787672817125e-05</v>
-      </c>
-      <c r="D120" t="n">
-        <v>-0.03521870512555862</v>
-      </c>
-      <c r="E120" t="n">
-        <v>1.039732937721505e-06</v>
-      </c>
-      <c r="F120" t="n">
-        <v>0.001943121443144112</v>
-      </c>
-      <c r="G120" t="n">
-        <v>2.333137123127971e-06</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0.000307030513977776</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.09842590305802168</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0.0004674336773402235</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-0.001608559641076037</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0.001827257764041653</v>
-      </c>
-      <c r="M120" t="n">
-        <v>-3.995162096276741e-05</v>
-      </c>
-      <c r="N120" t="n">
-        <v>2.253047452583538e-05</v>
-      </c>
-      <c r="O120" t="n">
-        <v>5.075854734808283e-06</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0.0006148371456278504</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>4134.074759619076</v>
-      </c>
-      <c r="R120" t="n">
-        <v>0.81702</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="n">
-        <v>1.001448824096493</v>
-      </c>
-      <c r="B121" t="n">
-        <v>50.69790662147888</v>
-      </c>
-      <c r="C121" t="n">
-        <v>4.414095760532201e-05</v>
-      </c>
-      <c r="D121" t="n">
-        <v>-0.03392925468777215</v>
-      </c>
-      <c r="E121" t="n">
-        <v>1.024336571962044e-06</v>
-      </c>
-      <c r="F121" t="n">
-        <v>0.001874546698166084</v>
-      </c>
-      <c r="G121" t="n">
-        <v>2.093325200357593e-06</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0.000300136397703563</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.09497752553956297</v>
-      </c>
-      <c r="J121" t="n">
-        <v>0.0004491012853792384</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-0.001554070424177204</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0.00184627169132371</v>
-      </c>
-      <c r="M121" t="n">
-        <v>-4.095175176904289e-05</v>
-      </c>
-      <c r="N121" t="n">
-        <v>2.93146331366625e-05</v>
-      </c>
-      <c r="O121" t="n">
-        <v>2.081851164156927e-05</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0.0006022047229954837</v>
-      </c>
-      <c r="Q121" t="n">
-        <v>4136.896779389294</v>
-      </c>
-      <c r="R121" t="n">
-        <v>0.82586</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="n">
-        <v>1.001469493767375</v>
-      </c>
-      <c r="B122" t="n">
-        <v>50.75513093618908</v>
-      </c>
-      <c r="C122" t="n">
-        <v>5.156764764682275e-05</v>
-      </c>
-      <c r="D122" t="n">
-        <v>-0.03247542564525541</v>
-      </c>
-      <c r="E122" t="n">
-        <v>1.019104234856975e-06</v>
-      </c>
-      <c r="F122" t="n">
-        <v>0.001791102099587481</v>
-      </c>
-      <c r="G122" t="n">
-        <v>1.760097140253117e-06</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0.000289215581446669</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.09078334002182166</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0.0004225654012270949</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-0.001497824932305523</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0.001856601780701656</v>
-      </c>
-      <c r="M122" t="n">
-        <v>-4.260296497639101e-05</v>
-      </c>
-      <c r="N122" t="n">
-        <v>3.429895702341718e-05</v>
-      </c>
-      <c r="O122" t="n">
-        <v>2.784584702694203e-05</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0.0005868404092257732</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>4139.611103809458</v>
-      </c>
-      <c r="R122" t="n">
-        <v>0.8347</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="n">
-        <v>1.001483329409919</v>
-      </c>
-      <c r="B123" t="n">
-        <v>50.80997216866449</v>
-      </c>
-      <c r="C123" t="n">
-        <v>5.537631978179595e-05</v>
-      </c>
-      <c r="D123" t="n">
-        <v>-0.03072365394838707</v>
-      </c>
-      <c r="E123" t="n">
-        <v>1.043506470447247e-06</v>
-      </c>
-      <c r="F123" t="n">
-        <v>0.001705477065324859</v>
-      </c>
-      <c r="G123" t="n">
-        <v>1.390247575637838e-06</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0.0002814473671855681</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.08649379626702638</v>
-      </c>
-      <c r="J123" t="n">
-        <v>0.000391493636112481</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-0.001438989002667922</v>
-      </c>
-      <c r="L123" t="n">
-        <v>0.001922144709855681</v>
-      </c>
-      <c r="M123" t="n">
-        <v>-4.617837793639303e-05</v>
-      </c>
-      <c r="N123" t="n">
-        <v>3.797358948039974e-05</v>
-      </c>
-      <c r="O123" t="n">
-        <v>3.147569800200717e-05</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0.0005763217848077401</v>
-      </c>
-      <c r="Q123" t="n">
-        <v>4142.229746247775</v>
-      </c>
-      <c r="R123" t="n">
-        <v>0.84354</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="n">
-        <v>1.001494972423998</v>
-      </c>
-      <c r="B124" t="n">
-        <v>50.86271032617901</v>
-      </c>
-      <c r="C124" t="n">
-        <v>5.486978798239385e-05</v>
-      </c>
-      <c r="D124" t="n">
-        <v>-0.02848524372566161</v>
-      </c>
-      <c r="E124" t="n">
-        <v>9.894000056845802e-07</v>
-      </c>
-      <c r="F124" t="n">
-        <v>0.001612200386288225</v>
-      </c>
-      <c r="G124" t="n">
-        <v>8.612846114249882e-07</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0.0002627803418786245</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.08180000665735011</v>
-      </c>
-      <c r="J124" t="n">
-        <v>0.0003507225648590311</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-0.001377511797665132</v>
-      </c>
-      <c r="L124" t="n">
-        <v>0.001878415372576824</v>
-      </c>
-      <c r="M124" t="n">
-        <v>-5.313249561901773e-05</v>
-      </c>
-      <c r="N124" t="n">
-        <v>4.10129693934712e-05</v>
-      </c>
-      <c r="O124" t="n">
-        <v>2.064737889007836e-05</v>
-      </c>
-      <c r="P124" t="n">
-        <v>0.0005590326351256427</v>
-      </c>
-      <c r="Q124" t="n">
-        <v>4144.755226759355</v>
-      </c>
-      <c r="R124" t="n">
-        <v>0.8524299999999999</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="n">
-        <v>1.001504779840373</v>
-      </c>
-      <c r="B125" t="n">
-        <v>50.91278589239629</v>
-      </c>
-      <c r="C125" t="n">
-        <v>5.246377125780876e-05</v>
-      </c>
-      <c r="D125" t="n">
-        <v>-0.02567366393176434</v>
-      </c>
-      <c r="E125" t="n">
-        <v>9.660668534250184e-07</v>
-      </c>
-      <c r="F125" t="n">
-        <v>0.001503563359115775</v>
-      </c>
-      <c r="G125" t="n">
-        <v>5.361288393417802e-08</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0.0002502788173733298</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0.076334454371307</v>
-      </c>
-      <c r="J125" t="n">
-        <v>0.0002951750409087626</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-0.001313180686921763</v>
-      </c>
-      <c r="L125" t="n">
-        <v>0.001889270367576027</v>
-      </c>
-      <c r="M125" t="n">
-        <v>-6.22046660510922e-05</v>
-      </c>
-      <c r="N125" t="n">
-        <v>4.372734699874825e-05</v>
-      </c>
-      <c r="O125" t="n">
-        <v>1.78775397306669e-05</v>
-      </c>
-      <c r="P125" t="n">
-        <v>0.0005479148850204436</v>
-      </c>
-      <c r="Q125" t="n">
-        <v>4147.158639187767</v>
-      </c>
-      <c r="R125" t="n">
-        <v>0.8613299999999999</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="n">
-        <v>1.001519910770335</v>
-      </c>
-      <c r="B126" t="n">
-        <v>50.9600245680507</v>
-      </c>
-      <c r="C126" t="n">
-        <v>4.936239822661661e-05</v>
-      </c>
-      <c r="D126" t="n">
-        <v>-0.02236386808691547</v>
-      </c>
-      <c r="E126" t="n">
-        <v>9.341907447799524e-07</v>
-      </c>
-      <c r="F126" t="n">
-        <v>0.00139920762223238</v>
-      </c>
-      <c r="G126" t="n">
-        <v>-1.012782386503339e-06</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0.0002376735995450732</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0.07108052390812607</v>
-      </c>
-      <c r="J126" t="n">
-        <v>0.0002265804391495217</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-0.001245880188972215</v>
-      </c>
-      <c r="L126" t="n">
-        <v>0.001906562300329131</v>
-      </c>
-      <c r="M126" t="n">
-        <v>-7.245755267432356e-05</v>
-      </c>
-      <c r="N126" t="n">
-        <v>4.574085298610987e-05</v>
-      </c>
-      <c r="O126" t="n">
-        <v>1.751662571035607e-05</v>
-      </c>
-      <c r="P126" t="n">
-        <v>0.0005363214516711991</v>
-      </c>
-      <c r="Q126" t="n">
-        <v>4149.412834924829</v>
-      </c>
-      <c r="R126" t="n">
-        <v>0.8702299999999999</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="n">
-        <v>1.001533863554838</v>
-      </c>
-      <c r="B127" t="n">
-        <v>51.00427505256131</v>
-      </c>
-      <c r="C127" t="n">
-        <v>4.591476933869932e-05</v>
-      </c>
-      <c r="D127" t="n">
-        <v>-0.01873067439235644</v>
-      </c>
-      <c r="E127" t="n">
-        <v>9.074236620947671e-07</v>
-      </c>
-      <c r="F127" t="n">
-        <v>0.001280400353607838</v>
-      </c>
-      <c r="G127" t="n">
-        <v>-2.080604125197291e-06</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0.0002258908668899712</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0.06507862471580836</v>
-      </c>
-      <c r="J127" t="n">
-        <v>0.0001580986896646664</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-0.001174784151642279</v>
-      </c>
-      <c r="L127" t="n">
-        <v>0.001918478172701253</v>
-      </c>
-      <c r="M127" t="n">
-        <v>-8.26272603136708e-05</v>
-      </c>
-      <c r="N127" t="n">
-        <v>4.70271233171508e-05</v>
-      </c>
-      <c r="O127" t="n">
-        <v>1.975508970789677e-05</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0.0005241949385145801</v>
-      </c>
-      <c r="Q127" t="n">
-        <v>4151.527099396052</v>
-      </c>
-      <c r="R127" t="n">
-        <v>0.87913</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="n">
-        <v>1.001544506098108</v>
-      </c>
-      <c r="B128" t="n">
-        <v>51.04539740145377</v>
-      </c>
-      <c r="C128" t="n">
-        <v>4.148943908867182e-05</v>
-      </c>
-      <c r="D128" t="n">
-        <v>-0.01504878707747935</v>
-      </c>
-      <c r="E128" t="n">
-        <v>9.512364618352501e-07</v>
-      </c>
-      <c r="F128" t="n">
-        <v>0.001166431301523864</v>
-      </c>
-      <c r="G128" t="n">
-        <v>-2.662052132976301e-06</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0.0002228662631085519</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0.05930875772697906</v>
-      </c>
-      <c r="J128" t="n">
-        <v>0.0001139693678951627</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-0.001098504859350743</v>
-      </c>
-      <c r="L128" t="n">
-        <v>0.001975856145753308</v>
-      </c>
-      <c r="M128" t="n">
-        <v>-9.122284287636136e-05</v>
-      </c>
-      <c r="N128" t="n">
-        <v>4.794462834029384e-05</v>
-      </c>
-      <c r="O128" t="n">
-        <v>3.053964010358438e-05</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0.0005179878030569522</v>
-      </c>
-      <c r="Q128" t="n">
-        <v>4153.495632333117</v>
-      </c>
-      <c r="R128" t="n">
-        <v>0.88802</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="n">
-        <v>1.001553989552507</v>
-      </c>
-      <c r="B129" t="n">
-        <v>51.08350481770445</v>
-      </c>
-      <c r="C129" t="n">
-        <v>3.694043680063635e-05</v>
-      </c>
-      <c r="D129" t="n">
-        <v>-0.01155374757445458</v>
-      </c>
-      <c r="E129" t="n">
-        <v>9.206152333258564e-07</v>
-      </c>
-      <c r="F129" t="n">
-        <v>0.0010520250297336</v>
-      </c>
-      <c r="G129" t="n">
-        <v>-2.733046830589187e-06</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0.0002121916015908824</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0.05350058511155017</v>
-      </c>
-      <c r="J129" t="n">
-        <v>9.544857649880678e-05</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-0.001017367300187134</v>
-      </c>
-      <c r="L129" t="n">
-        <v>0.001942451096729616</v>
-      </c>
-      <c r="M129" t="n">
-        <v>-9.761328388391363e-05</v>
-      </c>
-      <c r="N129" t="n">
-        <v>4.768456214428203e-05</v>
-      </c>
-      <c r="O129" t="n">
-        <v>4.97652158824383e-05</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0.0005075773249293163</v>
-      </c>
-      <c r="Q129" t="n">
-        <v>4155.323391328376</v>
-      </c>
-      <c r="R129" t="n">
-        <v>0.8969600000000001</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="n">
-        <v>1.001564562595283</v>
-      </c>
-      <c r="B130" t="n">
-        <v>51.11834610622864</v>
-      </c>
-      <c r="C130" t="n">
-        <v>3.317870005081726e-05</v>
-      </c>
-      <c r="D130" t="n">
-        <v>-0.008490040850908364</v>
-      </c>
-      <c r="E130" t="n">
-        <v>9.040157373139179e-07</v>
-      </c>
-      <c r="F130" t="n">
-        <v>0.0009361226643129204</v>
-      </c>
-      <c r="G130" t="n">
-        <v>-2.424078390873016e-06</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0.0002075125018688408</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0.04761571726847159</v>
-      </c>
-      <c r="J130" t="n">
-        <v>9.649672636422751e-05</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-0.000931745492028667</v>
-      </c>
-      <c r="L130" t="n">
-        <v>0.001955595422003756</v>
-      </c>
-      <c r="M130" t="n">
-        <v>-0.0001024632234021862</v>
-      </c>
-      <c r="N130" t="n">
-        <v>4.776530717606487e-05</v>
-      </c>
-      <c r="O130" t="n">
-        <v>7.235554547143317e-05</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0.0005032679014934659</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>4156.990026986779</v>
-      </c>
-      <c r="R130" t="n">
-        <v>0.9059</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="n">
-        <v>1.00157271272916</v>
-      </c>
-      <c r="B131" t="n">
-        <v>51.14989837554607</v>
-      </c>
-      <c r="C131" t="n">
-        <v>2.61039655988571e-05</v>
-      </c>
-      <c r="D131" t="n">
-        <v>-0.006067112151568726</v>
-      </c>
-      <c r="E131" t="n">
-        <v>7.826166266954915e-07</v>
-      </c>
-      <c r="F131" t="n">
-        <v>0.0008331085730704629</v>
-      </c>
-      <c r="G131" t="n">
-        <v>-9.963420918425024e-07</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0.0001218481454775837</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0.04237948934869711</v>
-      </c>
-      <c r="J131" t="n">
-        <v>0.0001625542727247395</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-0.0008425138854749332</v>
-      </c>
-      <c r="L131" t="n">
-        <v>0.001967418799162791</v>
-      </c>
-      <c r="M131" t="n">
-        <v>-0.0001066304786241625</v>
-      </c>
-      <c r="N131" t="n">
-        <v>4.873042409113693e-05</v>
-      </c>
-      <c r="O131" t="n">
-        <v>8.941675378960249e-05</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0.0004769290884069894</v>
-      </c>
-      <c r="Q131" t="n">
-        <v>4158.504108744329</v>
-      </c>
-      <c r="R131" t="n">
-        <v>0.91484</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="n">
-        <v>1.001571877522195</v>
-      </c>
-      <c r="B132" t="n">
-        <v>51.14995129360595</v>
-      </c>
-      <c r="C132" t="n">
-        <v>4.141777322941843e-05</v>
-      </c>
-      <c r="D132" t="n">
-        <v>-0.006027492103819164</v>
-      </c>
-      <c r="E132" t="n">
-        <v>1.245698305463075e-06</v>
-      </c>
-      <c r="F132" t="n">
-        <v>0.0008327159911188458</v>
-      </c>
-      <c r="G132" t="n">
-        <v>-4.737159206971353e-06</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0.0004829352949940028</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0.04236723731311653</v>
-      </c>
-      <c r="J132" t="n">
-        <v>-5.384904997029395e-05</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-0.0008388000096944779</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0.001978320205306699</v>
-      </c>
-      <c r="M132" t="n">
-        <v>-0.0001047816750240169</v>
-      </c>
-      <c r="N132" t="n">
-        <v>4.626943953213276e-05</v>
-      </c>
-      <c r="O132" t="n">
-        <v>8.873924016231727e-05</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0.000569182313991178</v>
-      </c>
-      <c r="Q132" t="n">
-        <v>4158.509105651542</v>
-      </c>
-      <c r="R132" t="n">
-        <v>0.9148500000000001</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="n">
-        <v>1.001581210205363</v>
-      </c>
-      <c r="B133" t="n">
-        <v>51.17812384165845</v>
-      </c>
-      <c r="C133" t="n">
-        <v>2.718649561138039e-05</v>
-      </c>
-      <c r="D133" t="n">
-        <v>-0.004412171242372632</v>
-      </c>
-      <c r="E133" t="n">
-        <v>8.737668783399584e-07</v>
-      </c>
-      <c r="F133" t="n">
-        <v>0.0007189956526157475</v>
-      </c>
-      <c r="G133" t="n">
-        <v>-1.043012631162003e-06</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0.0001958786590329778</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0.03656548789450317</v>
-      </c>
-      <c r="J133" t="n">
-        <v>0.0001452416439893285</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-0.00074723979288995</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0.00197809350699738</v>
-      </c>
-      <c r="M133" t="n">
-        <v>-0.0001091063756618614</v>
-      </c>
-      <c r="N133" t="n">
-        <v>4.841551201663404e-05</v>
-      </c>
-      <c r="O133" t="n">
-        <v>9.63821249140579e-05</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0.0004891177851567934</v>
-      </c>
-      <c r="Q133" t="n">
-        <v>4159.857459470511</v>
-      </c>
-      <c r="R133" t="n">
-        <v>0.92379</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="n">
-        <v>1.001586809478971</v>
-      </c>
-      <c r="B134" t="n">
-        <v>51.20285180265348</v>
-      </c>
-      <c r="C134" t="n">
-        <v>2.942749385244498e-05</v>
-      </c>
-      <c r="D134" t="n">
-        <v>-0.003658123820378342</v>
-      </c>
-      <c r="E134" t="n">
-        <v>8.993255660253787e-07</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0006081619832631166</v>
-      </c>
-      <c r="G134" t="n">
-        <v>-1.923228160417204e-07</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0.0001954876018186927</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0.03089997110587263</v>
-      </c>
-      <c r="J134" t="n">
-        <v>0.0001823987090794049</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-0.0006485315268115215</v>
-      </c>
-      <c r="L134" t="n">
-        <v>0.002029579054600235</v>
-      </c>
-      <c r="M134" t="n">
-        <v>-0.0001111553166040082</v>
-      </c>
-      <c r="N134" t="n">
-        <v>4.750826859426139e-05</v>
-      </c>
-      <c r="O134" t="n">
-        <v>9.333560215080517e-05</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0.0004841775489334243</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>4161.047007513271</v>
-      </c>
-      <c r="R134" t="n">
-        <v>0.9327299999999999</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="n">
-        <v>1.001590017711416</v>
-      </c>
-      <c r="B135" t="n">
-        <v>51.22409067696969</v>
-      </c>
-      <c r="C135" t="n">
-        <v>3.991717004784139e-05</v>
-      </c>
-      <c r="D135" t="n">
-        <v>-0.003842411351701142</v>
-      </c>
-      <c r="E135" t="n">
-        <v>8.417414484666846e-07</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0.0004904080772917003</v>
-      </c>
-      <c r="G135" t="n">
-        <v>4.007134324511256e-07</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0.0001874064660917357</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0.02487455715240141</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0.0002083767310096753</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-0.0005454255413222344</v>
-      </c>
-      <c r="L135" t="n">
-        <v>0.001992655777944679</v>
-      </c>
-      <c r="M135" t="n">
-        <v>-0.0001119060660687307</v>
-      </c>
-      <c r="N135" t="n">
-        <v>4.544272986441114e-05</v>
-      </c>
-      <c r="O135" t="n">
-        <v>7.578348019199076e-05</v>
-      </c>
-      <c r="P135" t="n">
-        <v>0.0004748374469002468</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>4162.074926637581</v>
-      </c>
-      <c r="R135" t="n">
-        <v>0.9416899999999999</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="n">
-        <v>1.001592152049144</v>
-      </c>
-      <c r="B136" t="n">
-        <v>51.24172495117527</v>
-      </c>
-      <c r="C136" t="n">
-        <v>5.509444066364282e-05</v>
-      </c>
-      <c r="D136" t="n">
-        <v>-0.004949428450196794</v>
-      </c>
-      <c r="E136" t="n">
-        <v>8.295826514679174e-07</v>
-      </c>
-      <c r="F136" t="n">
-        <v>0.0003686492340503957</v>
-      </c>
-      <c r="G136" t="n">
-        <v>6.694226482243738e-07</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0.0001883973321096451</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0.01864802555969388</v>
-      </c>
-      <c r="J136" t="n">
-        <v>0.0002177746225404547</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-0.0004395781346822046</v>
-      </c>
-      <c r="L136" t="n">
-        <v>0.00199938393778834</v>
-      </c>
-      <c r="M136" t="n">
-        <v>-0.0001111929874665239</v>
-      </c>
-      <c r="N136" t="n">
-        <v>4.291837937433115e-05</v>
-      </c>
-      <c r="O136" t="n">
-        <v>5.117822802700181e-05</v>
-      </c>
-      <c r="P136" t="n">
-        <v>0.0004724224497661009</v>
-      </c>
-      <c r="Q136" t="n">
-        <v>4162.927267805091</v>
-      </c>
-      <c r="R136" t="n">
-        <v>0.9506600000000001</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="n">
-        <v>1.001593265178011</v>
-      </c>
-      <c r="B137" t="n">
-        <v>51.25586578557976</v>
-      </c>
-      <c r="C137" t="n">
-        <v>6.847850373969949e-05</v>
-      </c>
-      <c r="D137" t="n">
-        <v>-0.006850229355550449</v>
-      </c>
-      <c r="E137" t="n">
-        <v>8.325478216114028e-07</v>
-      </c>
-      <c r="F137" t="n">
-        <v>0.0002615015982676106</v>
-      </c>
-      <c r="G137" t="n">
-        <v>7.163254107524006e-07</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0.0001909958929854422</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0.013172579552019</v>
-      </c>
-      <c r="J137" t="n">
-        <v>0.0002156613629367445</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-0.0003330794487177657</v>
-      </c>
-      <c r="L137" t="n">
-        <v>0.002006048714178599</v>
-      </c>
-      <c r="M137" t="n">
-        <v>-0.0001091126675888467</v>
-      </c>
-      <c r="N137" t="n">
-        <v>4.022913592835532e-05</v>
-      </c>
-      <c r="O137" t="n">
-        <v>2.329123013827236e-05</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0.0004717192066700047</v>
-      </c>
-      <c r="Q137" t="n">
-        <v>4163.612088333816</v>
-      </c>
-      <c r="R137" t="n">
-        <v>0.9596299999999999</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="n">
-        <v>1.001593843601471</v>
-      </c>
-      <c r="B138" t="n">
-        <v>51.26664821416116</v>
-      </c>
-      <c r="C138" t="n">
-        <v>7.543703709806768e-05</v>
-      </c>
-      <c r="D138" t="n">
-        <v>-0.009382773636152463</v>
-      </c>
-      <c r="E138" t="n">
-        <v>8.420024996501441e-07</v>
-      </c>
-      <c r="F138" t="n">
-        <v>0.0001497382397885896</v>
-      </c>
-      <c r="G138" t="n">
-        <v>6.559970518843634e-07</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0.000193966689947613</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0.007459219836891185</v>
-      </c>
-      <c r="J138" t="n">
-        <v>0.0002081084713154776</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-0.0002271808272245451</v>
-      </c>
-      <c r="L138" t="n">
-        <v>0.002006991291015256</v>
-      </c>
-      <c r="M138" t="n">
-        <v>-0.0001056797704560739</v>
-      </c>
-      <c r="N138" t="n">
-        <v>3.743653268982477e-05</v>
-      </c>
-      <c r="O138" t="n">
-        <v>-2.034502330664168e-06</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0.0004720608159715601</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>4164.135218767204</v>
-      </c>
-      <c r="R138" t="n">
-        <v>0.96859</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="n">
-        <v>1.001594907967895</v>
-      </c>
-      <c r="B139" t="n">
-        <v>51.27421734410965</v>
-      </c>
-      <c r="C139" t="n">
-        <v>7.331398740359623e-05</v>
-      </c>
-      <c r="D139" t="n">
-        <v>-0.01235192095705791</v>
-      </c>
-      <c r="E139" t="n">
-        <v>8.724344911995003e-07</v>
-      </c>
-      <c r="F139" t="n">
-        <v>5.087099181490057e-05</v>
-      </c>
-      <c r="G139" t="n">
-        <v>6.344824586948469e-07</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0.0002025885759298588</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0.002398332610019187</v>
-      </c>
-      <c r="J139" t="n">
-        <v>0.0002031094293834821</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-0.0001224170964148463</v>
-      </c>
-      <c r="L139" t="n">
-        <v>0.002049701593809474</v>
-      </c>
-      <c r="M139" t="n">
-        <v>-0.0001008512104852028</v>
-      </c>
-      <c r="N139" t="n">
-        <v>3.444997455097418e-05</v>
-      </c>
-      <c r="O139" t="n">
-        <v>-1.750558094311111e-05</v>
-      </c>
-      <c r="P139" t="n">
-        <v>0.0004776602654409806</v>
-      </c>
-      <c r="Q139" t="n">
-        <v>4164.498918720378</v>
-      </c>
-      <c r="R139" t="n">
-        <v>0.97756</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="n">
-        <v>1.00159555533136</v>
-      </c>
-      <c r="B140" t="n">
-        <v>51.27870001693918</v>
-      </c>
-      <c r="C140" t="n">
-        <v>6.379019955048827e-05</v>
-      </c>
-      <c r="D140" t="n">
-        <v>-0.01564141097098479</v>
-      </c>
-      <c r="E140" t="n">
-        <v>8.14445368193727e-07</v>
-      </c>
-      <c r="F140" t="n">
-        <v>-4.357321696634607e-05</v>
-      </c>
-      <c r="G140" t="n">
-        <v>4.032492942942342e-07</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0.0002018180040640102</v>
-      </c>
-      <c r="I140" t="n">
-        <v>-0.002434132526301839</v>
-      </c>
-      <c r="J140" t="n">
-        <v>0.0001885099428451856</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-1.865785892185554e-05</v>
-      </c>
-      <c r="L140" t="n">
-        <v>0.001999814601082115</v>
-      </c>
-      <c r="M140" t="n">
-        <v>-9.428420152023546e-05</v>
-      </c>
-      <c r="N140" t="n">
-        <v>3.113729489764807e-05</v>
-      </c>
-      <c r="O140" t="n">
-        <v>-2.815718371633336e-05</v>
-      </c>
-      <c r="P140" t="n">
-        <v>0.0004773474382251654</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>4164.716135859162</v>
-      </c>
-      <c r="R140" t="n">
-        <v>0.98654</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="n">
-        <v>1.001595433145009</v>
-      </c>
-      <c r="B141" t="n">
-        <v>51.28013391300232</v>
-      </c>
-      <c r="C141" t="n">
-        <v>5.491810533310437e-05</v>
-      </c>
-      <c r="D141" t="n">
-        <v>-0.01921236038225396</v>
-      </c>
-      <c r="E141" t="n">
-        <v>8.070992302731819e-07</v>
-      </c>
-      <c r="F141" t="n">
-        <v>-0.000142063909569793</v>
-      </c>
-      <c r="G141" t="n">
-        <v>1.318053154649806e-07</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0.0002064895660295165</v>
-      </c>
-      <c r="I141" t="n">
-        <v>-0.007474058756250561</v>
-      </c>
-      <c r="J141" t="n">
-        <v>0.0001711568388293526</v>
-      </c>
-      <c r="K141" t="n">
-        <v>8.348204251365348e-05</v>
-      </c>
-      <c r="L141" t="n">
-        <v>0.001993855754466465</v>
-      </c>
-      <c r="M141" t="n">
-        <v>-8.550080304480976e-05</v>
-      </c>
-      <c r="N141" t="n">
-        <v>2.756674430380808e-05</v>
-      </c>
-      <c r="O141" t="n">
-        <v>-3.537687137856346e-05</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0.0004811685435469938</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>4164.784762915391</v>
-      </c>
-      <c r="R141" t="n">
-        <v>0.99551</v>
+        <v>0.79935</v>
       </c>
     </row>
   </sheetData>
